--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -21,12 +21,12 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$AB$1:$AB$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="investigationtype">'cv_sample'!$AI$1:$AI$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="reassemblypostbinning">'cv_sample'!$AF$1:$AF$2</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$BE$1:$BE$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="684">
   <si>
     <t>alias</t>
   </si>
@@ -455,6 +455,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -554,6 +566,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -671,6 +701,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -678,6 +711,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2596,10 +2632,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2640,10 +2676,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2706,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2690,7 +2726,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2707,7 +2743,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2724,7 +2760,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2741,7 +2777,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2758,7 +2794,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2775,7 +2811,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2792,7 +2828,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2809,7 +2845,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2826,7 +2862,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2840,7 +2876,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2854,7 +2890,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2868,7 +2904,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2882,7 +2918,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2892,8 +2928,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2903,8 +2942,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2914,8 +2956,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2925,8 +2970,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2937,7 +2985,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2948,7 +2996,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2959,7 +3007,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2970,7 +3018,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2981,7 +3029,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2992,7 +3040,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3003,7 +3051,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3014,7 +3062,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3025,7 +3073,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3036,7 +3084,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3047,7 +3095,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3058,7 +3106,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3069,7 +3117,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3080,7 +3128,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3088,7 +3136,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3096,7 +3144,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3104,7 +3152,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3112,7 +3160,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3120,7 +3168,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3128,7 +3176,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3136,7 +3184,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3144,7 +3192,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3152,7 +3200,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3160,176 +3208,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3354,27 +3442,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3397,122 +3485,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3539,342 +3627,342 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -3915,1521 +4003,1521 @@
   <sheetData>
     <row r="1" spans="21:57">
       <c r="U1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AB1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AF1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AH1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AP1" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="BE1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="21:57">
       <c r="U2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AB2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AF2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AH2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AI2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AP2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="BE2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="21:57">
       <c r="AH3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AI3" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AP3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="BE3" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="21:57">
       <c r="AI4" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AP4" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="BE4" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="21:57">
       <c r="AI5" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AP5" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="BE5" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="21:57">
       <c r="AI6" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AP6" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="BE6" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="21:57">
       <c r="AI7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AP7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="BE7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="21:57">
       <c r="AI8" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AP8" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="21:57">
       <c r="AI9" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AP9" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="21:57">
       <c r="AI10" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AP10" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="21:57">
       <c r="AI11" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AP11" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="21:57">
       <c r="AI12" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AP12" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="21:57">
       <c r="AP13" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="21:57">
       <c r="AP14" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="21:57">
       <c r="AP15" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="21:57">
       <c r="AP16" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="42:42">
       <c r="AP17" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="42:42">
       <c r="AP18" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="42:42">
       <c r="AP19" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="42:42">
       <c r="AP20" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="42:42">
       <c r="AP21" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="42:42">
       <c r="AP22" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="42:42">
       <c r="AP23" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="42:42">
       <c r="AP24" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="42:42">
       <c r="AP25" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="42:42">
       <c r="AP26" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="42:42">
       <c r="AP27" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="42:42">
       <c r="AP28" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="42:42">
       <c r="AP29" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="42:42">
       <c r="AP30" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="42:42">
       <c r="AP31" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="42:42">
       <c r="AP32" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="42:42">
       <c r="AP33" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="42:42">
       <c r="AP34" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="42:42">
       <c r="AP35" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="42:42">
       <c r="AP36" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="42:42">
       <c r="AP37" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="42:42">
       <c r="AP38" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="42:42">
       <c r="AP39" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="42:42">
       <c r="AP40" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="42:42">
       <c r="AP41" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="42:42">
       <c r="AP42" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="42:42">
       <c r="AP43" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="42:42">
       <c r="AP44" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="42:42">
       <c r="AP45" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="42:42">
       <c r="AP46" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="42:42">
       <c r="AP47" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="42:42">
       <c r="AP48" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="42:42">
       <c r="AP49" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="42:42">
       <c r="AP50" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="42:42">
       <c r="AP51" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="42:42">
       <c r="AP52" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="42:42">
       <c r="AP53" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="42:42">
       <c r="AP54" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="42:42">
       <c r="AP55" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="42:42">
       <c r="AP56" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="42:42">
       <c r="AP57" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="42:42">
       <c r="AP58" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="42:42">
       <c r="AP59" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="42:42">
       <c r="AP60" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="42:42">
       <c r="AP61" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="42:42">
       <c r="AP62" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="42:42">
       <c r="AP63" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="42:42">
       <c r="AP64" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="42:42">
       <c r="AP65" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="42:42">
       <c r="AP66" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="42:42">
       <c r="AP67" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="42:42">
       <c r="AP68" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="42:42">
       <c r="AP69" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="42:42">
       <c r="AP70" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="42:42">
       <c r="AP71" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="42:42">
       <c r="AP72" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="42:42">
       <c r="AP73" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="42:42">
       <c r="AP74" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="42:42">
       <c r="AP75" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="42:42">
       <c r="AP76" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="42:42">
       <c r="AP77" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="42:42">
       <c r="AP78" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="42:42">
       <c r="AP79" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="42:42">
       <c r="AP80" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="42:42">
       <c r="AP81" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="42:42">
       <c r="AP82" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="42:42">
       <c r="AP83" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="42:42">
       <c r="AP84" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="42:42">
       <c r="AP85" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="42:42">
       <c r="AP86" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="42:42">
       <c r="AP87" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="42:42">
       <c r="AP88" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="42:42">
       <c r="AP89" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="42:42">
       <c r="AP90" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="42:42">
       <c r="AP91" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="42:42">
       <c r="AP92" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="42:42">
       <c r="AP93" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="42:42">
       <c r="AP94" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="42:42">
       <c r="AP95" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="42:42">
       <c r="AP96" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="42:42">
       <c r="AP97" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="98" spans="42:42">
       <c r="AP98" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="42:42">
       <c r="AP99" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="42:42">
       <c r="AP100" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="101" spans="42:42">
       <c r="AP101" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102" spans="42:42">
       <c r="AP102" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="42:42">
       <c r="AP103" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="42:42">
       <c r="AP104" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="42:42">
       <c r="AP105" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106" spans="42:42">
       <c r="AP106" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="107" spans="42:42">
       <c r="AP107" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="42:42">
       <c r="AP108" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="42:42">
       <c r="AP109" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="42:42">
       <c r="AP110" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="42:42">
       <c r="AP111" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="42:42">
       <c r="AP112" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113" spans="42:42">
       <c r="AP113" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115" spans="42:42">
       <c r="AP115" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="116" spans="42:42">
       <c r="AP116" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="42:42">
       <c r="AP117" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="42:42">
       <c r="AP118" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="42:42">
       <c r="AP119" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="42:42">
       <c r="AP120" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="42:42">
       <c r="AP121" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="42:42">
       <c r="AP122" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="42:42">
       <c r="AP123" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="42:42">
       <c r="AP124" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="42:42">
       <c r="AP125" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="126" spans="42:42">
       <c r="AP126" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="42:42">
       <c r="AP127" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="42:42">
       <c r="AP128" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="42:42">
       <c r="AP129" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="42:42">
       <c r="AP130" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="42:42">
       <c r="AP131" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="42:42">
       <c r="AP132" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="133" spans="42:42">
       <c r="AP133" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="42:42">
       <c r="AP134" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="42:42">
       <c r="AP135" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="42:42">
       <c r="AP136" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="42:42">
       <c r="AP137" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="42:42">
       <c r="AP138" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="42:42">
       <c r="AP139" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="140" spans="42:42">
       <c r="AP140" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="141" spans="42:42">
       <c r="AP141" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="142" spans="42:42">
       <c r="AP142" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="143" spans="42:42">
       <c r="AP143" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="42:42">
       <c r="AP144" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="42:42">
       <c r="AP146" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="147" spans="42:42">
       <c r="AP147" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="42:42">
       <c r="AP148" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="149" spans="42:42">
       <c r="AP149" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="150" spans="42:42">
       <c r="AP150" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="151" spans="42:42">
       <c r="AP151" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="152" spans="42:42">
       <c r="AP152" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="153" spans="42:42">
       <c r="AP153" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="154" spans="42:42">
       <c r="AP154" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="155" spans="42:42">
       <c r="AP155" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="156" spans="42:42">
       <c r="AP156" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="157" spans="42:42">
       <c r="AP157" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="158" spans="42:42">
       <c r="AP158" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="159" spans="42:42">
       <c r="AP159" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="160" spans="42:42">
       <c r="AP160" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="161" spans="42:42">
       <c r="AP161" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="162" spans="42:42">
       <c r="AP162" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="163" spans="42:42">
       <c r="AP163" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="164" spans="42:42">
       <c r="AP164" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="165" spans="42:42">
       <c r="AP165" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="166" spans="42:42">
       <c r="AP166" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="167" spans="42:42">
       <c r="AP167" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="168" spans="42:42">
       <c r="AP168" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="169" spans="42:42">
       <c r="AP169" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="170" spans="42:42">
       <c r="AP170" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="171" spans="42:42">
       <c r="AP171" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="172" spans="42:42">
       <c r="AP172" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="173" spans="42:42">
       <c r="AP173" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="174" spans="42:42">
       <c r="AP174" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="175" spans="42:42">
       <c r="AP175" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="176" spans="42:42">
       <c r="AP176" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="178" spans="42:42">
       <c r="AP178" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="179" spans="42:42">
       <c r="AP179" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="180" spans="42:42">
       <c r="AP180" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="181" spans="42:42">
       <c r="AP181" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="182" spans="42:42">
       <c r="AP182" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="183" spans="42:42">
       <c r="AP183" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="184" spans="42:42">
       <c r="AP184" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="185" spans="42:42">
       <c r="AP185" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="186" spans="42:42">
       <c r="AP186" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="187" spans="42:42">
       <c r="AP187" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="188" spans="42:42">
       <c r="AP188" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="189" spans="42:42">
       <c r="AP189" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="190" spans="42:42">
       <c r="AP190" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="191" spans="42:42">
       <c r="AP191" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="192" spans="42:42">
       <c r="AP192" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="193" spans="42:42">
       <c r="AP193" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="194" spans="42:42">
       <c r="AP194" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="195" spans="42:42">
       <c r="AP195" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="196" spans="42:42">
       <c r="AP196" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="197" spans="42:42">
       <c r="AP197" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="42:42">
       <c r="AP198" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="199" spans="42:42">
       <c r="AP199" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="200" spans="42:42">
       <c r="AP200" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="201" spans="42:42">
       <c r="AP201" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="202" spans="42:42">
       <c r="AP202" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="203" spans="42:42">
       <c r="AP203" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="204" spans="42:42">
       <c r="AP204" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="205" spans="42:42">
       <c r="AP205" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="206" spans="42:42">
       <c r="AP206" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="207" spans="42:42">
       <c r="AP207" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="208" spans="42:42">
       <c r="AP208" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="209" spans="42:42">
       <c r="AP209" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="210" spans="42:42">
       <c r="AP210" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="42:42">
       <c r="AP211" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="212" spans="42:42">
       <c r="AP212" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="213" spans="42:42">
       <c r="AP213" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="214" spans="42:42">
       <c r="AP214" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="42:42">
       <c r="AP215" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="216" spans="42:42">
       <c r="AP216" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="42:42">
       <c r="AP217" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="218" spans="42:42">
       <c r="AP218" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="219" spans="42:42">
       <c r="AP219" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="220" spans="42:42">
       <c r="AP220" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="221" spans="42:42">
       <c r="AP221" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="222" spans="42:42">
       <c r="AP222" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="223" spans="42:42">
       <c r="AP223" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="224" spans="42:42">
       <c r="AP224" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="225" spans="42:42">
       <c r="AP225" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="226" spans="42:42">
       <c r="AP226" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="227" spans="42:42">
       <c r="AP227" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="228" spans="42:42">
       <c r="AP228" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="229" spans="42:42">
       <c r="AP229" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="230" spans="42:42">
       <c r="AP230" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="231" spans="42:42">
       <c r="AP231" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="232" spans="42:42">
       <c r="AP232" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="233" spans="42:42">
       <c r="AP233" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="234" spans="42:42">
       <c r="AP234" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="235" spans="42:42">
       <c r="AP235" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="236" spans="42:42">
       <c r="AP236" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="237" spans="42:42">
       <c r="AP237" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="238" spans="42:42">
       <c r="AP238" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="239" spans="42:42">
       <c r="AP239" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="240" spans="42:42">
       <c r="AP240" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="241" spans="42:42">
       <c r="AP241" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="242" spans="42:42">
       <c r="AP242" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="243" spans="42:42">
       <c r="AP243" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="244" spans="42:42">
       <c r="AP244" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="245" spans="42:42">
       <c r="AP245" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="246" spans="42:42">
       <c r="AP246" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="247" spans="42:42">
       <c r="AP247" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="248" spans="42:42">
       <c r="AP248" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="249" spans="42:42">
       <c r="AP249" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="250" spans="42:42">
       <c r="AP250" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="251" spans="42:42">
       <c r="AP251" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="42:42">
       <c r="AP252" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="253" spans="42:42">
       <c r="AP253" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="254" spans="42:42">
       <c r="AP254" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="255" spans="42:42">
       <c r="AP255" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="256" spans="42:42">
       <c r="AP256" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="257" spans="42:42">
       <c r="AP257" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="258" spans="42:42">
       <c r="AP258" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="259" spans="42:42">
       <c r="AP259" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="260" spans="42:42">
       <c r="AP260" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="261" spans="42:42">
       <c r="AP261" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="262" spans="42:42">
       <c r="AP262" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="263" spans="42:42">
       <c r="AP263" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="264" spans="42:42">
       <c r="AP264" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="265" spans="42:42">
       <c r="AP265" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="266" spans="42:42">
       <c r="AP266" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="267" spans="42:42">
       <c r="AP267" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="268" spans="42:42">
       <c r="AP268" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="269" spans="42:42">
       <c r="AP269" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="270" spans="42:42">
       <c r="AP270" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="271" spans="42:42">
       <c r="AP271" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="272" spans="42:42">
       <c r="AP272" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
     <row r="273" spans="42:42">
       <c r="AP273" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="274" spans="42:42">
       <c r="AP274" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="275" spans="42:42">
       <c r="AP275" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
     <row r="276" spans="42:42">
       <c r="AP276" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="277" spans="42:42">
       <c r="AP277" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="278" spans="42:42">
       <c r="AP278" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="279" spans="42:42">
       <c r="AP279" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="280" spans="42:42">
       <c r="AP280" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="281" spans="42:42">
       <c r="AP281" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="282" spans="42:42">
       <c r="AP282" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="283" spans="42:42">
       <c r="AP283" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="284" spans="42:42">
       <c r="AP284" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="285" spans="42:42">
       <c r="AP285" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="286" spans="42:42">
       <c r="AP286" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="287" spans="42:42">
       <c r="AP287" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -956,8 +956,7 @@
     <t>completeness score</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. Units: 
-                    </t>
+    <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
     <t>completeness software</t>
@@ -975,8 +974,7 @@
     <t>contamination score</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. Units: 
-                    </t>
+    <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
   </si>
   <si>
     <t>contigs</t>
@@ -1012,8 +1010,7 @@
     <t>reassembly post binning</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? Units: 
-                    </t>
+    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
   </si>
   <si>
     <t>MAG coverage software</t>
@@ -1112,8 +1109,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1986,22 +1982,19 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -2025,8 +2018,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -2050,8 +2042,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>size fraction selected</t>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -104,7 +104,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -17,18 +17,18 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="assemblyquality">'cv_sample'!$AH$1:$AH$3</definedName>
-    <definedName name="contaminationscreeninginput">'cv_sample'!$AB$1:$AB$2</definedName>
+    <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
+    <definedName name="contaminationscreeninginput">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
-    <definedName name="investigationtype">'cv_sample'!$AI$1:$AI$12</definedName>
+    <definedName name="investigationtype">'cv_sample'!$AB$1:$AB$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="reassemblypostbinning">'cv_sample'!$AF$1:$AF$2</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$BE$1:$BE$7</definedName>
+    <definedName name="reassemblypostbinning">'cv_sample'!$Y$1:$Y$2</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$E$1:$E$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="685">
   <si>
     <t>alias</t>
   </si>
@@ -833,24 +833,1206 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
+    <t>aerobe</t>
+  </si>
+  <si>
+    <t>anaerobe</t>
+  </si>
+  <si>
+    <t>facultative</t>
+  </si>
+  <si>
+    <t>microaerophilic</t>
+  </si>
+  <si>
+    <t>microanaerobe</t>
+  </si>
+  <si>
+    <t>obligate aerobe</t>
+  </si>
+  <si>
+    <t>obligate anaerobe</t>
+  </si>
+  <si>
+    <t>relationship to oxygen</t>
+  </si>
+  <si>
+    <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
+  </si>
+  <si>
+    <t>sample collection method</t>
+  </si>
+  <si>
+    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
+  </si>
+  <si>
+    <t>metagenomic source</t>
+  </si>
+  <si>
+    <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
+  </si>
+  <si>
+    <t>sample derived from</t>
+  </si>
+  <si>
+    <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
+  </si>
+  <si>
     <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
+    <t>multiplex identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
+  </si>
+  <si>
+    <t>relevant electronic resources</t>
+  </si>
+  <si>
+    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>relevant standard operating procedures</t>
+  </si>
+  <si>
+    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>number of standard tRNAs extracted</t>
+  </si>
+  <si>
+    <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>16s recovered</t>
+  </si>
+  <si>
+    <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
+  </si>
+  <si>
+    <t>16S recovery software</t>
+  </si>
+  <si>
+    <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>tRNA extraction software</t>
+  </si>
+  <si>
+    <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>completeness score</t>
+  </si>
+  <si>
+    <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
+  </si>
+  <si>
+    <t>completeness software</t>
+  </si>
+  <si>
+    <t>(Recommended) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
+  </si>
+  <si>
+    <t>completeness approach</t>
+  </si>
+  <si>
+    <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
+  </si>
+  <si>
+    <t>contamination score</t>
+  </si>
+  <si>
+    <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
+  </si>
+  <si>
+    <t>contigs</t>
+  </si>
+  <si>
+    <t>reads</t>
+  </si>
+  <si>
+    <t>contamination screening input</t>
+  </si>
+  <si>
+    <t>(Optional) The type of sequence data used as input</t>
+  </si>
+  <si>
+    <t>contamination screening parameters</t>
+  </si>
+  <si>
+    <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
+  </si>
+  <si>
+    <t>decontamination software</t>
+  </si>
+  <si>
+    <t>(Optional) Tool(s) used in contamination screening</t>
+  </si>
+  <si>
+    <t>binning software</t>
+  </si>
+  <si>
+    <t>(Mandatory) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
+  </si>
+  <si>
+    <t>reassembly post binning</t>
+  </si>
+  <si>
+    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
+  </si>
+  <si>
+    <t>MAG coverage software</t>
+  </si>
+  <si>
+    <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
+  </si>
+  <si>
+    <t>Many fragments with little to no review of assembly other than reporting of standard assembly statistics</t>
+  </si>
+  <si>
+    <t>Multiple fragments where gaps span repetitive regions. Presence of the 23S, 16S, and 5S rRNA genes and at least 18 tRNAs</t>
+  </si>
+  <si>
+    <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
+  </si>
+  <si>
+    <t>assembly quality</t>
+  </si>
+  <si>
+    <t>(Recommended) The assembly quality category is based on sets of criteria outlined for each assembly quality category. for misag/mimag; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities with a consensus error rate equivalent to q50 or better. high quality draft:multiple fragments where gaps span repetitive regions. presence of the 23s, 16s and 5s rrna genes and at least 18 trnas. medium quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. low quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. for miuvig; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units. high-quality draft genome: one or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete. genome fragment(s): one or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated.</t>
+  </si>
+  <si>
+    <t>bacteria_archaea</t>
+  </si>
+  <si>
+    <t>eukaryote</t>
+  </si>
+  <si>
+    <t>metagenome</t>
+  </si>
+  <si>
+    <t>metagenome-assembled genome</t>
+  </si>
+  <si>
+    <t>metatranscriptome</t>
+  </si>
+  <si>
+    <t>mimarks-specimen</t>
+  </si>
+  <si>
+    <t>mimarks-survey</t>
+  </si>
+  <si>
+    <t>organelle</t>
+  </si>
+  <si>
+    <t>plasmid</t>
+  </si>
+  <si>
+    <t>single amplified genome</t>
+  </si>
+  <si>
+    <t>uncultivated viral genomes</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>investigation type</t>
+  </si>
+  <si>
+    <t>(Mandatory) Nucleic acid sequence report is the root element of all mixs compliant reports as standardised by genomic standards consortium</t>
+  </si>
+  <si>
+    <t>binning parameters</t>
+  </si>
+  <si>
+    <t>(Mandatory) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
+  </si>
+  <si>
+    <t>taxonomic identity marker</t>
+  </si>
+  <si>
+    <t>(Recommended) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
+  </si>
+  <si>
+    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
+  </si>
+  <si>
+    <t>source material identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
+  </si>
+  <si>
     <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
+    <t>taxonomic classification</t>
+  </si>
+  <si>
+    <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
+  </si>
+  <si>
     <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
+    <t>sample material processing</t>
+  </si>
+  <si>
+    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
+  </si>
+  <si>
     <t>nucleic acid extraction</t>
   </si>
   <si>
@@ -887,10 +2069,10 @@
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
+    <t>assembly software</t>
+  </si>
+  <si>
+    <t>(Mandatory) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
   </si>
   <si>
     <t>adapters</t>
@@ -905,1189 +2087,10 @@
     <t>(Mandatory) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
-  </si>
-  <si>
-    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>relevant standard operating procedures</t>
-  </si>
-  <si>
-    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>number of standard tRNAs extracted</t>
-  </si>
-  <si>
-    <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
-  </si>
-  <si>
-    <t>assembly software</t>
-  </si>
-  <si>
-    <t>(Mandatory) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>16S recovered</t>
-  </si>
-  <si>
-    <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
-  </si>
-  <si>
-    <t>16S recovery software</t>
-  </si>
-  <si>
-    <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>tRNA extraction software</t>
-  </si>
-  <si>
-    <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>completeness score</t>
-  </si>
-  <si>
-    <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
-  </si>
-  <si>
-    <t>completeness software</t>
-  </si>
-  <si>
-    <t>(Recommended) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
-  </si>
-  <si>
-    <t>completeness approach</t>
-  </si>
-  <si>
-    <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
-  </si>
-  <si>
-    <t>contamination score</t>
-  </si>
-  <si>
-    <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
-  </si>
-  <si>
-    <t>contigs</t>
-  </si>
-  <si>
-    <t>reads</t>
-  </si>
-  <si>
-    <t>contamination screening input</t>
-  </si>
-  <si>
-    <t>(Optional) The type of sequence data used as input</t>
-  </si>
-  <si>
-    <t>contamination screening parameters</t>
-  </si>
-  <si>
-    <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
-  </si>
-  <si>
-    <t>decontamination software</t>
-  </si>
-  <si>
-    <t>(Optional) Tool(s) used in contamination screening</t>
-  </si>
-  <si>
-    <t>binning software</t>
-  </si>
-  <si>
-    <t>(Mandatory) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
-  </si>
-  <si>
-    <t>reassembly post binning</t>
-  </si>
-  <si>
-    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
-  </si>
-  <si>
-    <t>MAG coverage software</t>
-  </si>
-  <si>
-    <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
-  </si>
-  <si>
-    <t>Many fragments with little to no review of assembly other than reporting of standard assembly statistics</t>
-  </si>
-  <si>
-    <t>Multiple fragments where gaps span repetitive regions. Presence of the 23S, 16S, and 5S rRNA genes and at least 18 tRNAs</t>
-  </si>
-  <si>
-    <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
-  </si>
-  <si>
-    <t>assembly quality</t>
-  </si>
-  <si>
-    <t>(Recommended) Assembly quality is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. in sags, assembly quality is mandatory for prokaryotes and optional for eukaryotes.</t>
-  </si>
-  <si>
-    <t>bacteria_archaea</t>
-  </si>
-  <si>
-    <t>eukaryote</t>
-  </si>
-  <si>
-    <t>metagenome</t>
-  </si>
-  <si>
-    <t>metagenome-assembled genome</t>
-  </si>
-  <si>
-    <t>metatranscriptome</t>
-  </si>
-  <si>
-    <t>mimarks-specimen</t>
-  </si>
-  <si>
-    <t>mimarks-survey</t>
-  </si>
-  <si>
-    <t>organelle</t>
-  </si>
-  <si>
-    <t>plasmid</t>
-  </si>
-  <si>
-    <t>single amplified genome</t>
-  </si>
-  <si>
-    <t>uncultivated viral genomes</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>investigation type</t>
-  </si>
-  <si>
-    <t>(Mandatory) Nucleic acid sequence report is the root element of all mixs compliant reports as standardised by genomic standards consortium</t>
-  </si>
-  <si>
-    <t>binning parameters</t>
-  </si>
-  <si>
-    <t>(Mandatory) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
-  </si>
-  <si>
-    <t>taxonomic identity marker</t>
-  </si>
-  <si>
-    <t>(Recommended) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
-  </si>
-  <si>
-    <t>taxonomic classification</t>
-  </si>
-  <si>
-    <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>source material identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
-  </si>
-  <si>
-    <t>sample collection device or method</t>
-  </si>
-  <si>
-    <t>(Optional) The method or deviced employed for collecting the sample</t>
-  </si>
-  <si>
-    <t>sample material processing</t>
-  </si>
-  <si>
-    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
-  </si>
-  <si>
-    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
-  </si>
-  <si>
-    <t>sample derived from</t>
-  </si>
-  <si>
-    <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
-  </si>
-  <si>
-    <t>metagenomic source</t>
-  </si>
-  <si>
-    <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
-  </si>
-  <si>
-    <t>aerobe</t>
-  </si>
-  <si>
-    <t>anaerobe</t>
-  </si>
-  <si>
-    <t>facultative</t>
-  </si>
-  <si>
-    <t>microaerophilic</t>
-  </si>
-  <si>
-    <t>microanaerobe</t>
-  </si>
-  <si>
-    <t>obligate aerobe</t>
-  </si>
-  <si>
-    <t>obligate anaerobe</t>
-  </si>
-  <si>
-    <t>relationship to oxygen</t>
-  </si>
-  <si>
-    <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3624,163 +3627,163 @@
         <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>330</v>
+        <v>637</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>344</v>
+        <v>639</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>346</v>
+        <v>641</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>348</v>
+        <v>643</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>350</v>
+        <v>645</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>352</v>
+        <v>647</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>354</v>
+        <v>649</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="150" customHeight="1">
@@ -3797,187 +3800,187 @@
         <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>331</v>
+        <v>638</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>345</v>
+        <v>640</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>347</v>
+        <v>642</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>349</v>
+        <v>644</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>351</v>
+        <v>646</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>353</v>
+        <v>648</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>355</v>
+        <v>650</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>357</v>
+        <v>652</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+      <formula1>relationshiptooxygen</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+      <formula1>16srecovered</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
-      <formula1>16Srecovered</formula1>
+      <formula1>contaminationscreeninginput</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
+      <formula1>reassemblypostbinning</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
+      <formula1>assemblyquality</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
-      <formula1>contaminationscreeninginput</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
-      <formula1>reassemblypostbinning</formula1>
+      <formula1>investigationtype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
-      <formula1>assemblyquality</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
-      <formula1>investigationtype</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
       <formula1>geographiclocationcountryandorsea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE3:BE101">
-      <formula1>relationshiptooxygen</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3986,1529 +3989,1534 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="U1:BE287"/>
+  <dimension ref="E1:AH288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="21:57">
+    <row r="1" spans="5:34">
+      <c r="E1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" t="s">
+        <v>290</v>
+      </c>
       <c r="U1" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>320</v>
       </c>
       <c r="AB1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="AH1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="5:34">
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" t="s">
+        <v>291</v>
+      </c>
+      <c r="U2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="5:34">
+      <c r="E3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB3" t="s">
         <v>327</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AH3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="5:34">
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="5:34">
+      <c r="E5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="5:34">
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="5:34">
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="5:34">
+      <c r="AB8" t="s">
         <v>332</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AH8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="5:34">
+      <c r="AB9" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="5:34">
+      <c r="AB10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH10" t="s">
         <v>358</v>
       </c>
-      <c r="BE1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="2" spans="21:57">
-      <c r="U2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>328</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>333</v>
-      </c>
-      <c r="AP2" t="s">
+    </row>
+    <row r="11" spans="5:34">
+      <c r="AB11" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH11" t="s">
         <v>359</v>
       </c>
-      <c r="BE2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="3" spans="21:57">
-      <c r="AH3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP3" t="s">
+    </row>
+    <row r="12" spans="5:34">
+      <c r="AB12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH12" t="s">
         <v>360</v>
       </c>
-      <c r="BE3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="4" spans="21:57">
-      <c r="AI4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AP4" t="s">
+    </row>
+    <row r="13" spans="5:34">
+      <c r="AH13" t="s">
         <v>361</v>
       </c>
-      <c r="BE4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="5" spans="21:57">
-      <c r="AI5" t="s">
-        <v>336</v>
-      </c>
-      <c r="AP5" t="s">
+    </row>
+    <row r="14" spans="5:34">
+      <c r="AH14" t="s">
         <v>362</v>
       </c>
-      <c r="BE5" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="6" spans="21:57">
-      <c r="AI6" t="s">
-        <v>337</v>
-      </c>
-      <c r="AP6" t="s">
+    </row>
+    <row r="15" spans="5:34">
+      <c r="AH15" t="s">
         <v>363</v>
       </c>
-      <c r="BE6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="7" spans="21:57">
-      <c r="AI7" t="s">
-        <v>338</v>
-      </c>
-      <c r="AP7" t="s">
+    </row>
+    <row r="16" spans="5:34">
+      <c r="AH16" t="s">
         <v>364</v>
       </c>
-      <c r="BE7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="8" spans="21:57">
-      <c r="AI8" t="s">
-        <v>339</v>
-      </c>
-      <c r="AP8" t="s">
+    </row>
+    <row r="17" spans="34:34">
+      <c r="AH17" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="21:57">
-      <c r="AI9" t="s">
-        <v>340</v>
-      </c>
-      <c r="AP9" t="s">
+    <row r="18" spans="34:34">
+      <c r="AH18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="21:57">
-      <c r="AI10" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP10" t="s">
+    <row r="19" spans="34:34">
+      <c r="AH19" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="21:57">
-      <c r="AI11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AP11" t="s">
+    <row r="20" spans="34:34">
+      <c r="AH20" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="21:57">
-      <c r="AI12" t="s">
-        <v>343</v>
-      </c>
-      <c r="AP12" t="s">
+    <row r="21" spans="34:34">
+      <c r="AH21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="21:57">
-      <c r="AP13" t="s">
+    <row r="22" spans="34:34">
+      <c r="AH22" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="21:57">
-      <c r="AP14" t="s">
+    <row r="23" spans="34:34">
+      <c r="AH23" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="21:57">
-      <c r="AP15" t="s">
+    <row r="24" spans="34:34">
+      <c r="AH24" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="21:57">
-      <c r="AP16" t="s">
+    <row r="25" spans="34:34">
+      <c r="AH25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="42:42">
-      <c r="AP17" t="s">
+    <row r="26" spans="34:34">
+      <c r="AH26" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="42:42">
-      <c r="AP18" t="s">
+    <row r="27" spans="34:34">
+      <c r="AH27" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="42:42">
-      <c r="AP19" t="s">
+    <row r="28" spans="34:34">
+      <c r="AH28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="42:42">
-      <c r="AP20" t="s">
+    <row r="29" spans="34:34">
+      <c r="AH29" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="42:42">
-      <c r="AP21" t="s">
+    <row r="30" spans="34:34">
+      <c r="AH30" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="42:42">
-      <c r="AP22" t="s">
+    <row r="31" spans="34:34">
+      <c r="AH31" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="42:42">
-      <c r="AP23" t="s">
+    <row r="32" spans="34:34">
+      <c r="AH32" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="42:42">
-      <c r="AP24" t="s">
+    <row r="33" spans="34:34">
+      <c r="AH33" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="42:42">
-      <c r="AP25" t="s">
+    <row r="34" spans="34:34">
+      <c r="AH34" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="42:42">
-      <c r="AP26" t="s">
+    <row r="35" spans="34:34">
+      <c r="AH35" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="42:42">
-      <c r="AP27" t="s">
+    <row r="36" spans="34:34">
+      <c r="AH36" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="42:42">
-      <c r="AP28" t="s">
+    <row r="37" spans="34:34">
+      <c r="AH37" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="42:42">
-      <c r="AP29" t="s">
+    <row r="38" spans="34:34">
+      <c r="AH38" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="42:42">
-      <c r="AP30" t="s">
+    <row r="39" spans="34:34">
+      <c r="AH39" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="42:42">
-      <c r="AP31" t="s">
+    <row r="40" spans="34:34">
+      <c r="AH40" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="42:42">
-      <c r="AP32" t="s">
+    <row r="41" spans="34:34">
+      <c r="AH41" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="42:42">
-      <c r="AP33" t="s">
+    <row r="42" spans="34:34">
+      <c r="AH42" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="42:42">
-      <c r="AP34" t="s">
+    <row r="43" spans="34:34">
+      <c r="AH43" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="42:42">
-      <c r="AP35" t="s">
+    <row r="44" spans="34:34">
+      <c r="AH44" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="36" spans="42:42">
-      <c r="AP36" t="s">
+    <row r="45" spans="34:34">
+      <c r="AH45" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="42:42">
-      <c r="AP37" t="s">
+    <row r="46" spans="34:34">
+      <c r="AH46" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="42:42">
-      <c r="AP38" t="s">
+    <row r="47" spans="34:34">
+      <c r="AH47" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="42:42">
-      <c r="AP39" t="s">
+    <row r="48" spans="34:34">
+      <c r="AH48" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="40" spans="42:42">
-      <c r="AP40" t="s">
+    <row r="49" spans="34:34">
+      <c r="AH49" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="41" spans="42:42">
-      <c r="AP41" t="s">
+    <row r="50" spans="34:34">
+      <c r="AH50" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="42" spans="42:42">
-      <c r="AP42" t="s">
+    <row r="51" spans="34:34">
+      <c r="AH51" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="42:42">
-      <c r="AP43" t="s">
+    <row r="52" spans="34:34">
+      <c r="AH52" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="42:42">
-      <c r="AP44" t="s">
+    <row r="53" spans="34:34">
+      <c r="AH53" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="42:42">
-      <c r="AP45" t="s">
+    <row r="54" spans="34:34">
+      <c r="AH54" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="42:42">
-      <c r="AP46" t="s">
+    <row r="55" spans="34:34">
+      <c r="AH55" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="42:42">
-      <c r="AP47" t="s">
+    <row r="56" spans="34:34">
+      <c r="AH56" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="42:42">
-      <c r="AP48" t="s">
+    <row r="57" spans="34:34">
+      <c r="AH57" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="49" spans="42:42">
-      <c r="AP49" t="s">
+    <row r="58" spans="34:34">
+      <c r="AH58" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="42:42">
-      <c r="AP50" t="s">
+    <row r="59" spans="34:34">
+      <c r="AH59" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="42:42">
-      <c r="AP51" t="s">
+    <row r="60" spans="34:34">
+      <c r="AH60" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="42:42">
-      <c r="AP52" t="s">
+    <row r="61" spans="34:34">
+      <c r="AH61" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="42:42">
-      <c r="AP53" t="s">
+    <row r="62" spans="34:34">
+      <c r="AH62" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="54" spans="42:42">
-      <c r="AP54" t="s">
+    <row r="63" spans="34:34">
+      <c r="AH63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="55" spans="42:42">
-      <c r="AP55" t="s">
+    <row r="64" spans="34:34">
+      <c r="AH64" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="56" spans="42:42">
-      <c r="AP56" t="s">
+    <row r="65" spans="34:34">
+      <c r="AH65" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="57" spans="42:42">
-      <c r="AP57" t="s">
+    <row r="66" spans="34:34">
+      <c r="AH66" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="58" spans="42:42">
-      <c r="AP58" t="s">
+    <row r="67" spans="34:34">
+      <c r="AH67" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="42:42">
-      <c r="AP59" t="s">
+    <row r="68" spans="34:34">
+      <c r="AH68" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="60" spans="42:42">
-      <c r="AP60" t="s">
+    <row r="69" spans="34:34">
+      <c r="AH69" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="61" spans="42:42">
-      <c r="AP61" t="s">
+    <row r="70" spans="34:34">
+      <c r="AH70" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="62" spans="42:42">
-      <c r="AP62" t="s">
+    <row r="71" spans="34:34">
+      <c r="AH71" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="42:42">
-      <c r="AP63" t="s">
+    <row r="72" spans="34:34">
+      <c r="AH72" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="42:42">
-      <c r="AP64" t="s">
+    <row r="73" spans="34:34">
+      <c r="AH73" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="65" spans="42:42">
-      <c r="AP65" t="s">
+    <row r="74" spans="34:34">
+      <c r="AH74" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="66" spans="42:42">
-      <c r="AP66" t="s">
+    <row r="75" spans="34:34">
+      <c r="AH75" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="67" spans="42:42">
-      <c r="AP67" t="s">
+    <row r="76" spans="34:34">
+      <c r="AH76" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="68" spans="42:42">
-      <c r="AP68" t="s">
+    <row r="77" spans="34:34">
+      <c r="AH77" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="69" spans="42:42">
-      <c r="AP69" t="s">
+    <row r="78" spans="34:34">
+      <c r="AH78" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="70" spans="42:42">
-      <c r="AP70" t="s">
+    <row r="79" spans="34:34">
+      <c r="AH79" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="71" spans="42:42">
-      <c r="AP71" t="s">
+    <row r="80" spans="34:34">
+      <c r="AH80" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="42:42">
-      <c r="AP72" t="s">
+    <row r="81" spans="34:34">
+      <c r="AH81" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="73" spans="42:42">
-      <c r="AP73" t="s">
+    <row r="82" spans="34:34">
+      <c r="AH82" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="74" spans="42:42">
-      <c r="AP74" t="s">
+    <row r="83" spans="34:34">
+      <c r="AH83" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="75" spans="42:42">
-      <c r="AP75" t="s">
+    <row r="84" spans="34:34">
+      <c r="AH84" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="76" spans="42:42">
-      <c r="AP76" t="s">
+    <row r="85" spans="34:34">
+      <c r="AH85" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="77" spans="42:42">
-      <c r="AP77" t="s">
+    <row r="86" spans="34:34">
+      <c r="AH86" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="78" spans="42:42">
-      <c r="AP78" t="s">
+    <row r="87" spans="34:34">
+      <c r="AH87" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="42:42">
-      <c r="AP79" t="s">
+    <row r="88" spans="34:34">
+      <c r="AH88" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="80" spans="42:42">
-      <c r="AP80" t="s">
+    <row r="89" spans="34:34">
+      <c r="AH89" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="81" spans="42:42">
-      <c r="AP81" t="s">
+    <row r="90" spans="34:34">
+      <c r="AH90" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="82" spans="42:42">
-      <c r="AP82" t="s">
+    <row r="91" spans="34:34">
+      <c r="AH91" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="83" spans="42:42">
-      <c r="AP83" t="s">
+    <row r="92" spans="34:34">
+      <c r="AH92" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="84" spans="42:42">
-      <c r="AP84" t="s">
+    <row r="93" spans="34:34">
+      <c r="AH93" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="85" spans="42:42">
-      <c r="AP85" t="s">
+    <row r="94" spans="34:34">
+      <c r="AH94" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="42:42">
-      <c r="AP86" t="s">
+    <row r="95" spans="34:34">
+      <c r="AH95" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="87" spans="42:42">
-      <c r="AP87" t="s">
+    <row r="96" spans="34:34">
+      <c r="AH96" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="42:42">
-      <c r="AP88" t="s">
+    <row r="97" spans="34:34">
+      <c r="AH97" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="42:42">
-      <c r="AP89" t="s">
+    <row r="98" spans="34:34">
+      <c r="AH98" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="90" spans="42:42">
-      <c r="AP90" t="s">
+    <row r="99" spans="34:34">
+      <c r="AH99" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="42:42">
-      <c r="AP91" t="s">
+    <row r="100" spans="34:34">
+      <c r="AH100" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="92" spans="42:42">
-      <c r="AP92" t="s">
+    <row r="101" spans="34:34">
+      <c r="AH101" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="93" spans="42:42">
-      <c r="AP93" t="s">
+    <row r="102" spans="34:34">
+      <c r="AH102" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="94" spans="42:42">
-      <c r="AP94" t="s">
+    <row r="103" spans="34:34">
+      <c r="AH103" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="95" spans="42:42">
-      <c r="AP95" t="s">
+    <row r="104" spans="34:34">
+      <c r="AH104" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="96" spans="42:42">
-      <c r="AP96" t="s">
+    <row r="105" spans="34:34">
+      <c r="AH105" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="97" spans="42:42">
-      <c r="AP97" t="s">
+    <row r="106" spans="34:34">
+      <c r="AH106" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="98" spans="42:42">
-      <c r="AP98" t="s">
+    <row r="107" spans="34:34">
+      <c r="AH107" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="99" spans="42:42">
-      <c r="AP99" t="s">
+    <row r="108" spans="34:34">
+      <c r="AH108" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="100" spans="42:42">
-      <c r="AP100" t="s">
+    <row r="109" spans="34:34">
+      <c r="AH109" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="101" spans="42:42">
-      <c r="AP101" t="s">
+    <row r="110" spans="34:34">
+      <c r="AH110" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="102" spans="42:42">
-      <c r="AP102" t="s">
+    <row r="111" spans="34:34">
+      <c r="AH111" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="42:42">
-      <c r="AP103" t="s">
+    <row r="112" spans="34:34">
+      <c r="AH112" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="42:42">
-      <c r="AP104" t="s">
+    <row r="113" spans="34:34">
+      <c r="AH113" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="105" spans="42:42">
-      <c r="AP105" t="s">
+    <row r="114" spans="34:34">
+      <c r="AH114" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="106" spans="42:42">
-      <c r="AP106" t="s">
+    <row r="115" spans="34:34">
+      <c r="AH115" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="107" spans="42:42">
-      <c r="AP107" t="s">
+    <row r="116" spans="34:34">
+      <c r="AH116" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="42:42">
-      <c r="AP108" t="s">
+    <row r="117" spans="34:34">
+      <c r="AH117" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="109" spans="42:42">
-      <c r="AP109" t="s">
+    <row r="118" spans="34:34">
+      <c r="AH118" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="110" spans="42:42">
-      <c r="AP110" t="s">
+    <row r="119" spans="34:34">
+      <c r="AH119" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="111" spans="42:42">
-      <c r="AP111" t="s">
+    <row r="120" spans="34:34">
+      <c r="AH120" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="112" spans="42:42">
-      <c r="AP112" t="s">
+    <row r="121" spans="34:34">
+      <c r="AH121" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="113" spans="42:42">
-      <c r="AP113" t="s">
+    <row r="122" spans="34:34">
+      <c r="AH122" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="114" spans="42:42">
-      <c r="AP114" t="s">
+    <row r="123" spans="34:34">
+      <c r="AH123" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="115" spans="42:42">
-      <c r="AP115" t="s">
+    <row r="124" spans="34:34">
+      <c r="AH124" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="116" spans="42:42">
-      <c r="AP116" t="s">
+    <row r="125" spans="34:34">
+      <c r="AH125" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="117" spans="42:42">
-      <c r="AP117" t="s">
+    <row r="126" spans="34:34">
+      <c r="AH126" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="118" spans="42:42">
-      <c r="AP118" t="s">
+    <row r="127" spans="34:34">
+      <c r="AH127" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="119" spans="42:42">
-      <c r="AP119" t="s">
+    <row r="128" spans="34:34">
+      <c r="AH128" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="120" spans="42:42">
-      <c r="AP120" t="s">
+    <row r="129" spans="34:34">
+      <c r="AH129" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="121" spans="42:42">
-      <c r="AP121" t="s">
+    <row r="130" spans="34:34">
+      <c r="AH130" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="122" spans="42:42">
-      <c r="AP122" t="s">
+    <row r="131" spans="34:34">
+      <c r="AH131" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="123" spans="42:42">
-      <c r="AP123" t="s">
+    <row r="132" spans="34:34">
+      <c r="AH132" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="124" spans="42:42">
-      <c r="AP124" t="s">
+    <row r="133" spans="34:34">
+      <c r="AH133" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="125" spans="42:42">
-      <c r="AP125" t="s">
+    <row r="134" spans="34:34">
+      <c r="AH134" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="126" spans="42:42">
-      <c r="AP126" t="s">
+    <row r="135" spans="34:34">
+      <c r="AH135" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="127" spans="42:42">
-      <c r="AP127" t="s">
+    <row r="136" spans="34:34">
+      <c r="AH136" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="128" spans="42:42">
-      <c r="AP128" t="s">
+    <row r="137" spans="34:34">
+      <c r="AH137" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="129" spans="42:42">
-      <c r="AP129" t="s">
+    <row r="138" spans="34:34">
+      <c r="AH138" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="130" spans="42:42">
-      <c r="AP130" t="s">
+    <row r="139" spans="34:34">
+      <c r="AH139" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="131" spans="42:42">
-      <c r="AP131" t="s">
+    <row r="140" spans="34:34">
+      <c r="AH140" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="132" spans="42:42">
-      <c r="AP132" t="s">
+    <row r="141" spans="34:34">
+      <c r="AH141" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="133" spans="42:42">
-      <c r="AP133" t="s">
+    <row r="142" spans="34:34">
+      <c r="AH142" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="134" spans="42:42">
-      <c r="AP134" t="s">
+    <row r="143" spans="34:34">
+      <c r="AH143" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="135" spans="42:42">
-      <c r="AP135" t="s">
+    <row r="144" spans="34:34">
+      <c r="AH144" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="136" spans="42:42">
-      <c r="AP136" t="s">
+    <row r="145" spans="34:34">
+      <c r="AH145" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="137" spans="42:42">
-      <c r="AP137" t="s">
+    <row r="146" spans="34:34">
+      <c r="AH146" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="138" spans="42:42">
-      <c r="AP138" t="s">
+    <row r="147" spans="34:34">
+      <c r="AH147" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="139" spans="42:42">
-      <c r="AP139" t="s">
+    <row r="148" spans="34:34">
+      <c r="AH148" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="140" spans="42:42">
-      <c r="AP140" t="s">
+    <row r="149" spans="34:34">
+      <c r="AH149" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="141" spans="42:42">
-      <c r="AP141" t="s">
+    <row r="150" spans="34:34">
+      <c r="AH150" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="142" spans="42:42">
-      <c r="AP142" t="s">
+    <row r="151" spans="34:34">
+      <c r="AH151" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="143" spans="42:42">
-      <c r="AP143" t="s">
+    <row r="152" spans="34:34">
+      <c r="AH152" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="42:42">
-      <c r="AP144" t="s">
+    <row r="153" spans="34:34">
+      <c r="AH153" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="145" spans="42:42">
-      <c r="AP145" t="s">
+    <row r="154" spans="34:34">
+      <c r="AH154" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="146" spans="42:42">
-      <c r="AP146" t="s">
+    <row r="155" spans="34:34">
+      <c r="AH155" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="147" spans="42:42">
-      <c r="AP147" t="s">
+    <row r="156" spans="34:34">
+      <c r="AH156" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="148" spans="42:42">
-      <c r="AP148" t="s">
+    <row r="157" spans="34:34">
+      <c r="AH157" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="149" spans="42:42">
-      <c r="AP149" t="s">
+    <row r="158" spans="34:34">
+      <c r="AH158" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="150" spans="42:42">
-      <c r="AP150" t="s">
+    <row r="159" spans="34:34">
+      <c r="AH159" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="151" spans="42:42">
-      <c r="AP151" t="s">
+    <row r="160" spans="34:34">
+      <c r="AH160" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="152" spans="42:42">
-      <c r="AP152" t="s">
+    <row r="161" spans="34:34">
+      <c r="AH161" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="153" spans="42:42">
-      <c r="AP153" t="s">
+    <row r="162" spans="34:34">
+      <c r="AH162" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="154" spans="42:42">
-      <c r="AP154" t="s">
+    <row r="163" spans="34:34">
+      <c r="AH163" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="155" spans="42:42">
-      <c r="AP155" t="s">
+    <row r="164" spans="34:34">
+      <c r="AH164" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="156" spans="42:42">
-      <c r="AP156" t="s">
+    <row r="165" spans="34:34">
+      <c r="AH165" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="157" spans="42:42">
-      <c r="AP157" t="s">
+    <row r="166" spans="34:34">
+      <c r="AH166" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="158" spans="42:42">
-      <c r="AP158" t="s">
+    <row r="167" spans="34:34">
+      <c r="AH167" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="159" spans="42:42">
-      <c r="AP159" t="s">
+    <row r="168" spans="34:34">
+      <c r="AH168" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="160" spans="42:42">
-      <c r="AP160" t="s">
+    <row r="169" spans="34:34">
+      <c r="AH169" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="161" spans="42:42">
-      <c r="AP161" t="s">
+    <row r="170" spans="34:34">
+      <c r="AH170" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="162" spans="42:42">
-      <c r="AP162" t="s">
+    <row r="171" spans="34:34">
+      <c r="AH171" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="163" spans="42:42">
-      <c r="AP163" t="s">
+    <row r="172" spans="34:34">
+      <c r="AH172" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="164" spans="42:42">
-      <c r="AP164" t="s">
+    <row r="173" spans="34:34">
+      <c r="AH173" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="165" spans="42:42">
-      <c r="AP165" t="s">
+    <row r="174" spans="34:34">
+      <c r="AH174" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="166" spans="42:42">
-      <c r="AP166" t="s">
+    <row r="175" spans="34:34">
+      <c r="AH175" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="167" spans="42:42">
-      <c r="AP167" t="s">
+    <row r="176" spans="34:34">
+      <c r="AH176" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="168" spans="42:42">
-      <c r="AP168" t="s">
+    <row r="177" spans="34:34">
+      <c r="AH177" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="169" spans="42:42">
-      <c r="AP169" t="s">
+    <row r="178" spans="34:34">
+      <c r="AH178" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="170" spans="42:42">
-      <c r="AP170" t="s">
+    <row r="179" spans="34:34">
+      <c r="AH179" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="171" spans="42:42">
-      <c r="AP171" t="s">
+    <row r="180" spans="34:34">
+      <c r="AH180" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="172" spans="42:42">
-      <c r="AP172" t="s">
+    <row r="181" spans="34:34">
+      <c r="AH181" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="173" spans="42:42">
-      <c r="AP173" t="s">
+    <row r="182" spans="34:34">
+      <c r="AH182" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="174" spans="42:42">
-      <c r="AP174" t="s">
+    <row r="183" spans="34:34">
+      <c r="AH183" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="175" spans="42:42">
-      <c r="AP175" t="s">
+    <row r="184" spans="34:34">
+      <c r="AH184" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="176" spans="42:42">
-      <c r="AP176" t="s">
+    <row r="185" spans="34:34">
+      <c r="AH185" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="177" spans="42:42">
-      <c r="AP177" t="s">
+    <row r="186" spans="34:34">
+      <c r="AH186" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="178" spans="42:42">
-      <c r="AP178" t="s">
+    <row r="187" spans="34:34">
+      <c r="AH187" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="179" spans="42:42">
-      <c r="AP179" t="s">
+    <row r="188" spans="34:34">
+      <c r="AH188" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="180" spans="42:42">
-      <c r="AP180" t="s">
+    <row r="189" spans="34:34">
+      <c r="AH189" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="181" spans="42:42">
-      <c r="AP181" t="s">
+    <row r="190" spans="34:34">
+      <c r="AH190" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="182" spans="42:42">
-      <c r="AP182" t="s">
+    <row r="191" spans="34:34">
+      <c r="AH191" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="183" spans="42:42">
-      <c r="AP183" t="s">
+    <row r="192" spans="34:34">
+      <c r="AH192" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="184" spans="42:42">
-      <c r="AP184" t="s">
+    <row r="193" spans="34:34">
+      <c r="AH193" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="185" spans="42:42">
-      <c r="AP185" t="s">
+    <row r="194" spans="34:34">
+      <c r="AH194" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="186" spans="42:42">
-      <c r="AP186" t="s">
+    <row r="195" spans="34:34">
+      <c r="AH195" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="187" spans="42:42">
-      <c r="AP187" t="s">
+    <row r="196" spans="34:34">
+      <c r="AH196" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="188" spans="42:42">
-      <c r="AP188" t="s">
+    <row r="197" spans="34:34">
+      <c r="AH197" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="189" spans="42:42">
-      <c r="AP189" t="s">
+    <row r="198" spans="34:34">
+      <c r="AH198" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="190" spans="42:42">
-      <c r="AP190" t="s">
+    <row r="199" spans="34:34">
+      <c r="AH199" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="191" spans="42:42">
-      <c r="AP191" t="s">
+    <row r="200" spans="34:34">
+      <c r="AH200" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="192" spans="42:42">
-      <c r="AP192" t="s">
+    <row r="201" spans="34:34">
+      <c r="AH201" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="193" spans="42:42">
-      <c r="AP193" t="s">
+    <row r="202" spans="34:34">
+      <c r="AH202" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="194" spans="42:42">
-      <c r="AP194" t="s">
+    <row r="203" spans="34:34">
+      <c r="AH203" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="195" spans="42:42">
-      <c r="AP195" t="s">
+    <row r="204" spans="34:34">
+      <c r="AH204" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="196" spans="42:42">
-      <c r="AP196" t="s">
+    <row r="205" spans="34:34">
+      <c r="AH205" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="197" spans="42:42">
-      <c r="AP197" t="s">
+    <row r="206" spans="34:34">
+      <c r="AH206" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="198" spans="42:42">
-      <c r="AP198" t="s">
+    <row r="207" spans="34:34">
+      <c r="AH207" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="199" spans="42:42">
-      <c r="AP199" t="s">
+    <row r="208" spans="34:34">
+      <c r="AH208" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="200" spans="42:42">
-      <c r="AP200" t="s">
+    <row r="209" spans="34:34">
+      <c r="AH209" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="201" spans="42:42">
-      <c r="AP201" t="s">
+    <row r="210" spans="34:34">
+      <c r="AH210" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="202" spans="42:42">
-      <c r="AP202" t="s">
+    <row r="211" spans="34:34">
+      <c r="AH211" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="203" spans="42:42">
-      <c r="AP203" t="s">
+    <row r="212" spans="34:34">
+      <c r="AH212" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="204" spans="42:42">
-      <c r="AP204" t="s">
+    <row r="213" spans="34:34">
+      <c r="AH213" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="205" spans="42:42">
-      <c r="AP205" t="s">
+    <row r="214" spans="34:34">
+      <c r="AH214" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="206" spans="42:42">
-      <c r="AP206" t="s">
+    <row r="215" spans="34:34">
+      <c r="AH215" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="42:42">
-      <c r="AP207" t="s">
+    <row r="216" spans="34:34">
+      <c r="AH216" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="208" spans="42:42">
-      <c r="AP208" t="s">
+    <row r="217" spans="34:34">
+      <c r="AH217" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="209" spans="42:42">
-      <c r="AP209" t="s">
+    <row r="218" spans="34:34">
+      <c r="AH218" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="210" spans="42:42">
-      <c r="AP210" t="s">
+    <row r="219" spans="34:34">
+      <c r="AH219" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="211" spans="42:42">
-      <c r="AP211" t="s">
+    <row r="220" spans="34:34">
+      <c r="AH220" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="212" spans="42:42">
-      <c r="AP212" t="s">
+    <row r="221" spans="34:34">
+      <c r="AH221" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="213" spans="42:42">
-      <c r="AP213" t="s">
+    <row r="222" spans="34:34">
+      <c r="AH222" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="214" spans="42:42">
-      <c r="AP214" t="s">
+    <row r="223" spans="34:34">
+      <c r="AH223" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="215" spans="42:42">
-      <c r="AP215" t="s">
+    <row r="224" spans="34:34">
+      <c r="AH224" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="216" spans="42:42">
-      <c r="AP216" t="s">
+    <row r="225" spans="34:34">
+      <c r="AH225" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="217" spans="42:42">
-      <c r="AP217" t="s">
+    <row r="226" spans="34:34">
+      <c r="AH226" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="218" spans="42:42">
-      <c r="AP218" t="s">
+    <row r="227" spans="34:34">
+      <c r="AH227" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="219" spans="42:42">
-      <c r="AP219" t="s">
+    <row r="228" spans="34:34">
+      <c r="AH228" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="220" spans="42:42">
-      <c r="AP220" t="s">
+    <row r="229" spans="34:34">
+      <c r="AH229" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="221" spans="42:42">
-      <c r="AP221" t="s">
+    <row r="230" spans="34:34">
+      <c r="AH230" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="222" spans="42:42">
-      <c r="AP222" t="s">
+    <row r="231" spans="34:34">
+      <c r="AH231" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="223" spans="42:42">
-      <c r="AP223" t="s">
+    <row r="232" spans="34:34">
+      <c r="AH232" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="224" spans="42:42">
-      <c r="AP224" t="s">
+    <row r="233" spans="34:34">
+      <c r="AH233" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="225" spans="42:42">
-      <c r="AP225" t="s">
+    <row r="234" spans="34:34">
+      <c r="AH234" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="226" spans="42:42">
-      <c r="AP226" t="s">
+    <row r="235" spans="34:34">
+      <c r="AH235" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="227" spans="42:42">
-      <c r="AP227" t="s">
+    <row r="236" spans="34:34">
+      <c r="AH236" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="228" spans="42:42">
-      <c r="AP228" t="s">
+    <row r="237" spans="34:34">
+      <c r="AH237" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="229" spans="42:42">
-      <c r="AP229" t="s">
+    <row r="238" spans="34:34">
+      <c r="AH238" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="230" spans="42:42">
-      <c r="AP230" t="s">
+    <row r="239" spans="34:34">
+      <c r="AH239" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="231" spans="42:42">
-      <c r="AP231" t="s">
+    <row r="240" spans="34:34">
+      <c r="AH240" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="232" spans="42:42">
-      <c r="AP232" t="s">
+    <row r="241" spans="34:34">
+      <c r="AH241" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="233" spans="42:42">
-      <c r="AP233" t="s">
+    <row r="242" spans="34:34">
+      <c r="AH242" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="234" spans="42:42">
-      <c r="AP234" t="s">
+    <row r="243" spans="34:34">
+      <c r="AH243" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="235" spans="42:42">
-      <c r="AP235" t="s">
+    <row r="244" spans="34:34">
+      <c r="AH244" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="236" spans="42:42">
-      <c r="AP236" t="s">
+    <row r="245" spans="34:34">
+      <c r="AH245" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="237" spans="42:42">
-      <c r="AP237" t="s">
+    <row r="246" spans="34:34">
+      <c r="AH246" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="238" spans="42:42">
-      <c r="AP238" t="s">
+    <row r="247" spans="34:34">
+      <c r="AH247" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="239" spans="42:42">
-      <c r="AP239" t="s">
+    <row r="248" spans="34:34">
+      <c r="AH248" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="240" spans="42:42">
-      <c r="AP240" t="s">
+    <row r="249" spans="34:34">
+      <c r="AH249" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="241" spans="42:42">
-      <c r="AP241" t="s">
+    <row r="250" spans="34:34">
+      <c r="AH250" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="242" spans="42:42">
-      <c r="AP242" t="s">
+    <row r="251" spans="34:34">
+      <c r="AH251" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="243" spans="42:42">
-      <c r="AP243" t="s">
+    <row r="252" spans="34:34">
+      <c r="AH252" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="244" spans="42:42">
-      <c r="AP244" t="s">
+    <row r="253" spans="34:34">
+      <c r="AH253" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="245" spans="42:42">
-      <c r="AP245" t="s">
+    <row r="254" spans="34:34">
+      <c r="AH254" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="246" spans="42:42">
-      <c r="AP246" t="s">
+    <row r="255" spans="34:34">
+      <c r="AH255" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="247" spans="42:42">
-      <c r="AP247" t="s">
+    <row r="256" spans="34:34">
+      <c r="AH256" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="248" spans="42:42">
-      <c r="AP248" t="s">
+    <row r="257" spans="34:34">
+      <c r="AH257" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="42:42">
-      <c r="AP249" t="s">
+    <row r="258" spans="34:34">
+      <c r="AH258" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="250" spans="42:42">
-      <c r="AP250" t="s">
+    <row r="259" spans="34:34">
+      <c r="AH259" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="251" spans="42:42">
-      <c r="AP251" t="s">
+    <row r="260" spans="34:34">
+      <c r="AH260" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="252" spans="42:42">
-      <c r="AP252" t="s">
+    <row r="261" spans="34:34">
+      <c r="AH261" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="253" spans="42:42">
-      <c r="AP253" t="s">
+    <row r="262" spans="34:34">
+      <c r="AH262" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="254" spans="42:42">
-      <c r="AP254" t="s">
+    <row r="263" spans="34:34">
+      <c r="AH263" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="255" spans="42:42">
-      <c r="AP255" t="s">
+    <row r="264" spans="34:34">
+      <c r="AH264" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="256" spans="42:42">
-      <c r="AP256" t="s">
+    <row r="265" spans="34:34">
+      <c r="AH265" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="257" spans="42:42">
-      <c r="AP257" t="s">
+    <row r="266" spans="34:34">
+      <c r="AH266" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="258" spans="42:42">
-      <c r="AP258" t="s">
+    <row r="267" spans="34:34">
+      <c r="AH267" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="259" spans="42:42">
-      <c r="AP259" t="s">
+    <row r="268" spans="34:34">
+      <c r="AH268" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="260" spans="42:42">
-      <c r="AP260" t="s">
+    <row r="269" spans="34:34">
+      <c r="AH269" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="261" spans="42:42">
-      <c r="AP261" t="s">
+    <row r="270" spans="34:34">
+      <c r="AH270" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="262" spans="42:42">
-      <c r="AP262" t="s">
+    <row r="271" spans="34:34">
+      <c r="AH271" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="263" spans="42:42">
-      <c r="AP263" t="s">
+    <row r="272" spans="34:34">
+      <c r="AH272" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="264" spans="42:42">
-      <c r="AP264" t="s">
+    <row r="273" spans="34:34">
+      <c r="AH273" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="265" spans="42:42">
-      <c r="AP265" t="s">
+    <row r="274" spans="34:34">
+      <c r="AH274" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="266" spans="42:42">
-      <c r="AP266" t="s">
+    <row r="275" spans="34:34">
+      <c r="AH275" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="267" spans="42:42">
-      <c r="AP267" t="s">
+    <row r="276" spans="34:34">
+      <c r="AH276" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="268" spans="42:42">
-      <c r="AP268" t="s">
+    <row r="277" spans="34:34">
+      <c r="AH277" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="269" spans="42:42">
-      <c r="AP269" t="s">
+    <row r="278" spans="34:34">
+      <c r="AH278" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="270" spans="42:42">
-      <c r="AP270" t="s">
+    <row r="279" spans="34:34">
+      <c r="AH279" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="271" spans="42:42">
-      <c r="AP271" t="s">
+    <row r="280" spans="34:34">
+      <c r="AH280" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="272" spans="42:42">
-      <c r="AP272" t="s">
+    <row r="281" spans="34:34">
+      <c r="AH281" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="273" spans="42:42">
-      <c r="AP273" t="s">
+    <row r="282" spans="34:34">
+      <c r="AH282" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="274" spans="42:42">
-      <c r="AP274" t="s">
+    <row r="283" spans="34:34">
+      <c r="AH283" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="275" spans="42:42">
-      <c r="AP275" t="s">
+    <row r="284" spans="34:34">
+      <c r="AH284" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="276" spans="42:42">
-      <c r="AP276" t="s">
+    <row r="285" spans="34:34">
+      <c r="AH285" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="277" spans="42:42">
-      <c r="AP277" t="s">
+    <row r="286" spans="34:34">
+      <c r="AH286" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="278" spans="42:42">
-      <c r="AP278" t="s">
+    <row r="287" spans="34:34">
+      <c r="AH287" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="279" spans="42:42">
-      <c r="AP279" t="s">
+    <row r="288" spans="34:34">
+      <c r="AH288" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row r="280" spans="42:42">
-      <c r="AP280" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="281" spans="42:42">
-      <c r="AP281" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="282" spans="42:42">
-      <c r="AP282" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="283" spans="42:42">
-      <c r="AP283" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="284" spans="42:42">
-      <c r="AP284" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="285" spans="42:42">
-      <c r="AP285" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="286" spans="42:42">
-      <c r="AP286" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="287" spans="42:42">
-      <c r="AP287" t="s">
-        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="683">
   <si>
     <t>alias</t>
   </si>
@@ -1052,7 +1052,7 @@
     <t>investigation type</t>
   </si>
   <si>
-    <t>(Mandatory) Nucleic acid sequence report is the root element of all mixs compliant reports as standardised by genomic standards consortium</t>
+    <t>(Optional) Nucleic acid sequence report is the root element of all mixs compliant reports as standardised by genomic standards consortium</t>
   </si>
   <si>
     <t>binning parameters</t>
@@ -1277,12 +1277,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2079,12 +2079,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Mandatory) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>depth</t>
@@ -3604,7 +3598,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3613,7 +3607,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3782,11 +3776,8 @@
       <c r="BD1" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:56" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -3954,9 +3945,6 @@
       </c>
       <c r="BD2" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="684">
   <si>
     <t>alias</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3615,336 +3618,336 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -3985,1526 +3988,1526 @@
   <sheetData>
     <row r="1" spans="5:34">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="U1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AB1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AH1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="5:34">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AH2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="5:34">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AH3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="5:34">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AH4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="5:34">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="5:34">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AH6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="5:34">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AH7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="5:34">
       <c r="AB8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="5:34">
       <c r="AB9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AH9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="5:34">
       <c r="AB10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="5:34">
       <c r="AB11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AH11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="5:34">
       <c r="AB12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="5:34">
       <c r="AH13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="5:34">
       <c r="AH14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="5:34">
       <c r="AH15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="5:34">
       <c r="AH16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="34:34">
       <c r="AH17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="34:34">
       <c r="AH18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="34:34">
       <c r="AH19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="34:34">
       <c r="AH20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="34:34">
       <c r="AH21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="34:34">
       <c r="AH22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="34:34">
       <c r="AH23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="34:34">
       <c r="AH24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="34:34">
       <c r="AH25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="34:34">
       <c r="AH26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="34:34">
       <c r="AH27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="34:34">
       <c r="AH28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="34:34">
       <c r="AH29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="34:34">
       <c r="AH30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="34:34">
       <c r="AH31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="34:34">
       <c r="AH32" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="34:34">
       <c r="AH33" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="AH34" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="34:34">
       <c r="AH35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="34:34">
       <c r="AH36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="34:34">
       <c r="AH37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="34:34">
       <c r="AH38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="34:34">
       <c r="AH39" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="34:34">
       <c r="AH40" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="34:34">
       <c r="AH41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="34:34">
       <c r="AH42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="34:34">
       <c r="AH43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="34:34">
       <c r="AH44" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="34:34">
       <c r="AH45" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="34:34">
       <c r="AH46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="34:34">
       <c r="AH47" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="34:34">
       <c r="AH48" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="34:34">
       <c r="AH49" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="34:34">
       <c r="AH50" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="34:34">
       <c r="AH51" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="34:34">
       <c r="AH52" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="34:34">
       <c r="AH53" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="34:34">
       <c r="AH54" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="34:34">
       <c r="AH55" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="34:34">
       <c r="AH56" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="34:34">
       <c r="AH57" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="34:34">
       <c r="AH58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="34:34">
       <c r="AH59" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="34:34">
       <c r="AH60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="34:34">
       <c r="AH61" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="34:34">
       <c r="AH62" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="34:34">
       <c r="AH63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="34:34">
       <c r="AH64" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="34:34">
       <c r="AH65" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="34:34">
       <c r="AH66" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="34:34">
       <c r="AH67" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="34:34">
       <c r="AH68" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="34:34">
       <c r="AH69" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="34:34">
       <c r="AH70" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="34:34">
       <c r="AH71" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="34:34">
       <c r="AH72" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="34:34">
       <c r="AH73" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="34:34">
       <c r="AH74" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="34:34">
       <c r="AH75" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="34:34">
       <c r="AH76" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="34:34">
       <c r="AH77" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="34:34">
       <c r="AH78" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="34:34">
       <c r="AH79" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="34:34">
       <c r="AH80" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="34:34">
       <c r="AH81" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="34:34">
       <c r="AH82" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="34:34">
       <c r="AH83" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="34:34">
       <c r="AH84" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="34:34">
       <c r="AH85" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="34:34">
       <c r="AH86" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="34:34">
       <c r="AH87" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="34:34">
       <c r="AH88" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="34:34">
       <c r="AH89" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="34:34">
       <c r="AH90" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="34:34">
       <c r="AH91" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="34:34">
       <c r="AH92" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="34:34">
       <c r="AH93" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="34:34">
       <c r="AH94" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="34:34">
       <c r="AH95" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="34:34">
       <c r="AH96" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="34:34">
       <c r="AH97" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="34:34">
       <c r="AH98" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99" spans="34:34">
       <c r="AH99" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="34:34">
       <c r="AH100" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="34:34">
       <c r="AH101" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102" spans="34:34">
       <c r="AH102" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="34:34">
       <c r="AH103" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104" spans="34:34">
       <c r="AH104" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="105" spans="34:34">
       <c r="AH105" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="106" spans="34:34">
       <c r="AH106" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="107" spans="34:34">
       <c r="AH107" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" spans="34:34">
       <c r="AH108" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="109" spans="34:34">
       <c r="AH109" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="110" spans="34:34">
       <c r="AH110" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="34:34">
       <c r="AH111" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="34:34">
       <c r="AH112" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="34:34">
       <c r="AH113" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114" spans="34:34">
       <c r="AH114" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="115" spans="34:34">
       <c r="AH115" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="34:34">
       <c r="AH116" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="34:34">
       <c r="AH117" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118" spans="34:34">
       <c r="AH118" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="34:34">
       <c r="AH119" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="34:34">
       <c r="AH120" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="121" spans="34:34">
       <c r="AH121" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="122" spans="34:34">
       <c r="AH122" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="123" spans="34:34">
       <c r="AH123" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="124" spans="34:34">
       <c r="AH124" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="34:34">
       <c r="AH125" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="34:34">
       <c r="AH126" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="127" spans="34:34">
       <c r="AH127" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="34:34">
       <c r="AH128" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="34:34">
       <c r="AH129" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="130" spans="34:34">
       <c r="AH130" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" spans="34:34">
       <c r="AH131" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="34:34">
       <c r="AH132" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="133" spans="34:34">
       <c r="AH133" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="34:34">
       <c r="AH134" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" spans="34:34">
       <c r="AH135" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="34:34">
       <c r="AH136" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="34:34">
       <c r="AH137" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="138" spans="34:34">
       <c r="AH138" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139" spans="34:34">
       <c r="AH139" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="34:34">
       <c r="AH140" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="141" spans="34:34">
       <c r="AH141" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="142" spans="34:34">
       <c r="AH142" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="143" spans="34:34">
       <c r="AH143" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="144" spans="34:34">
       <c r="AH144" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="145" spans="34:34">
       <c r="AH145" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="146" spans="34:34">
       <c r="AH146" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="147" spans="34:34">
       <c r="AH147" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="148" spans="34:34">
       <c r="AH148" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="149" spans="34:34">
       <c r="AH149" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="150" spans="34:34">
       <c r="AH150" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="151" spans="34:34">
       <c r="AH151" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="34:34">
       <c r="AH152" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="153" spans="34:34">
       <c r="AH153" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="34:34">
       <c r="AH154" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="155" spans="34:34">
       <c r="AH155" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="34:34">
       <c r="AH156" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="34:34">
       <c r="AH157" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="158" spans="34:34">
       <c r="AH158" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="159" spans="34:34">
       <c r="AH159" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160" spans="34:34">
       <c r="AH160" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="161" spans="34:34">
       <c r="AH161" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="162" spans="34:34">
       <c r="AH162" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="163" spans="34:34">
       <c r="AH163" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="164" spans="34:34">
       <c r="AH164" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="165" spans="34:34">
       <c r="AH165" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="166" spans="34:34">
       <c r="AH166" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="167" spans="34:34">
       <c r="AH167" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="168" spans="34:34">
       <c r="AH168" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="34:34">
       <c r="AH169" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="170" spans="34:34">
       <c r="AH170" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="171" spans="34:34">
       <c r="AH171" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="172" spans="34:34">
       <c r="AH172" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="173" spans="34:34">
       <c r="AH173" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="174" spans="34:34">
       <c r="AH174" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="175" spans="34:34">
       <c r="AH175" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="176" spans="34:34">
       <c r="AH176" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="34:34">
       <c r="AH177" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="34:34">
       <c r="AH178" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="179" spans="34:34">
       <c r="AH179" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="180" spans="34:34">
       <c r="AH180" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="181" spans="34:34">
       <c r="AH181" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="182" spans="34:34">
       <c r="AH182" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="183" spans="34:34">
       <c r="AH183" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="184" spans="34:34">
       <c r="AH184" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="185" spans="34:34">
       <c r="AH185" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="186" spans="34:34">
       <c r="AH186" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="187" spans="34:34">
       <c r="AH187" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="188" spans="34:34">
       <c r="AH188" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="189" spans="34:34">
       <c r="AH189" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="190" spans="34:34">
       <c r="AH190" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="191" spans="34:34">
       <c r="AH191" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="34:34">
       <c r="AH192" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="193" spans="34:34">
       <c r="AH193" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="194" spans="34:34">
       <c r="AH194" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="195" spans="34:34">
       <c r="AH195" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="196" spans="34:34">
       <c r="AH196" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="197" spans="34:34">
       <c r="AH197" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="198" spans="34:34">
       <c r="AH198" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199" spans="34:34">
       <c r="AH199" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="200" spans="34:34">
       <c r="AH200" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="201" spans="34:34">
       <c r="AH201" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="202" spans="34:34">
       <c r="AH202" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="203" spans="34:34">
       <c r="AH203" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="34:34">
       <c r="AH204" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="34:34">
       <c r="AH205" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="206" spans="34:34">
       <c r="AH206" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="207" spans="34:34">
       <c r="AH207" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="208" spans="34:34">
       <c r="AH208" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="34:34">
       <c r="AH209" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="210" spans="34:34">
       <c r="AH210" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="211" spans="34:34">
       <c r="AH211" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="212" spans="34:34">
       <c r="AH212" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="213" spans="34:34">
       <c r="AH213" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="214" spans="34:34">
       <c r="AH214" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="215" spans="34:34">
       <c r="AH215" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="216" spans="34:34">
       <c r="AH216" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="217" spans="34:34">
       <c r="AH217" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="218" spans="34:34">
       <c r="AH218" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="219" spans="34:34">
       <c r="AH219" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="220" spans="34:34">
       <c r="AH220" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="221" spans="34:34">
       <c r="AH221" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="222" spans="34:34">
       <c r="AH222" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="34:34">
       <c r="AH223" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="224" spans="34:34">
       <c r="AH224" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="225" spans="34:34">
       <c r="AH225" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="226" spans="34:34">
       <c r="AH226" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="227" spans="34:34">
       <c r="AH227" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="228" spans="34:34">
       <c r="AH228" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="229" spans="34:34">
       <c r="AH229" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="230" spans="34:34">
       <c r="AH230" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="34:34">
       <c r="AH231" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="232" spans="34:34">
       <c r="AH232" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="34:34">
       <c r="AH233" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="234" spans="34:34">
       <c r="AH234" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="235" spans="34:34">
       <c r="AH235" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="236" spans="34:34">
       <c r="AH236" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="237" spans="34:34">
       <c r="AH237" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="238" spans="34:34">
       <c r="AH238" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="239" spans="34:34">
       <c r="AH239" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="240" spans="34:34">
       <c r="AH240" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="241" spans="34:34">
       <c r="AH241" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="242" spans="34:34">
       <c r="AH242" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="243" spans="34:34">
       <c r="AH243" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="244" spans="34:34">
       <c r="AH244" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="245" spans="34:34">
       <c r="AH245" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="246" spans="34:34">
       <c r="AH246" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="247" spans="34:34">
       <c r="AH247" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="248" spans="34:34">
       <c r="AH248" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="249" spans="34:34">
       <c r="AH249" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="250" spans="34:34">
       <c r="AH250" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="251" spans="34:34">
       <c r="AH251" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="252" spans="34:34">
       <c r="AH252" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="253" spans="34:34">
       <c r="AH253" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="254" spans="34:34">
       <c r="AH254" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="255" spans="34:34">
       <c r="AH255" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="256" spans="34:34">
       <c r="AH256" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="257" spans="34:34">
       <c r="AH257" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="258" spans="34:34">
       <c r="AH258" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="259" spans="34:34">
       <c r="AH259" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="260" spans="34:34">
       <c r="AH260" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="261" spans="34:34">
       <c r="AH261" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="262" spans="34:34">
       <c r="AH262" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="263" spans="34:34">
       <c r="AH263" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="264" spans="34:34">
       <c r="AH264" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="265" spans="34:34">
       <c r="AH265" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="266" spans="34:34">
       <c r="AH266" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="267" spans="34:34">
       <c r="AH267" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="268" spans="34:34">
       <c r="AH268" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="269" spans="34:34">
       <c r="AH269" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="270" spans="34:34">
       <c r="AH270" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="271" spans="34:34">
       <c r="AH271" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="272" spans="34:34">
       <c r="AH272" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="273" spans="34:34">
       <c r="AH273" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="274" spans="34:34">
       <c r="AH274" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="275" spans="34:34">
       <c r="AH275" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="276" spans="34:34">
       <c r="AH276" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="277" spans="34:34">
       <c r="AH277" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="278" spans="34:34">
       <c r="AH278" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="279" spans="34:34">
       <c r="AH279" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="280" spans="34:34">
       <c r="AH280" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="281" spans="34:34">
       <c r="AH281" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="282" spans="34:34">
       <c r="AH282" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="283" spans="34:34">
       <c r="AH283" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="284" spans="34:34">
       <c r="AH284" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="285" spans="34:34">
       <c r="AH285" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="286" spans="34:34">
       <c r="AH286" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="287" spans="34:34">
       <c r="AH287" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="288" spans="34:34">
       <c r="AH288" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -116,7 +116,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -134,7 +134,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="investigationtype">'cv_sample'!$AB$1:$AB$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="685">
   <si>
     <t>alias</t>
   </si>
@@ -1088,6 +1088,54 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
+  </si>
+  <si>
+    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1916,6 +1964,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1956,54 +2007,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
-  </si>
-  <si>
-    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -3711,73 +3714,73 @@
         <v>348</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>638</v>
+        <v>350</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>640</v>
+        <v>352</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>642</v>
+        <v>354</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>644</v>
+        <v>356</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>646</v>
+        <v>358</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>648</v>
+        <v>360</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>650</v>
+        <v>362</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>652</v>
+        <v>364</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="150" customHeight="1">
@@ -3881,73 +3884,73 @@
         <v>349</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>639</v>
+        <v>351</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>641</v>
+        <v>353</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>643</v>
+        <v>355</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>645</v>
+        <v>357</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>647</v>
+        <v>359</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>649</v>
+        <v>361</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>651</v>
+        <v>363</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>653</v>
+        <v>365</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +3973,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
       <formula1>investigationtype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3980,13 +3983,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AH288"/>
+  <dimension ref="E1:AP289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:34">
+    <row r="1" spans="5:42">
       <c r="E1" t="s">
         <v>266</v>
       </c>
@@ -4005,11 +4008,11 @@
       <c r="AB1" t="s">
         <v>326</v>
       </c>
-      <c r="AH1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="5:34">
+      <c r="AP1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="5:42">
       <c r="E2" t="s">
         <v>267</v>
       </c>
@@ -4028,11 +4031,11 @@
       <c r="AB2" t="s">
         <v>327</v>
       </c>
-      <c r="AH2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="5:34">
+      <c r="AP2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="5:42">
       <c r="E3" t="s">
         <v>268</v>
       </c>
@@ -4042,1472 +4045,1477 @@
       <c r="AB3" t="s">
         <v>328</v>
       </c>
-      <c r="AH3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="5:34">
+      <c r="AP3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="5:42">
       <c r="E4" t="s">
         <v>269</v>
       </c>
       <c r="AB4" t="s">
         <v>329</v>
       </c>
-      <c r="AH4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="5:34">
+      <c r="AP4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="5:42">
       <c r="E5" t="s">
         <v>270</v>
       </c>
       <c r="AB5" t="s">
         <v>330</v>
       </c>
-      <c r="AH5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="5:34">
+      <c r="AP5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="5:42">
       <c r="E6" t="s">
         <v>271</v>
       </c>
       <c r="AB6" t="s">
         <v>331</v>
       </c>
-      <c r="AH6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="5:34">
+      <c r="AP6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="5:42">
       <c r="E7" t="s">
         <v>272</v>
       </c>
       <c r="AB7" t="s">
         <v>332</v>
       </c>
-      <c r="AH7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="5:34">
+      <c r="AP7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="5:42">
       <c r="AB8" t="s">
         <v>333</v>
       </c>
-      <c r="AH8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="5:34">
+      <c r="AP8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="5:42">
       <c r="AB9" t="s">
         <v>334</v>
       </c>
-      <c r="AH9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="5:34">
+      <c r="AP9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="5:42">
       <c r="AB10" t="s">
         <v>335</v>
       </c>
-      <c r="AH10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="5:34">
+      <c r="AP10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="5:42">
       <c r="AB11" t="s">
         <v>336</v>
       </c>
-      <c r="AH11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="5:34">
+      <c r="AP11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="5:42">
       <c r="AB12" t="s">
         <v>337</v>
       </c>
-      <c r="AH12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="5:34">
-      <c r="AH13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="5:34">
-      <c r="AH14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="5:34">
-      <c r="AH15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="5:34">
-      <c r="AH16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="34:34">
-      <c r="AH17" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="34:34">
-      <c r="AH18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="34:34">
-      <c r="AH19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="34:34">
-      <c r="AH20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="34:34">
-      <c r="AH21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="34:34">
-      <c r="AH22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="34:34">
-      <c r="AH23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="34:34">
-      <c r="AH24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="34:34">
-      <c r="AH25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="34:34">
-      <c r="AH26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="34:34">
-      <c r="AH27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="34:34">
-      <c r="AH28" t="s">
+      <c r="AP12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="34:34">
-      <c r="AH29" t="s">
+    <row r="13" spans="5:42">
+      <c r="AP13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="34:34">
-      <c r="AH30" t="s">
+    <row r="14" spans="5:42">
+      <c r="AP14" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="34:34">
-      <c r="AH31" t="s">
+    <row r="15" spans="5:42">
+      <c r="AP15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="34:34">
-      <c r="AH32" t="s">
+    <row r="16" spans="5:42">
+      <c r="AP16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="34:34">
-      <c r="AH33" t="s">
+    <row r="17" spans="42:42">
+      <c r="AP17" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="34" spans="34:34">
-      <c r="AH34" t="s">
+    <row r="18" spans="42:42">
+      <c r="AP18" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="35" spans="34:34">
-      <c r="AH35" t="s">
+    <row r="19" spans="42:42">
+      <c r="AP19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="34:34">
-      <c r="AH36" t="s">
+    <row r="20" spans="42:42">
+      <c r="AP20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="34:34">
-      <c r="AH37" t="s">
+    <row r="21" spans="42:42">
+      <c r="AP21" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="34:34">
-      <c r="AH38" t="s">
+    <row r="22" spans="42:42">
+      <c r="AP22" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="39" spans="34:34">
-      <c r="AH39" t="s">
+    <row r="23" spans="42:42">
+      <c r="AP23" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="40" spans="34:34">
-      <c r="AH40" t="s">
+    <row r="24" spans="42:42">
+      <c r="AP24" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="34:34">
-      <c r="AH41" t="s">
+    <row r="25" spans="42:42">
+      <c r="AP25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="34:34">
-      <c r="AH42" t="s">
+    <row r="26" spans="42:42">
+      <c r="AP26" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="43" spans="34:34">
-      <c r="AH43" t="s">
+    <row r="27" spans="42:42">
+      <c r="AP27" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="34:34">
-      <c r="AH44" t="s">
+    <row r="28" spans="42:42">
+      <c r="AP28" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="34:34">
-      <c r="AH45" t="s">
+    <row r="29" spans="42:42">
+      <c r="AP29" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="46" spans="34:34">
-      <c r="AH46" t="s">
+    <row r="30" spans="42:42">
+      <c r="AP30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="47" spans="34:34">
-      <c r="AH47" t="s">
+    <row r="31" spans="42:42">
+      <c r="AP31" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="48" spans="34:34">
-      <c r="AH48" t="s">
+    <row r="32" spans="42:42">
+      <c r="AP32" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="49" spans="34:34">
-      <c r="AH49" t="s">
+    <row r="33" spans="42:42">
+      <c r="AP33" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="50" spans="34:34">
-      <c r="AH50" t="s">
+    <row r="34" spans="42:42">
+      <c r="AP34" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="34:34">
-      <c r="AH51" t="s">
+    <row r="35" spans="42:42">
+      <c r="AP35" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="34:34">
-      <c r="AH52" t="s">
+    <row r="36" spans="42:42">
+      <c r="AP36" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="34:34">
-      <c r="AH53" t="s">
+    <row r="37" spans="42:42">
+      <c r="AP37" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="54" spans="34:34">
-      <c r="AH54" t="s">
+    <row r="38" spans="42:42">
+      <c r="AP38" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="34:34">
-      <c r="AH55" t="s">
+    <row r="39" spans="42:42">
+      <c r="AP39" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="34:34">
-      <c r="AH56" t="s">
+    <row r="40" spans="42:42">
+      <c r="AP40" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="57" spans="34:34">
-      <c r="AH57" t="s">
+    <row r="41" spans="42:42">
+      <c r="AP41" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="34:34">
-      <c r="AH58" t="s">
+    <row r="42" spans="42:42">
+      <c r="AP42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="59" spans="34:34">
-      <c r="AH59" t="s">
+    <row r="43" spans="42:42">
+      <c r="AP43" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="60" spans="34:34">
-      <c r="AH60" t="s">
+    <row r="44" spans="42:42">
+      <c r="AP44" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="34:34">
-      <c r="AH61" t="s">
+    <row r="45" spans="42:42">
+      <c r="AP45" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="34:34">
-      <c r="AH62" t="s">
+    <row r="46" spans="42:42">
+      <c r="AP46" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="63" spans="34:34">
-      <c r="AH63" t="s">
+    <row r="47" spans="42:42">
+      <c r="AP47" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="34:34">
-      <c r="AH64" t="s">
+    <row r="48" spans="42:42">
+      <c r="AP48" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="65" spans="34:34">
-      <c r="AH65" t="s">
+    <row r="49" spans="42:42">
+      <c r="AP49" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="34:34">
-      <c r="AH66" t="s">
+    <row r="50" spans="42:42">
+      <c r="AP50" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="67" spans="34:34">
-      <c r="AH67" t="s">
+    <row r="51" spans="42:42">
+      <c r="AP51" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="34:34">
-      <c r="AH68" t="s">
+    <row r="52" spans="42:42">
+      <c r="AP52" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="69" spans="34:34">
-      <c r="AH69" t="s">
+    <row r="53" spans="42:42">
+      <c r="AP53" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="70" spans="34:34">
-      <c r="AH70" t="s">
+    <row r="54" spans="42:42">
+      <c r="AP54" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="34:34">
-      <c r="AH71" t="s">
+    <row r="55" spans="42:42">
+      <c r="AP55" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="72" spans="34:34">
-      <c r="AH72" t="s">
+    <row r="56" spans="42:42">
+      <c r="AP56" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="73" spans="34:34">
-      <c r="AH73" t="s">
+    <row r="57" spans="42:42">
+      <c r="AP57" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="74" spans="34:34">
-      <c r="AH74" t="s">
+    <row r="58" spans="42:42">
+      <c r="AP58" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="75" spans="34:34">
-      <c r="AH75" t="s">
+    <row r="59" spans="42:42">
+      <c r="AP59" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="76" spans="34:34">
-      <c r="AH76" t="s">
+    <row r="60" spans="42:42">
+      <c r="AP60" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="77" spans="34:34">
-      <c r="AH77" t="s">
+    <row r="61" spans="42:42">
+      <c r="AP61" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="34:34">
-      <c r="AH78" t="s">
+    <row r="62" spans="42:42">
+      <c r="AP62" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="79" spans="34:34">
-      <c r="AH79" t="s">
+    <row r="63" spans="42:42">
+      <c r="AP63" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="80" spans="34:34">
-      <c r="AH80" t="s">
+    <row r="64" spans="42:42">
+      <c r="AP64" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="81" spans="34:34">
-      <c r="AH81" t="s">
+    <row r="65" spans="42:42">
+      <c r="AP65" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="82" spans="34:34">
-      <c r="AH82" t="s">
+    <row r="66" spans="42:42">
+      <c r="AP66" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="34:34">
-      <c r="AH83" t="s">
+    <row r="67" spans="42:42">
+      <c r="AP67" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="84" spans="34:34">
-      <c r="AH84" t="s">
+    <row r="68" spans="42:42">
+      <c r="AP68" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="85" spans="34:34">
-      <c r="AH85" t="s">
+    <row r="69" spans="42:42">
+      <c r="AP69" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="86" spans="34:34">
-      <c r="AH86" t="s">
+    <row r="70" spans="42:42">
+      <c r="AP70" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="87" spans="34:34">
-      <c r="AH87" t="s">
+    <row r="71" spans="42:42">
+      <c r="AP71" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="88" spans="34:34">
-      <c r="AH88" t="s">
+    <row r="72" spans="42:42">
+      <c r="AP72" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="89" spans="34:34">
-      <c r="AH89" t="s">
+    <row r="73" spans="42:42">
+      <c r="AP73" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="90" spans="34:34">
-      <c r="AH90" t="s">
+    <row r="74" spans="42:42">
+      <c r="AP74" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="91" spans="34:34">
-      <c r="AH91" t="s">
+    <row r="75" spans="42:42">
+      <c r="AP75" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="34:34">
-      <c r="AH92" t="s">
+    <row r="76" spans="42:42">
+      <c r="AP76" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="93" spans="34:34">
-      <c r="AH93" t="s">
+    <row r="77" spans="42:42">
+      <c r="AP77" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="34:34">
-      <c r="AH94" t="s">
+    <row r="78" spans="42:42">
+      <c r="AP78" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="95" spans="34:34">
-      <c r="AH95" t="s">
+    <row r="79" spans="42:42">
+      <c r="AP79" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="34:34">
-      <c r="AH96" t="s">
+    <row r="80" spans="42:42">
+      <c r="AP80" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="97" spans="34:34">
-      <c r="AH97" t="s">
+    <row r="81" spans="42:42">
+      <c r="AP81" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="98" spans="34:34">
-      <c r="AH98" t="s">
+    <row r="82" spans="42:42">
+      <c r="AP82" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="99" spans="34:34">
-      <c r="AH99" t="s">
+    <row r="83" spans="42:42">
+      <c r="AP83" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="100" spans="34:34">
-      <c r="AH100" t="s">
+    <row r="84" spans="42:42">
+      <c r="AP84" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="101" spans="34:34">
-      <c r="AH101" t="s">
+    <row r="85" spans="42:42">
+      <c r="AP85" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="102" spans="34:34">
-      <c r="AH102" t="s">
+    <row r="86" spans="42:42">
+      <c r="AP86" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="103" spans="34:34">
-      <c r="AH103" t="s">
+    <row r="87" spans="42:42">
+      <c r="AP87" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="104" spans="34:34">
-      <c r="AH104" t="s">
+    <row r="88" spans="42:42">
+      <c r="AP88" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="105" spans="34:34">
-      <c r="AH105" t="s">
+    <row r="89" spans="42:42">
+      <c r="AP89" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="106" spans="34:34">
-      <c r="AH106" t="s">
+    <row r="90" spans="42:42">
+      <c r="AP90" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="107" spans="34:34">
-      <c r="AH107" t="s">
+    <row r="91" spans="42:42">
+      <c r="AP91" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="108" spans="34:34">
-      <c r="AH108" t="s">
+    <row r="92" spans="42:42">
+      <c r="AP92" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="109" spans="34:34">
-      <c r="AH109" t="s">
+    <row r="93" spans="42:42">
+      <c r="AP93" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="110" spans="34:34">
-      <c r="AH110" t="s">
+    <row r="94" spans="42:42">
+      <c r="AP94" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="111" spans="34:34">
-      <c r="AH111" t="s">
+    <row r="95" spans="42:42">
+      <c r="AP95" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="34:34">
-      <c r="AH112" t="s">
+    <row r="96" spans="42:42">
+      <c r="AP96" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="113" spans="34:34">
-      <c r="AH113" t="s">
+    <row r="97" spans="42:42">
+      <c r="AP97" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="114" spans="34:34">
-      <c r="AH114" t="s">
+    <row r="98" spans="42:42">
+      <c r="AP98" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="115" spans="34:34">
-      <c r="AH115" t="s">
+    <row r="99" spans="42:42">
+      <c r="AP99" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="116" spans="34:34">
-      <c r="AH116" t="s">
+    <row r="100" spans="42:42">
+      <c r="AP100" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="34:34">
-      <c r="AH117" t="s">
+    <row r="101" spans="42:42">
+      <c r="AP101" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="118" spans="34:34">
-      <c r="AH118" t="s">
+    <row r="102" spans="42:42">
+      <c r="AP102" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="119" spans="34:34">
-      <c r="AH119" t="s">
+    <row r="103" spans="42:42">
+      <c r="AP103" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="120" spans="34:34">
-      <c r="AH120" t="s">
+    <row r="104" spans="42:42">
+      <c r="AP104" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="121" spans="34:34">
-      <c r="AH121" t="s">
+    <row r="105" spans="42:42">
+      <c r="AP105" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="122" spans="34:34">
-      <c r="AH122" t="s">
+    <row r="106" spans="42:42">
+      <c r="AP106" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="123" spans="34:34">
-      <c r="AH123" t="s">
+    <row r="107" spans="42:42">
+      <c r="AP107" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="124" spans="34:34">
-      <c r="AH124" t="s">
+    <row r="108" spans="42:42">
+      <c r="AP108" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="125" spans="34:34">
-      <c r="AH125" t="s">
+    <row r="109" spans="42:42">
+      <c r="AP109" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="126" spans="34:34">
-      <c r="AH126" t="s">
+    <row r="110" spans="42:42">
+      <c r="AP110" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="127" spans="34:34">
-      <c r="AH127" t="s">
+    <row r="111" spans="42:42">
+      <c r="AP111" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="128" spans="34:34">
-      <c r="AH128" t="s">
+    <row r="112" spans="42:42">
+      <c r="AP112" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="129" spans="34:34">
-      <c r="AH129" t="s">
+    <row r="113" spans="42:42">
+      <c r="AP113" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="130" spans="34:34">
-      <c r="AH130" t="s">
+    <row r="114" spans="42:42">
+      <c r="AP114" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="34:34">
-      <c r="AH131" t="s">
+    <row r="115" spans="42:42">
+      <c r="AP115" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="132" spans="34:34">
-      <c r="AH132" t="s">
+    <row r="116" spans="42:42">
+      <c r="AP116" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="133" spans="34:34">
-      <c r="AH133" t="s">
+    <row r="117" spans="42:42">
+      <c r="AP117" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="134" spans="34:34">
-      <c r="AH134" t="s">
+    <row r="118" spans="42:42">
+      <c r="AP118" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="135" spans="34:34">
-      <c r="AH135" t="s">
+    <row r="119" spans="42:42">
+      <c r="AP119" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="136" spans="34:34">
-      <c r="AH136" t="s">
+    <row r="120" spans="42:42">
+      <c r="AP120" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="137" spans="34:34">
-      <c r="AH137" t="s">
+    <row r="121" spans="42:42">
+      <c r="AP121" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="138" spans="34:34">
-      <c r="AH138" t="s">
+    <row r="122" spans="42:42">
+      <c r="AP122" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="139" spans="34:34">
-      <c r="AH139" t="s">
+    <row r="123" spans="42:42">
+      <c r="AP123" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="140" spans="34:34">
-      <c r="AH140" t="s">
+    <row r="124" spans="42:42">
+      <c r="AP124" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="141" spans="34:34">
-      <c r="AH141" t="s">
+    <row r="125" spans="42:42">
+      <c r="AP125" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="142" spans="34:34">
-      <c r="AH142" t="s">
+    <row r="126" spans="42:42">
+      <c r="AP126" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="143" spans="34:34">
-      <c r="AH143" t="s">
+    <row r="127" spans="42:42">
+      <c r="AP127" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="144" spans="34:34">
-      <c r="AH144" t="s">
+    <row r="128" spans="42:42">
+      <c r="AP128" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="145" spans="34:34">
-      <c r="AH145" t="s">
+    <row r="129" spans="42:42">
+      <c r="AP129" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="146" spans="34:34">
-      <c r="AH146" t="s">
+    <row r="130" spans="42:42">
+      <c r="AP130" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="147" spans="34:34">
-      <c r="AH147" t="s">
+    <row r="131" spans="42:42">
+      <c r="AP131" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="148" spans="34:34">
-      <c r="AH148" t="s">
+    <row r="132" spans="42:42">
+      <c r="AP132" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="149" spans="34:34">
-      <c r="AH149" t="s">
+    <row r="133" spans="42:42">
+      <c r="AP133" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="150" spans="34:34">
-      <c r="AH150" t="s">
+    <row r="134" spans="42:42">
+      <c r="AP134" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="151" spans="34:34">
-      <c r="AH151" t="s">
+    <row r="135" spans="42:42">
+      <c r="AP135" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="152" spans="34:34">
-      <c r="AH152" t="s">
+    <row r="136" spans="42:42">
+      <c r="AP136" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="153" spans="34:34">
-      <c r="AH153" t="s">
+    <row r="137" spans="42:42">
+      <c r="AP137" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="154" spans="34:34">
-      <c r="AH154" t="s">
+    <row r="138" spans="42:42">
+      <c r="AP138" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="155" spans="34:34">
-      <c r="AH155" t="s">
+    <row r="139" spans="42:42">
+      <c r="AP139" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="156" spans="34:34">
-      <c r="AH156" t="s">
+    <row r="140" spans="42:42">
+      <c r="AP140" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="157" spans="34:34">
-      <c r="AH157" t="s">
+    <row r="141" spans="42:42">
+      <c r="AP141" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="158" spans="34:34">
-      <c r="AH158" t="s">
+    <row r="142" spans="42:42">
+      <c r="AP142" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="159" spans="34:34">
-      <c r="AH159" t="s">
+    <row r="143" spans="42:42">
+      <c r="AP143" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="160" spans="34:34">
-      <c r="AH160" t="s">
+    <row r="144" spans="42:42">
+      <c r="AP144" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="161" spans="34:34">
-      <c r="AH161" t="s">
+    <row r="145" spans="42:42">
+      <c r="AP145" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="162" spans="34:34">
-      <c r="AH162" t="s">
+    <row r="146" spans="42:42">
+      <c r="AP146" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="163" spans="34:34">
-      <c r="AH163" t="s">
+    <row r="147" spans="42:42">
+      <c r="AP147" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="164" spans="34:34">
-      <c r="AH164" t="s">
+    <row r="148" spans="42:42">
+      <c r="AP148" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="165" spans="34:34">
-      <c r="AH165" t="s">
+    <row r="149" spans="42:42">
+      <c r="AP149" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="166" spans="34:34">
-      <c r="AH166" t="s">
+    <row r="150" spans="42:42">
+      <c r="AP150" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="167" spans="34:34">
-      <c r="AH167" t="s">
+    <row r="151" spans="42:42">
+      <c r="AP151" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="168" spans="34:34">
-      <c r="AH168" t="s">
+    <row r="152" spans="42:42">
+      <c r="AP152" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="169" spans="34:34">
-      <c r="AH169" t="s">
+    <row r="153" spans="42:42">
+      <c r="AP153" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="170" spans="34:34">
-      <c r="AH170" t="s">
+    <row r="154" spans="42:42">
+      <c r="AP154" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="171" spans="34:34">
-      <c r="AH171" t="s">
+    <row r="155" spans="42:42">
+      <c r="AP155" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="172" spans="34:34">
-      <c r="AH172" t="s">
+    <row r="156" spans="42:42">
+      <c r="AP156" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="173" spans="34:34">
-      <c r="AH173" t="s">
+    <row r="157" spans="42:42">
+      <c r="AP157" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="174" spans="34:34">
-      <c r="AH174" t="s">
+    <row r="158" spans="42:42">
+      <c r="AP158" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="175" spans="34:34">
-      <c r="AH175" t="s">
+    <row r="159" spans="42:42">
+      <c r="AP159" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="176" spans="34:34">
-      <c r="AH176" t="s">
+    <row r="160" spans="42:42">
+      <c r="AP160" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="177" spans="34:34">
-      <c r="AH177" t="s">
+    <row r="161" spans="42:42">
+      <c r="AP161" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="178" spans="34:34">
-      <c r="AH178" t="s">
+    <row r="162" spans="42:42">
+      <c r="AP162" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="179" spans="34:34">
-      <c r="AH179" t="s">
+    <row r="163" spans="42:42">
+      <c r="AP163" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="180" spans="34:34">
-      <c r="AH180" t="s">
+    <row r="164" spans="42:42">
+      <c r="AP164" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="181" spans="34:34">
-      <c r="AH181" t="s">
+    <row r="165" spans="42:42">
+      <c r="AP165" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="182" spans="34:34">
-      <c r="AH182" t="s">
+    <row r="166" spans="42:42">
+      <c r="AP166" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="183" spans="34:34">
-      <c r="AH183" t="s">
+    <row r="167" spans="42:42">
+      <c r="AP167" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="184" spans="34:34">
-      <c r="AH184" t="s">
+    <row r="168" spans="42:42">
+      <c r="AP168" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="185" spans="34:34">
-      <c r="AH185" t="s">
+    <row r="169" spans="42:42">
+      <c r="AP169" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="186" spans="34:34">
-      <c r="AH186" t="s">
+    <row r="170" spans="42:42">
+      <c r="AP170" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="187" spans="34:34">
-      <c r="AH187" t="s">
+    <row r="171" spans="42:42">
+      <c r="AP171" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="188" spans="34:34">
-      <c r="AH188" t="s">
+    <row r="172" spans="42:42">
+      <c r="AP172" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="189" spans="34:34">
-      <c r="AH189" t="s">
+    <row r="173" spans="42:42">
+      <c r="AP173" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="190" spans="34:34">
-      <c r="AH190" t="s">
+    <row r="174" spans="42:42">
+      <c r="AP174" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="34:34">
-      <c r="AH191" t="s">
+    <row r="175" spans="42:42">
+      <c r="AP175" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="192" spans="34:34">
-      <c r="AH192" t="s">
+    <row r="176" spans="42:42">
+      <c r="AP176" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="193" spans="34:34">
-      <c r="AH193" t="s">
+    <row r="177" spans="42:42">
+      <c r="AP177" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="194" spans="34:34">
-      <c r="AH194" t="s">
+    <row r="178" spans="42:42">
+      <c r="AP178" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="195" spans="34:34">
-      <c r="AH195" t="s">
+    <row r="179" spans="42:42">
+      <c r="AP179" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="196" spans="34:34">
-      <c r="AH196" t="s">
+    <row r="180" spans="42:42">
+      <c r="AP180" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="197" spans="34:34">
-      <c r="AH197" t="s">
+    <row r="181" spans="42:42">
+      <c r="AP181" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="198" spans="34:34">
-      <c r="AH198" t="s">
+    <row r="182" spans="42:42">
+      <c r="AP182" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="199" spans="34:34">
-      <c r="AH199" t="s">
+    <row r="183" spans="42:42">
+      <c r="AP183" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="200" spans="34:34">
-      <c r="AH200" t="s">
+    <row r="184" spans="42:42">
+      <c r="AP184" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="201" spans="34:34">
-      <c r="AH201" t="s">
+    <row r="185" spans="42:42">
+      <c r="AP185" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="202" spans="34:34">
-      <c r="AH202" t="s">
+    <row r="186" spans="42:42">
+      <c r="AP186" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="203" spans="34:34">
-      <c r="AH203" t="s">
+    <row r="187" spans="42:42">
+      <c r="AP187" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="204" spans="34:34">
-      <c r="AH204" t="s">
+    <row r="188" spans="42:42">
+      <c r="AP188" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="205" spans="34:34">
-      <c r="AH205" t="s">
+    <row r="189" spans="42:42">
+      <c r="AP189" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="206" spans="34:34">
-      <c r="AH206" t="s">
+    <row r="190" spans="42:42">
+      <c r="AP190" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="207" spans="34:34">
-      <c r="AH207" t="s">
+    <row r="191" spans="42:42">
+      <c r="AP191" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="208" spans="34:34">
-      <c r="AH208" t="s">
+    <row r="192" spans="42:42">
+      <c r="AP192" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="209" spans="34:34">
-      <c r="AH209" t="s">
+    <row r="193" spans="42:42">
+      <c r="AP193" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="210" spans="34:34">
-      <c r="AH210" t="s">
+    <row r="194" spans="42:42">
+      <c r="AP194" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="211" spans="34:34">
-      <c r="AH211" t="s">
+    <row r="195" spans="42:42">
+      <c r="AP195" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="212" spans="34:34">
-      <c r="AH212" t="s">
+    <row r="196" spans="42:42">
+      <c r="AP196" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="213" spans="34:34">
-      <c r="AH213" t="s">
+    <row r="197" spans="42:42">
+      <c r="AP197" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="214" spans="34:34">
-      <c r="AH214" t="s">
+    <row r="198" spans="42:42">
+      <c r="AP198" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="215" spans="34:34">
-      <c r="AH215" t="s">
+    <row r="199" spans="42:42">
+      <c r="AP199" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="216" spans="34:34">
-      <c r="AH216" t="s">
+    <row r="200" spans="42:42">
+      <c r="AP200" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="217" spans="34:34">
-      <c r="AH217" t="s">
+    <row r="201" spans="42:42">
+      <c r="AP201" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="218" spans="34:34">
-      <c r="AH218" t="s">
+    <row r="202" spans="42:42">
+      <c r="AP202" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="219" spans="34:34">
-      <c r="AH219" t="s">
+    <row r="203" spans="42:42">
+      <c r="AP203" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="220" spans="34:34">
-      <c r="AH220" t="s">
+    <row r="204" spans="42:42">
+      <c r="AP204" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="221" spans="34:34">
-      <c r="AH221" t="s">
+    <row r="205" spans="42:42">
+      <c r="AP205" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="222" spans="34:34">
-      <c r="AH222" t="s">
+    <row r="206" spans="42:42">
+      <c r="AP206" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="223" spans="34:34">
-      <c r="AH223" t="s">
+    <row r="207" spans="42:42">
+      <c r="AP207" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="224" spans="34:34">
-      <c r="AH224" t="s">
+    <row r="208" spans="42:42">
+      <c r="AP208" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="225" spans="34:34">
-      <c r="AH225" t="s">
+    <row r="209" spans="42:42">
+      <c r="AP209" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="226" spans="34:34">
-      <c r="AH226" t="s">
+    <row r="210" spans="42:42">
+      <c r="AP210" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="227" spans="34:34">
-      <c r="AH227" t="s">
+    <row r="211" spans="42:42">
+      <c r="AP211" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="228" spans="34:34">
-      <c r="AH228" t="s">
+    <row r="212" spans="42:42">
+      <c r="AP212" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="229" spans="34:34">
-      <c r="AH229" t="s">
+    <row r="213" spans="42:42">
+      <c r="AP213" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="230" spans="34:34">
-      <c r="AH230" t="s">
+    <row r="214" spans="42:42">
+      <c r="AP214" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="231" spans="34:34">
-      <c r="AH231" t="s">
+    <row r="215" spans="42:42">
+      <c r="AP215" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="232" spans="34:34">
-      <c r="AH232" t="s">
+    <row r="216" spans="42:42">
+      <c r="AP216" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="233" spans="34:34">
-      <c r="AH233" t="s">
+    <row r="217" spans="42:42">
+      <c r="AP217" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="234" spans="34:34">
-      <c r="AH234" t="s">
+    <row r="218" spans="42:42">
+      <c r="AP218" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="235" spans="34:34">
-      <c r="AH235" t="s">
+    <row r="219" spans="42:42">
+      <c r="AP219" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="236" spans="34:34">
-      <c r="AH236" t="s">
+    <row r="220" spans="42:42">
+      <c r="AP220" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="237" spans="34:34">
-      <c r="AH237" t="s">
+    <row r="221" spans="42:42">
+      <c r="AP221" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="238" spans="34:34">
-      <c r="AH238" t="s">
+    <row r="222" spans="42:42">
+      <c r="AP222" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="239" spans="34:34">
-      <c r="AH239" t="s">
+    <row r="223" spans="42:42">
+      <c r="AP223" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="240" spans="34:34">
-      <c r="AH240" t="s">
+    <row r="224" spans="42:42">
+      <c r="AP224" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="241" spans="34:34">
-      <c r="AH241" t="s">
+    <row r="225" spans="42:42">
+      <c r="AP225" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="242" spans="34:34">
-      <c r="AH242" t="s">
+    <row r="226" spans="42:42">
+      <c r="AP226" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="243" spans="34:34">
-      <c r="AH243" t="s">
+    <row r="227" spans="42:42">
+      <c r="AP227" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="244" spans="34:34">
-      <c r="AH244" t="s">
+    <row r="228" spans="42:42">
+      <c r="AP228" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="245" spans="34:34">
-      <c r="AH245" t="s">
+    <row r="229" spans="42:42">
+      <c r="AP229" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="246" spans="34:34">
-      <c r="AH246" t="s">
+    <row r="230" spans="42:42">
+      <c r="AP230" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="247" spans="34:34">
-      <c r="AH247" t="s">
+    <row r="231" spans="42:42">
+      <c r="AP231" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="248" spans="34:34">
-      <c r="AH248" t="s">
+    <row r="232" spans="42:42">
+      <c r="AP232" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="249" spans="34:34">
-      <c r="AH249" t="s">
+    <row r="233" spans="42:42">
+      <c r="AP233" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="250" spans="34:34">
-      <c r="AH250" t="s">
+    <row r="234" spans="42:42">
+      <c r="AP234" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="251" spans="34:34">
-      <c r="AH251" t="s">
+    <row r="235" spans="42:42">
+      <c r="AP235" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="252" spans="34:34">
-      <c r="AH252" t="s">
+    <row r="236" spans="42:42">
+      <c r="AP236" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="253" spans="34:34">
-      <c r="AH253" t="s">
+    <row r="237" spans="42:42">
+      <c r="AP237" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="254" spans="34:34">
-      <c r="AH254" t="s">
+    <row r="238" spans="42:42">
+      <c r="AP238" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="255" spans="34:34">
-      <c r="AH255" t="s">
+    <row r="239" spans="42:42">
+      <c r="AP239" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="256" spans="34:34">
-      <c r="AH256" t="s">
+    <row r="240" spans="42:42">
+      <c r="AP240" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="257" spans="34:34">
-      <c r="AH257" t="s">
+    <row r="241" spans="42:42">
+      <c r="AP241" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="258" spans="34:34">
-      <c r="AH258" t="s">
+    <row r="242" spans="42:42">
+      <c r="AP242" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="259" spans="34:34">
-      <c r="AH259" t="s">
+    <row r="243" spans="42:42">
+      <c r="AP243" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="260" spans="34:34">
-      <c r="AH260" t="s">
+    <row r="244" spans="42:42">
+      <c r="AP244" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="261" spans="34:34">
-      <c r="AH261" t="s">
+    <row r="245" spans="42:42">
+      <c r="AP245" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="262" spans="34:34">
-      <c r="AH262" t="s">
+    <row r="246" spans="42:42">
+      <c r="AP246" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="263" spans="34:34">
-      <c r="AH263" t="s">
+    <row r="247" spans="42:42">
+      <c r="AP247" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="264" spans="34:34">
-      <c r="AH264" t="s">
+    <row r="248" spans="42:42">
+      <c r="AP248" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="265" spans="34:34">
-      <c r="AH265" t="s">
+    <row r="249" spans="42:42">
+      <c r="AP249" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="266" spans="34:34">
-      <c r="AH266" t="s">
+    <row r="250" spans="42:42">
+      <c r="AP250" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="267" spans="34:34">
-      <c r="AH267" t="s">
+    <row r="251" spans="42:42">
+      <c r="AP251" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="268" spans="34:34">
-      <c r="AH268" t="s">
+    <row r="252" spans="42:42">
+      <c r="AP252" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="269" spans="34:34">
-      <c r="AH269" t="s">
+    <row r="253" spans="42:42">
+      <c r="AP253" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="270" spans="34:34">
-      <c r="AH270" t="s">
+    <row r="254" spans="42:42">
+      <c r="AP254" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="271" spans="34:34">
-      <c r="AH271" t="s">
+    <row r="255" spans="42:42">
+      <c r="AP255" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="272" spans="34:34">
-      <c r="AH272" t="s">
+    <row r="256" spans="42:42">
+      <c r="AP256" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="273" spans="34:34">
-      <c r="AH273" t="s">
+    <row r="257" spans="42:42">
+      <c r="AP257" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="274" spans="34:34">
-      <c r="AH274" t="s">
+    <row r="258" spans="42:42">
+      <c r="AP258" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="275" spans="34:34">
-      <c r="AH275" t="s">
+    <row r="259" spans="42:42">
+      <c r="AP259" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="276" spans="34:34">
-      <c r="AH276" t="s">
+    <row r="260" spans="42:42">
+      <c r="AP260" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="277" spans="34:34">
-      <c r="AH277" t="s">
+    <row r="261" spans="42:42">
+      <c r="AP261" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="278" spans="34:34">
-      <c r="AH278" t="s">
+    <row r="262" spans="42:42">
+      <c r="AP262" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="279" spans="34:34">
-      <c r="AH279" t="s">
+    <row r="263" spans="42:42">
+      <c r="AP263" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="280" spans="34:34">
-      <c r="AH280" t="s">
+    <row r="264" spans="42:42">
+      <c r="AP264" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="281" spans="34:34">
-      <c r="AH281" t="s">
+    <row r="265" spans="42:42">
+      <c r="AP265" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="282" spans="34:34">
-      <c r="AH282" t="s">
+    <row r="266" spans="42:42">
+      <c r="AP266" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="283" spans="34:34">
-      <c r="AH283" t="s">
+    <row r="267" spans="42:42">
+      <c r="AP267" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="284" spans="34:34">
-      <c r="AH284" t="s">
+    <row r="268" spans="42:42">
+      <c r="AP268" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="285" spans="34:34">
-      <c r="AH285" t="s">
+    <row r="269" spans="42:42">
+      <c r="AP269" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="286" spans="34:34">
-      <c r="AH286" t="s">
+    <row r="270" spans="42:42">
+      <c r="AP270" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="287" spans="34:34">
-      <c r="AH287" t="s">
+    <row r="271" spans="42:42">
+      <c r="AP271" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="288" spans="34:34">
-      <c r="AH288" t="s">
+    <row r="272" spans="42:42">
+      <c r="AP272" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="273" spans="42:42">
+      <c r="AP273" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="274" spans="42:42">
+      <c r="AP274" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="275" spans="42:42">
+      <c r="AP275" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="276" spans="42:42">
+      <c r="AP276" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="277" spans="42:42">
+      <c r="AP277" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="278" spans="42:42">
+      <c r="AP278" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="279" spans="42:42">
+      <c r="AP279" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="280" spans="42:42">
+      <c r="AP280" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="281" spans="42:42">
+      <c r="AP281" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="282" spans="42:42">
+      <c r="AP282" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="283" spans="42:42">
+      <c r="AP283" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="284" spans="42:42">
+      <c r="AP284" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="285" spans="42:42">
+      <c r="AP285" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="286" spans="42:42">
+      <c r="AP286" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="287" spans="42:42">
+      <c r="AP287" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="288" spans="42:42">
+      <c r="AP288" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="289" spans="42:42">
+      <c r="AP289" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="investigationtype">'cv_sample'!$AB$1:$AB$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="686">
   <si>
     <t>alias</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2629,7 +2632,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2673,7 +2676,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +2703,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3412,6 +3415,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3436,27 +3444,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3479,122 +3487,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3621,336 +3629,336 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -3991,1531 +3999,1531 @@
   <sheetData>
     <row r="1" spans="5:42">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AP1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="5:42">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="5:42">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AP3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="5:42">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="5:42">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="5:42">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="5:42">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AB7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="5:42">
       <c r="AB8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="5:42">
       <c r="AB9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="5:42">
       <c r="AB10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="5:42">
       <c r="AB11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AP11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="5:42">
       <c r="AB12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="5:42">
       <c r="AP13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="5:42">
       <c r="AP14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="5:42">
       <c r="AP15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="5:42">
       <c r="AP16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="42:42">
       <c r="AP17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="42:42">
       <c r="AP18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="42:42">
       <c r="AP19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="42:42">
       <c r="AP20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="42:42">
       <c r="AP21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="42:42">
       <c r="AP22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="42:42">
       <c r="AP23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="42:42">
       <c r="AP24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="42:42">
       <c r="AP25" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="42:42">
       <c r="AP26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="42:42">
       <c r="AP27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="42:42">
       <c r="AP28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="42:42">
       <c r="AP29" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="42:42">
       <c r="AP30" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="42:42">
       <c r="AP31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="42:42">
       <c r="AP32" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="42:42">
       <c r="AP33" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="42:42">
       <c r="AP34" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="42:42">
       <c r="AP35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="42:42">
       <c r="AP36" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="42:42">
       <c r="AP37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="42:42">
       <c r="AP38" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="42:42">
       <c r="AP39" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="42:42">
       <c r="AP40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="42:42">
       <c r="AP41" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="42:42">
       <c r="AP42" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="42:42">
       <c r="AP43" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="42:42">
       <c r="AP44" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="42:42">
       <c r="AP45" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="42:42">
       <c r="AP46" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="42:42">
       <c r="AP47" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="42:42">
       <c r="AP48" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="42:42">
       <c r="AP49" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" spans="42:42">
       <c r="AP50" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51" spans="42:42">
       <c r="AP51" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="42:42">
       <c r="AP52" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="42:42">
       <c r="AP53" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="42:42">
       <c r="AP54" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="42:42">
       <c r="AP55" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="42:42">
       <c r="AP56" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="42:42">
       <c r="AP57" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="42:42">
       <c r="AP58" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="42:42">
       <c r="AP59" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="42:42">
       <c r="AP60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" spans="42:42">
       <c r="AP61" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="42:42">
       <c r="AP62" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="42:42">
       <c r="AP63" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="42:42">
       <c r="AP64" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="42:42">
       <c r="AP65" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="42:42">
       <c r="AP66" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="42:42">
       <c r="AP67" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="42:42">
       <c r="AP68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="42:42">
       <c r="AP69" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="42:42">
       <c r="AP70" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="42:42">
       <c r="AP71" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="42:42">
       <c r="AP72" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="42:42">
       <c r="AP73" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="42:42">
       <c r="AP74" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="42:42">
       <c r="AP75" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="42:42">
       <c r="AP76" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="42:42">
       <c r="AP77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="42:42">
       <c r="AP78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="42:42">
       <c r="AP79" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="42:42">
       <c r="AP80" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="42:42">
       <c r="AP81" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="42:42">
       <c r="AP82" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="42:42">
       <c r="AP83" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="42:42">
       <c r="AP84" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="42:42">
       <c r="AP85" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="42:42">
       <c r="AP86" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="42:42">
       <c r="AP87" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="42:42">
       <c r="AP88" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="42:42">
       <c r="AP89" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="42:42">
       <c r="AP90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91" spans="42:42">
       <c r="AP91" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="42:42">
       <c r="AP92" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="42:42">
       <c r="AP93" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="42:42">
       <c r="AP94" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="42:42">
       <c r="AP95" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="42:42">
       <c r="AP96" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="97" spans="42:42">
       <c r="AP97" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" spans="42:42">
       <c r="AP98" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="42:42">
       <c r="AP99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="42:42">
       <c r="AP100" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="42:42">
       <c r="AP101" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="42:42">
       <c r="AP102" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="103" spans="42:42">
       <c r="AP103" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="104" spans="42:42">
       <c r="AP104" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="42:42">
       <c r="AP105" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="42:42">
       <c r="AP106" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="42:42">
       <c r="AP107" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="108" spans="42:42">
       <c r="AP108" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="42:42">
       <c r="AP109" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="110" spans="42:42">
       <c r="AP110" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="42:42">
       <c r="AP111" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="42:42">
       <c r="AP112" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="113" spans="42:42">
       <c r="AP113" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="115" spans="42:42">
       <c r="AP115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="42:42">
       <c r="AP116" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="117" spans="42:42">
       <c r="AP117" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="42:42">
       <c r="AP118" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="42:42">
       <c r="AP119" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="42:42">
       <c r="AP120" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="42:42">
       <c r="AP121" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="122" spans="42:42">
       <c r="AP122" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="123" spans="42:42">
       <c r="AP123" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="124" spans="42:42">
       <c r="AP124" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="125" spans="42:42">
       <c r="AP125" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="42:42">
       <c r="AP126" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="42:42">
       <c r="AP127" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="42:42">
       <c r="AP128" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="42:42">
       <c r="AP129" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="130" spans="42:42">
       <c r="AP130" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" spans="42:42">
       <c r="AP131" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="42:42">
       <c r="AP132" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="42:42">
       <c r="AP133" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="42:42">
       <c r="AP134" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="42:42">
       <c r="AP135" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="42:42">
       <c r="AP136" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="42:42">
       <c r="AP137" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="42:42">
       <c r="AP138" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="42:42">
       <c r="AP139" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="42:42">
       <c r="AP140" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="141" spans="42:42">
       <c r="AP141" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="142" spans="42:42">
       <c r="AP142" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="143" spans="42:42">
       <c r="AP143" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="144" spans="42:42">
       <c r="AP144" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="146" spans="42:42">
       <c r="AP146" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="147" spans="42:42">
       <c r="AP147" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="148" spans="42:42">
       <c r="AP148" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149" spans="42:42">
       <c r="AP149" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="150" spans="42:42">
       <c r="AP150" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="42:42">
       <c r="AP151" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152" spans="42:42">
       <c r="AP152" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="42:42">
       <c r="AP153" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" spans="42:42">
       <c r="AP154" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="155" spans="42:42">
       <c r="AP155" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="156" spans="42:42">
       <c r="AP156" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="42:42">
       <c r="AP157" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="158" spans="42:42">
       <c r="AP158" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="159" spans="42:42">
       <c r="AP159" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="160" spans="42:42">
       <c r="AP160" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="161" spans="42:42">
       <c r="AP161" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="42:42">
       <c r="AP162" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="163" spans="42:42">
       <c r="AP163" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="42:42">
       <c r="AP164" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="165" spans="42:42">
       <c r="AP165" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="166" spans="42:42">
       <c r="AP166" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="167" spans="42:42">
       <c r="AP167" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="42:42">
       <c r="AP168" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="169" spans="42:42">
       <c r="AP169" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="170" spans="42:42">
       <c r="AP170" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="171" spans="42:42">
       <c r="AP171" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="172" spans="42:42">
       <c r="AP172" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="173" spans="42:42">
       <c r="AP173" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="174" spans="42:42">
       <c r="AP174" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="175" spans="42:42">
       <c r="AP175" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="176" spans="42:42">
       <c r="AP176" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="178" spans="42:42">
       <c r="AP178" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="179" spans="42:42">
       <c r="AP179" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="180" spans="42:42">
       <c r="AP180" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="181" spans="42:42">
       <c r="AP181" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="182" spans="42:42">
       <c r="AP182" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="183" spans="42:42">
       <c r="AP183" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="184" spans="42:42">
       <c r="AP184" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="185" spans="42:42">
       <c r="AP185" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="186" spans="42:42">
       <c r="AP186" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="187" spans="42:42">
       <c r="AP187" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="188" spans="42:42">
       <c r="AP188" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="189" spans="42:42">
       <c r="AP189" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="190" spans="42:42">
       <c r="AP190" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="191" spans="42:42">
       <c r="AP191" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="42:42">
       <c r="AP192" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="193" spans="42:42">
       <c r="AP193" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="42:42">
       <c r="AP194" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="195" spans="42:42">
       <c r="AP195" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="196" spans="42:42">
       <c r="AP196" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="42:42">
       <c r="AP197" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="198" spans="42:42">
       <c r="AP198" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="199" spans="42:42">
       <c r="AP199" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="200" spans="42:42">
       <c r="AP200" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="201" spans="42:42">
       <c r="AP201" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="42:42">
       <c r="AP202" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="203" spans="42:42">
       <c r="AP203" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="204" spans="42:42">
       <c r="AP204" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="205" spans="42:42">
       <c r="AP205" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="42:42">
       <c r="AP206" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="207" spans="42:42">
       <c r="AP207" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="42:42">
       <c r="AP208" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="209" spans="42:42">
       <c r="AP209" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="210" spans="42:42">
       <c r="AP210" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="211" spans="42:42">
       <c r="AP211" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="212" spans="42:42">
       <c r="AP212" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="213" spans="42:42">
       <c r="AP213" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="42:42">
       <c r="AP214" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="215" spans="42:42">
       <c r="AP215" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="216" spans="42:42">
       <c r="AP216" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="217" spans="42:42">
       <c r="AP217" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="218" spans="42:42">
       <c r="AP218" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="219" spans="42:42">
       <c r="AP219" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="220" spans="42:42">
       <c r="AP220" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="221" spans="42:42">
       <c r="AP221" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="222" spans="42:42">
       <c r="AP222" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="223" spans="42:42">
       <c r="AP223" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="224" spans="42:42">
       <c r="AP224" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="225" spans="42:42">
       <c r="AP225" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="226" spans="42:42">
       <c r="AP226" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="227" spans="42:42">
       <c r="AP227" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="228" spans="42:42">
       <c r="AP228" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="229" spans="42:42">
       <c r="AP229" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="230" spans="42:42">
       <c r="AP230" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="231" spans="42:42">
       <c r="AP231" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="232" spans="42:42">
       <c r="AP232" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="233" spans="42:42">
       <c r="AP233" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="234" spans="42:42">
       <c r="AP234" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235" spans="42:42">
       <c r="AP235" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="236" spans="42:42">
       <c r="AP236" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="237" spans="42:42">
       <c r="AP237" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="238" spans="42:42">
       <c r="AP238" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="239" spans="42:42">
       <c r="AP239" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="240" spans="42:42">
       <c r="AP240" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="241" spans="42:42">
       <c r="AP241" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="242" spans="42:42">
       <c r="AP242" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="243" spans="42:42">
       <c r="AP243" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="244" spans="42:42">
       <c r="AP244" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="245" spans="42:42">
       <c r="AP245" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="246" spans="42:42">
       <c r="AP246" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="247" spans="42:42">
       <c r="AP247" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="248" spans="42:42">
       <c r="AP248" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="249" spans="42:42">
       <c r="AP249" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="250" spans="42:42">
       <c r="AP250" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="251" spans="42:42">
       <c r="AP251" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="252" spans="42:42">
       <c r="AP252" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="253" spans="42:42">
       <c r="AP253" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="254" spans="42:42">
       <c r="AP254" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="255" spans="42:42">
       <c r="AP255" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="256" spans="42:42">
       <c r="AP256" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="257" spans="42:42">
       <c r="AP257" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="258" spans="42:42">
       <c r="AP258" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="259" spans="42:42">
       <c r="AP259" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" spans="42:42">
       <c r="AP260" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="261" spans="42:42">
       <c r="AP261" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="262" spans="42:42">
       <c r="AP262" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="263" spans="42:42">
       <c r="AP263" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="264" spans="42:42">
       <c r="AP264" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="265" spans="42:42">
       <c r="AP265" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="266" spans="42:42">
       <c r="AP266" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="267" spans="42:42">
       <c r="AP267" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="268" spans="42:42">
       <c r="AP268" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="269" spans="42:42">
       <c r="AP269" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="270" spans="42:42">
       <c r="AP270" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="271" spans="42:42">
       <c r="AP271" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="272" spans="42:42">
       <c r="AP272" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="273" spans="42:42">
       <c r="AP273" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="274" spans="42:42">
       <c r="AP274" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="275" spans="42:42">
       <c r="AP275" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="276" spans="42:42">
       <c r="AP276" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="277" spans="42:42">
       <c r="AP277" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="278" spans="42:42">
       <c r="AP278" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="279" spans="42:42">
       <c r="AP279" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="280" spans="42:42">
       <c r="AP280" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="281" spans="42:42">
       <c r="AP281" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="282" spans="42:42">
       <c r="AP282" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="283" spans="42:42">
       <c r="AP283" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="284" spans="42:42">
       <c r="AP284" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="285" spans="42:42">
       <c r="AP285" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="286" spans="42:42">
       <c r="AP286" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="287" spans="42:42">
       <c r="AP287" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="288" spans="42:42">
       <c r="AP288" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="investigationtype">'cv_sample'!$AB$1:$AB$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="687">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2632,7 +2635,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2676,7 +2679,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2706,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3420,6 +3423,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3444,27 +3452,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3487,122 +3495,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3629,336 +3637,336 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -3999,1531 +4007,1531 @@
   <sheetData>
     <row r="1" spans="5:42">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="5:42">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AP2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="5:42">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="5:42">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="5:42">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="5:42">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AB6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="5:42">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="5:42">
       <c r="AB8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="5:42">
       <c r="AB9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="5:42">
       <c r="AB10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AP10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="5:42">
       <c r="AB11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="5:42">
       <c r="AB12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="5:42">
       <c r="AP13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="5:42">
       <c r="AP14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="5:42">
       <c r="AP15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="5:42">
       <c r="AP16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="42:42">
       <c r="AP17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="42:42">
       <c r="AP18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="42:42">
       <c r="AP19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="42:42">
       <c r="AP20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="42:42">
       <c r="AP21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="42:42">
       <c r="AP22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="42:42">
       <c r="AP23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="42:42">
       <c r="AP24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="42:42">
       <c r="AP25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="42:42">
       <c r="AP26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="42:42">
       <c r="AP27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="42:42">
       <c r="AP28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="42:42">
       <c r="AP29" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="42:42">
       <c r="AP30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="42:42">
       <c r="AP31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="42:42">
       <c r="AP32" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="42:42">
       <c r="AP33" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="42:42">
       <c r="AP34" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="42:42">
       <c r="AP35" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="42:42">
       <c r="AP36" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="42:42">
       <c r="AP37" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="42:42">
       <c r="AP38" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="42:42">
       <c r="AP39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="42:42">
       <c r="AP40" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="42:42">
       <c r="AP41" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="42:42">
       <c r="AP42" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="42:42">
       <c r="AP43" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="42:42">
       <c r="AP44" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="42:42">
       <c r="AP45" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="42:42">
       <c r="AP46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="42:42">
       <c r="AP47" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="42:42">
       <c r="AP48" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="42:42">
       <c r="AP49" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="42:42">
       <c r="AP50" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="42:42">
       <c r="AP51" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="42:42">
       <c r="AP52" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="42:42">
       <c r="AP53" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="42:42">
       <c r="AP54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="42:42">
       <c r="AP55" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="42:42">
       <c r="AP56" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="42:42">
       <c r="AP57" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="42:42">
       <c r="AP58" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="42:42">
       <c r="AP59" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="42:42">
       <c r="AP60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="42:42">
       <c r="AP61" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="42:42">
       <c r="AP62" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="42:42">
       <c r="AP63" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="42:42">
       <c r="AP64" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="42:42">
       <c r="AP65" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="42:42">
       <c r="AP66" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="42:42">
       <c r="AP67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="42:42">
       <c r="AP68" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="42:42">
       <c r="AP69" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="42:42">
       <c r="AP70" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="42:42">
       <c r="AP71" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="42:42">
       <c r="AP72" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="42:42">
       <c r="AP73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="42:42">
       <c r="AP74" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="42:42">
       <c r="AP75" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="42:42">
       <c r="AP76" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="42:42">
       <c r="AP77" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="42:42">
       <c r="AP78" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="42:42">
       <c r="AP79" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="42:42">
       <c r="AP80" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="42:42">
       <c r="AP81" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="42:42">
       <c r="AP82" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="42:42">
       <c r="AP83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="42:42">
       <c r="AP84" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="42:42">
       <c r="AP85" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="42:42">
       <c r="AP86" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="42:42">
       <c r="AP87" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="42:42">
       <c r="AP88" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="42:42">
       <c r="AP89" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="42:42">
       <c r="AP90" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="42:42">
       <c r="AP91" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="42:42">
       <c r="AP92" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="42:42">
       <c r="AP93" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="42:42">
       <c r="AP94" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="42:42">
       <c r="AP95" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="96" spans="42:42">
       <c r="AP96" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="42:42">
       <c r="AP97" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="42:42">
       <c r="AP98" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="99" spans="42:42">
       <c r="AP99" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="42:42">
       <c r="AP100" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="42:42">
       <c r="AP101" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="42:42">
       <c r="AP102" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="42:42">
       <c r="AP103" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="42:42">
       <c r="AP104" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="42:42">
       <c r="AP105" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="42:42">
       <c r="AP106" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="42:42">
       <c r="AP107" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="108" spans="42:42">
       <c r="AP108" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="42:42">
       <c r="AP109" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="42:42">
       <c r="AP110" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="42:42">
       <c r="AP111" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="112" spans="42:42">
       <c r="AP112" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="42:42">
       <c r="AP113" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="42:42">
       <c r="AP115" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="116" spans="42:42">
       <c r="AP116" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="42:42">
       <c r="AP117" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="42:42">
       <c r="AP118" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119" spans="42:42">
       <c r="AP119" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="42:42">
       <c r="AP120" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="121" spans="42:42">
       <c r="AP121" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="42:42">
       <c r="AP122" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="42:42">
       <c r="AP123" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="42:42">
       <c r="AP124" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="42:42">
       <c r="AP125" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="42:42">
       <c r="AP126" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="42:42">
       <c r="AP127" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" spans="42:42">
       <c r="AP128" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="42:42">
       <c r="AP129" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="42:42">
       <c r="AP130" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="42:42">
       <c r="AP131" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="42:42">
       <c r="AP132" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="42:42">
       <c r="AP133" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="42:42">
       <c r="AP134" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="135" spans="42:42">
       <c r="AP135" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="42:42">
       <c r="AP136" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="42:42">
       <c r="AP137" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="138" spans="42:42">
       <c r="AP138" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="42:42">
       <c r="AP139" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" spans="42:42">
       <c r="AP140" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="141" spans="42:42">
       <c r="AP141" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="142" spans="42:42">
       <c r="AP142" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="143" spans="42:42">
       <c r="AP143" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="144" spans="42:42">
       <c r="AP144" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="146" spans="42:42">
       <c r="AP146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="147" spans="42:42">
       <c r="AP147" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="148" spans="42:42">
       <c r="AP148" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="149" spans="42:42">
       <c r="AP149" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="150" spans="42:42">
       <c r="AP150" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="151" spans="42:42">
       <c r="AP151" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="152" spans="42:42">
       <c r="AP152" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="153" spans="42:42">
       <c r="AP153" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="154" spans="42:42">
       <c r="AP154" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="155" spans="42:42">
       <c r="AP155" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="156" spans="42:42">
       <c r="AP156" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="157" spans="42:42">
       <c r="AP157" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="42:42">
       <c r="AP158" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="159" spans="42:42">
       <c r="AP159" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="160" spans="42:42">
       <c r="AP160" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="161" spans="42:42">
       <c r="AP161" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="162" spans="42:42">
       <c r="AP162" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="163" spans="42:42">
       <c r="AP163" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="164" spans="42:42">
       <c r="AP164" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="165" spans="42:42">
       <c r="AP165" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="42:42">
       <c r="AP166" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="167" spans="42:42">
       <c r="AP167" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="168" spans="42:42">
       <c r="AP168" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="169" spans="42:42">
       <c r="AP169" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="170" spans="42:42">
       <c r="AP170" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="171" spans="42:42">
       <c r="AP171" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="172" spans="42:42">
       <c r="AP172" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="173" spans="42:42">
       <c r="AP173" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="174" spans="42:42">
       <c r="AP174" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="175" spans="42:42">
       <c r="AP175" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="176" spans="42:42">
       <c r="AP176" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="178" spans="42:42">
       <c r="AP178" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="179" spans="42:42">
       <c r="AP179" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="180" spans="42:42">
       <c r="AP180" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="42:42">
       <c r="AP181" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="182" spans="42:42">
       <c r="AP182" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="183" spans="42:42">
       <c r="AP183" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="184" spans="42:42">
       <c r="AP184" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="185" spans="42:42">
       <c r="AP185" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="186" spans="42:42">
       <c r="AP186" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="42:42">
       <c r="AP187" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="188" spans="42:42">
       <c r="AP188" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="189" spans="42:42">
       <c r="AP189" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="190" spans="42:42">
       <c r="AP190" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="191" spans="42:42">
       <c r="AP191" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="192" spans="42:42">
       <c r="AP192" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="193" spans="42:42">
       <c r="AP193" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="194" spans="42:42">
       <c r="AP194" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="195" spans="42:42">
       <c r="AP195" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="196" spans="42:42">
       <c r="AP196" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="197" spans="42:42">
       <c r="AP197" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="42:42">
       <c r="AP198" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="199" spans="42:42">
       <c r="AP199" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="200" spans="42:42">
       <c r="AP200" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="201" spans="42:42">
       <c r="AP201" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="202" spans="42:42">
       <c r="AP202" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="203" spans="42:42">
       <c r="AP203" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="204" spans="42:42">
       <c r="AP204" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="42:42">
       <c r="AP205" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="206" spans="42:42">
       <c r="AP206" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="207" spans="42:42">
       <c r="AP207" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="208" spans="42:42">
       <c r="AP208" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="209" spans="42:42">
       <c r="AP209" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="210" spans="42:42">
       <c r="AP210" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="211" spans="42:42">
       <c r="AP211" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="212" spans="42:42">
       <c r="AP212" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="42:42">
       <c r="AP213" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="214" spans="42:42">
       <c r="AP214" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="42:42">
       <c r="AP215" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="216" spans="42:42">
       <c r="AP216" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="217" spans="42:42">
       <c r="AP217" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="218" spans="42:42">
       <c r="AP218" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="219" spans="42:42">
       <c r="AP219" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="220" spans="42:42">
       <c r="AP220" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="221" spans="42:42">
       <c r="AP221" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="222" spans="42:42">
       <c r="AP222" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="223" spans="42:42">
       <c r="AP223" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="224" spans="42:42">
       <c r="AP224" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="225" spans="42:42">
       <c r="AP225" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="226" spans="42:42">
       <c r="AP226" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="227" spans="42:42">
       <c r="AP227" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="228" spans="42:42">
       <c r="AP228" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="229" spans="42:42">
       <c r="AP229" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="230" spans="42:42">
       <c r="AP230" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="231" spans="42:42">
       <c r="AP231" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="232" spans="42:42">
       <c r="AP232" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="233" spans="42:42">
       <c r="AP233" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="234" spans="42:42">
       <c r="AP234" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="235" spans="42:42">
       <c r="AP235" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="236" spans="42:42">
       <c r="AP236" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="237" spans="42:42">
       <c r="AP237" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="238" spans="42:42">
       <c r="AP238" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="239" spans="42:42">
       <c r="AP239" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="240" spans="42:42">
       <c r="AP240" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="241" spans="42:42">
       <c r="AP241" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="242" spans="42:42">
       <c r="AP242" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="243" spans="42:42">
       <c r="AP243" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="244" spans="42:42">
       <c r="AP244" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="245" spans="42:42">
       <c r="AP245" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="246" spans="42:42">
       <c r="AP246" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="247" spans="42:42">
       <c r="AP247" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="248" spans="42:42">
       <c r="AP248" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="249" spans="42:42">
       <c r="AP249" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="250" spans="42:42">
       <c r="AP250" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="251" spans="42:42">
       <c r="AP251" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="252" spans="42:42">
       <c r="AP252" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="253" spans="42:42">
       <c r="AP253" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="254" spans="42:42">
       <c r="AP254" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="255" spans="42:42">
       <c r="AP255" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="256" spans="42:42">
       <c r="AP256" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="257" spans="42:42">
       <c r="AP257" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="258" spans="42:42">
       <c r="AP258" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="259" spans="42:42">
       <c r="AP259" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="260" spans="42:42">
       <c r="AP260" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="261" spans="42:42">
       <c r="AP261" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="262" spans="42:42">
       <c r="AP262" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="263" spans="42:42">
       <c r="AP263" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="264" spans="42:42">
       <c r="AP264" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="265" spans="42:42">
       <c r="AP265" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="266" spans="42:42">
       <c r="AP266" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="267" spans="42:42">
       <c r="AP267" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="268" spans="42:42">
       <c r="AP268" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="269" spans="42:42">
       <c r="AP269" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="270" spans="42:42">
       <c r="AP270" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="271" spans="42:42">
       <c r="AP271" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="272" spans="42:42">
       <c r="AP272" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="273" spans="42:42">
       <c r="AP273" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="274" spans="42:42">
       <c r="AP274" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="275" spans="42:42">
       <c r="AP275" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="276" spans="42:42">
       <c r="AP276" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="277" spans="42:42">
       <c r="AP277" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="278" spans="42:42">
       <c r="AP278" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="279" spans="42:42">
       <c r="AP279" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="280" spans="42:42">
       <c r="AP280" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="281" spans="42:42">
       <c r="AP281" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="282" spans="42:42">
       <c r="AP282" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="283" spans="42:42">
       <c r="AP283" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="284" spans="42:42">
       <c r="AP284" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="285" spans="42:42">
       <c r="AP285" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="286" spans="42:42">
       <c r="AP286" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="287" spans="42:42">
       <c r="AP287" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="288" spans="42:42">
       <c r="AP288" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="investigationtype">'cv_sample'!$AB$1:$AB$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="688">
   <si>
     <t>alias</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2635,7 +2638,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2679,7 +2682,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2709,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3428,6 +3431,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3452,27 +3460,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3495,122 +3503,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3637,336 +3645,336 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -4007,1531 +4015,1531 @@
   <sheetData>
     <row r="1" spans="5:42">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AP1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="5:42">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="5:42">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="5:42">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="5:42">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AB5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="5:42">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="5:42">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="5:42">
       <c r="AB8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="5:42">
       <c r="AB9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AP9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="5:42">
       <c r="AB10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="5:42">
       <c r="AB11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="5:42">
       <c r="AB12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="5:42">
       <c r="AP13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="5:42">
       <c r="AP14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="5:42">
       <c r="AP15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="5:42">
       <c r="AP16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="42:42">
       <c r="AP17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="42:42">
       <c r="AP18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="42:42">
       <c r="AP19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="42:42">
       <c r="AP20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="42:42">
       <c r="AP21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="42:42">
       <c r="AP22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="42:42">
       <c r="AP23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="42:42">
       <c r="AP24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="42:42">
       <c r="AP25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="42:42">
       <c r="AP26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="42:42">
       <c r="AP27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="42:42">
       <c r="AP28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="42:42">
       <c r="AP29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="42:42">
       <c r="AP30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="42:42">
       <c r="AP31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="42:42">
       <c r="AP32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="42:42">
       <c r="AP33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="42:42">
       <c r="AP34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="42:42">
       <c r="AP35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="42:42">
       <c r="AP36" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="42:42">
       <c r="AP37" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="42:42">
       <c r="AP38" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="42:42">
       <c r="AP39" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="42:42">
       <c r="AP40" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="42:42">
       <c r="AP41" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="42:42">
       <c r="AP42" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="42:42">
       <c r="AP43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="42:42">
       <c r="AP44" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="42:42">
       <c r="AP45" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="42:42">
       <c r="AP46" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="42:42">
       <c r="AP47" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="42:42">
       <c r="AP48" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="42:42">
       <c r="AP49" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="42:42">
       <c r="AP50" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="42:42">
       <c r="AP51" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="42:42">
       <c r="AP52" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="42:42">
       <c r="AP53" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="42:42">
       <c r="AP54" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="42:42">
       <c r="AP55" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="42:42">
       <c r="AP56" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="42:42">
       <c r="AP57" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="42:42">
       <c r="AP58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="42:42">
       <c r="AP59" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="42:42">
       <c r="AP60" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="42:42">
       <c r="AP61" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="42:42">
       <c r="AP62" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="42:42">
       <c r="AP63" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="42:42">
       <c r="AP64" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="42:42">
       <c r="AP65" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="42:42">
       <c r="AP66" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="42:42">
       <c r="AP67" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="42:42">
       <c r="AP68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="42:42">
       <c r="AP69" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="42:42">
       <c r="AP70" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="42:42">
       <c r="AP71" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="42:42">
       <c r="AP72" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="42:42">
       <c r="AP73" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="42:42">
       <c r="AP74" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="42:42">
       <c r="AP75" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="42:42">
       <c r="AP76" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="42:42">
       <c r="AP77" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="42:42">
       <c r="AP78" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="42:42">
       <c r="AP79" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="42:42">
       <c r="AP80" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="42:42">
       <c r="AP81" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="42:42">
       <c r="AP82" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="42:42">
       <c r="AP83" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="42:42">
       <c r="AP84" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="42:42">
       <c r="AP85" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="42:42">
       <c r="AP86" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87" spans="42:42">
       <c r="AP87" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88" spans="42:42">
       <c r="AP88" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="42:42">
       <c r="AP89" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="42:42">
       <c r="AP90" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="91" spans="42:42">
       <c r="AP91" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="42:42">
       <c r="AP92" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="42:42">
       <c r="AP93" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="42:42">
       <c r="AP94" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="95" spans="42:42">
       <c r="AP95" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="42:42">
       <c r="AP96" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="42:42">
       <c r="AP97" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="42:42">
       <c r="AP98" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="42:42">
       <c r="AP99" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="42:42">
       <c r="AP100" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="42:42">
       <c r="AP101" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="102" spans="42:42">
       <c r="AP102" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="103" spans="42:42">
       <c r="AP103" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="42:42">
       <c r="AP104" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="42:42">
       <c r="AP105" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" spans="42:42">
       <c r="AP106" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="42:42">
       <c r="AP107" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="42:42">
       <c r="AP108" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="42:42">
       <c r="AP109" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="42:42">
       <c r="AP110" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="42:42">
       <c r="AP111" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="42:42">
       <c r="AP112" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="42:42">
       <c r="AP113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="115" spans="42:42">
       <c r="AP115" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="42:42">
       <c r="AP116" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="42:42">
       <c r="AP117" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="118" spans="42:42">
       <c r="AP118" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="119" spans="42:42">
       <c r="AP119" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="120" spans="42:42">
       <c r="AP120" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="121" spans="42:42">
       <c r="AP121" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="122" spans="42:42">
       <c r="AP122" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" spans="42:42">
       <c r="AP123" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" spans="42:42">
       <c r="AP124" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="125" spans="42:42">
       <c r="AP125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="42:42">
       <c r="AP126" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="42:42">
       <c r="AP127" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="42:42">
       <c r="AP128" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="42:42">
       <c r="AP129" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="42:42">
       <c r="AP130" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="131" spans="42:42">
       <c r="AP131" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="132" spans="42:42">
       <c r="AP132" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="42:42">
       <c r="AP133" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="42:42">
       <c r="AP134" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="42:42">
       <c r="AP135" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="42:42">
       <c r="AP136" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="42:42">
       <c r="AP137" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="42:42">
       <c r="AP138" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" spans="42:42">
       <c r="AP139" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="140" spans="42:42">
       <c r="AP140" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="141" spans="42:42">
       <c r="AP141" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="142" spans="42:42">
       <c r="AP142" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="143" spans="42:42">
       <c r="AP143" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="144" spans="42:42">
       <c r="AP144" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="146" spans="42:42">
       <c r="AP146" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="147" spans="42:42">
       <c r="AP147" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="148" spans="42:42">
       <c r="AP148" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="149" spans="42:42">
       <c r="AP149" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="150" spans="42:42">
       <c r="AP150" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151" spans="42:42">
       <c r="AP151" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="152" spans="42:42">
       <c r="AP152" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="153" spans="42:42">
       <c r="AP153" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" spans="42:42">
       <c r="AP154" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155" spans="42:42">
       <c r="AP155" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="156" spans="42:42">
       <c r="AP156" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="42:42">
       <c r="AP157" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="42:42">
       <c r="AP158" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="42:42">
       <c r="AP159" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="160" spans="42:42">
       <c r="AP160" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" spans="42:42">
       <c r="AP161" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="162" spans="42:42">
       <c r="AP162" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="163" spans="42:42">
       <c r="AP163" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="164" spans="42:42">
       <c r="AP164" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="165" spans="42:42">
       <c r="AP165" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="166" spans="42:42">
       <c r="AP166" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="167" spans="42:42">
       <c r="AP167" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="168" spans="42:42">
       <c r="AP168" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="169" spans="42:42">
       <c r="AP169" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="170" spans="42:42">
       <c r="AP170" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="171" spans="42:42">
       <c r="AP171" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="172" spans="42:42">
       <c r="AP172" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="173" spans="42:42">
       <c r="AP173" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="174" spans="42:42">
       <c r="AP174" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="42:42">
       <c r="AP175" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="176" spans="42:42">
       <c r="AP176" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="178" spans="42:42">
       <c r="AP178" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="179" spans="42:42">
       <c r="AP179" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="180" spans="42:42">
       <c r="AP180" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="181" spans="42:42">
       <c r="AP181" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="182" spans="42:42">
       <c r="AP182" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="42:42">
       <c r="AP183" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="184" spans="42:42">
       <c r="AP184" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="185" spans="42:42">
       <c r="AP185" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="42:42">
       <c r="AP186" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="187" spans="42:42">
       <c r="AP187" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="188" spans="42:42">
       <c r="AP188" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="189" spans="42:42">
       <c r="AP189" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="190" spans="42:42">
       <c r="AP190" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="42:42">
       <c r="AP191" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="192" spans="42:42">
       <c r="AP192" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="193" spans="42:42">
       <c r="AP193" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="42:42">
       <c r="AP194" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="195" spans="42:42">
       <c r="AP195" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="196" spans="42:42">
       <c r="AP196" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="197" spans="42:42">
       <c r="AP197" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="198" spans="42:42">
       <c r="AP198" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="199" spans="42:42">
       <c r="AP199" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="200" spans="42:42">
       <c r="AP200" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="42:42">
       <c r="AP201" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="202" spans="42:42">
       <c r="AP202" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="203" spans="42:42">
       <c r="AP203" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="42:42">
       <c r="AP204" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="205" spans="42:42">
       <c r="AP205" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="206" spans="42:42">
       <c r="AP206" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="207" spans="42:42">
       <c r="AP207" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="208" spans="42:42">
       <c r="AP208" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="209" spans="42:42">
       <c r="AP209" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="210" spans="42:42">
       <c r="AP210" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="211" spans="42:42">
       <c r="AP211" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="42:42">
       <c r="AP212" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="213" spans="42:42">
       <c r="AP213" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="42:42">
       <c r="AP214" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="215" spans="42:42">
       <c r="AP215" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="216" spans="42:42">
       <c r="AP216" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="217" spans="42:42">
       <c r="AP217" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="218" spans="42:42">
       <c r="AP218" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="219" spans="42:42">
       <c r="AP219" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="220" spans="42:42">
       <c r="AP220" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="221" spans="42:42">
       <c r="AP221" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="222" spans="42:42">
       <c r="AP222" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="223" spans="42:42">
       <c r="AP223" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="42:42">
       <c r="AP224" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="225" spans="42:42">
       <c r="AP225" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="226" spans="42:42">
       <c r="AP226" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="227" spans="42:42">
       <c r="AP227" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="228" spans="42:42">
       <c r="AP228" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="229" spans="42:42">
       <c r="AP229" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="230" spans="42:42">
       <c r="AP230" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="231" spans="42:42">
       <c r="AP231" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="232" spans="42:42">
       <c r="AP232" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="233" spans="42:42">
       <c r="AP233" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="234" spans="42:42">
       <c r="AP234" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="235" spans="42:42">
       <c r="AP235" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="236" spans="42:42">
       <c r="AP236" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="237" spans="42:42">
       <c r="AP237" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="238" spans="42:42">
       <c r="AP238" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="239" spans="42:42">
       <c r="AP239" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="240" spans="42:42">
       <c r="AP240" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="241" spans="42:42">
       <c r="AP241" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="242" spans="42:42">
       <c r="AP242" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="243" spans="42:42">
       <c r="AP243" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="244" spans="42:42">
       <c r="AP244" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="245" spans="42:42">
       <c r="AP245" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="246" spans="42:42">
       <c r="AP246" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="247" spans="42:42">
       <c r="AP247" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="248" spans="42:42">
       <c r="AP248" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="249" spans="42:42">
       <c r="AP249" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="250" spans="42:42">
       <c r="AP250" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="251" spans="42:42">
       <c r="AP251" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="252" spans="42:42">
       <c r="AP252" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="253" spans="42:42">
       <c r="AP253" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="254" spans="42:42">
       <c r="AP254" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="255" spans="42:42">
       <c r="AP255" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="256" spans="42:42">
       <c r="AP256" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="257" spans="42:42">
       <c r="AP257" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="258" spans="42:42">
       <c r="AP258" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="259" spans="42:42">
       <c r="AP259" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="260" spans="42:42">
       <c r="AP260" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="261" spans="42:42">
       <c r="AP261" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="262" spans="42:42">
       <c r="AP262" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="263" spans="42:42">
       <c r="AP263" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="264" spans="42:42">
       <c r="AP264" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="265" spans="42:42">
       <c r="AP265" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="266" spans="42:42">
       <c r="AP266" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="267" spans="42:42">
       <c r="AP267" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="268" spans="42:42">
       <c r="AP268" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="269" spans="42:42">
       <c r="AP269" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="270" spans="42:42">
       <c r="AP270" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="271" spans="42:42">
       <c r="AP271" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="272" spans="42:42">
       <c r="AP272" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="273" spans="42:42">
       <c r="AP273" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="274" spans="42:42">
       <c r="AP274" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="275" spans="42:42">
       <c r="AP275" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="276" spans="42:42">
       <c r="AP276" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="277" spans="42:42">
       <c r="AP277" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="278" spans="42:42">
       <c r="AP278" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="279" spans="42:42">
       <c r="AP279" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="280" spans="42:42">
       <c r="AP280" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="281" spans="42:42">
       <c r="AP281" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="282" spans="42:42">
       <c r="AP282" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="283" spans="42:42">
       <c r="AP283" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="284" spans="42:42">
       <c r="AP284" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="285" spans="42:42">
       <c r="AP285" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="286" spans="42:42">
       <c r="AP286" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="287" spans="42:42">
       <c r="AP287" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="288" spans="42:42">
       <c r="AP288" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -21,7 +21,7 @@
     <definedName name="contaminationscreeninginput">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="investigationtype">'cv_sample'!$AB$1:$AB$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="689">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2638,7 +2641,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2682,7 +2685,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2712,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3436,6 +3439,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3460,27 +3468,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3503,122 +3511,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3645,336 +3653,336 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -4015,1531 +4023,1531 @@
   <sheetData>
     <row r="1" spans="5:42">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="5:42">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="U2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="5:42">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AB3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="5:42">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AB4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="5:42">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="5:42">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="5:42">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="5:42">
       <c r="AB8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AP8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="5:42">
       <c r="AB9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="5:42">
       <c r="AB10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="5:42">
       <c r="AB11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="5:42">
       <c r="AB12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="5:42">
       <c r="AP13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="5:42">
       <c r="AP14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="5:42">
       <c r="AP15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="5:42">
       <c r="AP16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="42:42">
       <c r="AP17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="42:42">
       <c r="AP18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="42:42">
       <c r="AP19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="42:42">
       <c r="AP20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="42:42">
       <c r="AP21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="42:42">
       <c r="AP22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="42:42">
       <c r="AP23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="42:42">
       <c r="AP24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="42:42">
       <c r="AP25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="42:42">
       <c r="AP26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="42:42">
       <c r="AP27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="42:42">
       <c r="AP28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="42:42">
       <c r="AP29" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="42:42">
       <c r="AP30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="42:42">
       <c r="AP31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="42:42">
       <c r="AP32" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="42:42">
       <c r="AP33" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="42:42">
       <c r="AP34" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="42:42">
       <c r="AP35" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="42:42">
       <c r="AP36" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="42:42">
       <c r="AP37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="42:42">
       <c r="AP38" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="42:42">
       <c r="AP39" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="42:42">
       <c r="AP40" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="42:42">
       <c r="AP41" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="42:42">
       <c r="AP42" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="42:42">
       <c r="AP43" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="42:42">
       <c r="AP44" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="42:42">
       <c r="AP45" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="42:42">
       <c r="AP46" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="42:42">
       <c r="AP47" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="42:42">
       <c r="AP48" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="42:42">
       <c r="AP49" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="42:42">
       <c r="AP50" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="42:42">
       <c r="AP51" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="42:42">
       <c r="AP52" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="42:42">
       <c r="AP53" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="42:42">
       <c r="AP54" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="42:42">
       <c r="AP55" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="42:42">
       <c r="AP56" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="42:42">
       <c r="AP57" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="42:42">
       <c r="AP58" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="42:42">
       <c r="AP59" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="42:42">
       <c r="AP60" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="42:42">
       <c r="AP61" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="42:42">
       <c r="AP62" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="42:42">
       <c r="AP63" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="42:42">
       <c r="AP64" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="42:42">
       <c r="AP65" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="42:42">
       <c r="AP66" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="42:42">
       <c r="AP67" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="42:42">
       <c r="AP68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="42:42">
       <c r="AP69" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="42:42">
       <c r="AP70" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="42:42">
       <c r="AP71" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="42:42">
       <c r="AP72" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="42:42">
       <c r="AP73" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="42:42">
       <c r="AP74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="42:42">
       <c r="AP75" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="42:42">
       <c r="AP76" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="42:42">
       <c r="AP77" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="42:42">
       <c r="AP78" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="42:42">
       <c r="AP79" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="42:42">
       <c r="AP80" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="42:42">
       <c r="AP81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="42:42">
       <c r="AP82" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="42:42">
       <c r="AP83" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="42:42">
       <c r="AP84" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="42:42">
       <c r="AP85" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="42:42">
       <c r="AP86" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="42:42">
       <c r="AP87" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="42:42">
       <c r="AP88" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="42:42">
       <c r="AP89" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="42:42">
       <c r="AP90" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="42:42">
       <c r="AP91" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="42:42">
       <c r="AP92" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="42:42">
       <c r="AP93" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="42:42">
       <c r="AP94" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="42:42">
       <c r="AP95" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="42:42">
       <c r="AP96" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="42:42">
       <c r="AP97" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="42:42">
       <c r="AP98" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="42:42">
       <c r="AP99" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="42:42">
       <c r="AP100" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="42:42">
       <c r="AP101" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="42:42">
       <c r="AP102" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="42:42">
       <c r="AP103" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="104" spans="42:42">
       <c r="AP104" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="42:42">
       <c r="AP105" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="42:42">
       <c r="AP106" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="42:42">
       <c r="AP107" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="42:42">
       <c r="AP108" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="42:42">
       <c r="AP109" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="42:42">
       <c r="AP110" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="42:42">
       <c r="AP111" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="42:42">
       <c r="AP112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="42:42">
       <c r="AP113" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="42:42">
       <c r="AP115" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="42:42">
       <c r="AP116" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="42:42">
       <c r="AP117" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="42:42">
       <c r="AP118" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="42:42">
       <c r="AP119" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="42:42">
       <c r="AP120" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="42:42">
       <c r="AP121" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="42:42">
       <c r="AP122" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="42:42">
       <c r="AP123" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="42:42">
       <c r="AP124" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="42:42">
       <c r="AP125" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="42:42">
       <c r="AP126" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="42:42">
       <c r="AP127" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="42:42">
       <c r="AP128" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="42:42">
       <c r="AP129" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="42:42">
       <c r="AP130" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="42:42">
       <c r="AP131" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="42:42">
       <c r="AP132" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="133" spans="42:42">
       <c r="AP133" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="42:42">
       <c r="AP134" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="42:42">
       <c r="AP135" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="42:42">
       <c r="AP136" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="42:42">
       <c r="AP137" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="42:42">
       <c r="AP138" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="42:42">
       <c r="AP139" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="140" spans="42:42">
       <c r="AP140" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" spans="42:42">
       <c r="AP141" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="142" spans="42:42">
       <c r="AP142" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="143" spans="42:42">
       <c r="AP143" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="144" spans="42:42">
       <c r="AP144" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="42:42">
       <c r="AP146" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="147" spans="42:42">
       <c r="AP147" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="148" spans="42:42">
       <c r="AP148" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="149" spans="42:42">
       <c r="AP149" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="150" spans="42:42">
       <c r="AP150" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="151" spans="42:42">
       <c r="AP151" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152" spans="42:42">
       <c r="AP152" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="153" spans="42:42">
       <c r="AP153" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="42:42">
       <c r="AP154" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" spans="42:42">
       <c r="AP155" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="42:42">
       <c r="AP156" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" spans="42:42">
       <c r="AP157" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="42:42">
       <c r="AP158" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="159" spans="42:42">
       <c r="AP159" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" spans="42:42">
       <c r="AP160" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="161" spans="42:42">
       <c r="AP161" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="162" spans="42:42">
       <c r="AP162" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="163" spans="42:42">
       <c r="AP163" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="164" spans="42:42">
       <c r="AP164" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="42:42">
       <c r="AP165" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="166" spans="42:42">
       <c r="AP166" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="167" spans="42:42">
       <c r="AP167" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168" spans="42:42">
       <c r="AP168" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="169" spans="42:42">
       <c r="AP169" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="170" spans="42:42">
       <c r="AP170" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="171" spans="42:42">
       <c r="AP171" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172" spans="42:42">
       <c r="AP172" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="173" spans="42:42">
       <c r="AP173" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="174" spans="42:42">
       <c r="AP174" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="175" spans="42:42">
       <c r="AP175" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="42:42">
       <c r="AP176" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="178" spans="42:42">
       <c r="AP178" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="42:42">
       <c r="AP179" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="42:42">
       <c r="AP180" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="181" spans="42:42">
       <c r="AP181" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="182" spans="42:42">
       <c r="AP182" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="183" spans="42:42">
       <c r="AP183" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="184" spans="42:42">
       <c r="AP184" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="42:42">
       <c r="AP185" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186" spans="42:42">
       <c r="AP186" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="187" spans="42:42">
       <c r="AP187" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="188" spans="42:42">
       <c r="AP188" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="189" spans="42:42">
       <c r="AP189" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="190" spans="42:42">
       <c r="AP190" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="191" spans="42:42">
       <c r="AP191" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="192" spans="42:42">
       <c r="AP192" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="42:42">
       <c r="AP193" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="194" spans="42:42">
       <c r="AP194" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="195" spans="42:42">
       <c r="AP195" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="196" spans="42:42">
       <c r="AP196" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="197" spans="42:42">
       <c r="AP197" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="198" spans="42:42">
       <c r="AP198" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="42:42">
       <c r="AP199" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="42:42">
       <c r="AP200" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="201" spans="42:42">
       <c r="AP201" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="42:42">
       <c r="AP202" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="42:42">
       <c r="AP203" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="204" spans="42:42">
       <c r="AP204" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="205" spans="42:42">
       <c r="AP205" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="206" spans="42:42">
       <c r="AP206" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="207" spans="42:42">
       <c r="AP207" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="208" spans="42:42">
       <c r="AP208" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="209" spans="42:42">
       <c r="AP209" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="210" spans="42:42">
       <c r="AP210" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211" spans="42:42">
       <c r="AP211" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="212" spans="42:42">
       <c r="AP212" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="42:42">
       <c r="AP213" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="214" spans="42:42">
       <c r="AP214" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="215" spans="42:42">
       <c r="AP215" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="216" spans="42:42">
       <c r="AP216" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="217" spans="42:42">
       <c r="AP217" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="218" spans="42:42">
       <c r="AP218" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="219" spans="42:42">
       <c r="AP219" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="220" spans="42:42">
       <c r="AP220" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="221" spans="42:42">
       <c r="AP221" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="42:42">
       <c r="AP222" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="223" spans="42:42">
       <c r="AP223" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="224" spans="42:42">
       <c r="AP224" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="225" spans="42:42">
       <c r="AP225" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="226" spans="42:42">
       <c r="AP226" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="227" spans="42:42">
       <c r="AP227" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="228" spans="42:42">
       <c r="AP228" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="229" spans="42:42">
       <c r="AP229" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="230" spans="42:42">
       <c r="AP230" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="231" spans="42:42">
       <c r="AP231" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" spans="42:42">
       <c r="AP232" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="233" spans="42:42">
       <c r="AP233" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="234" spans="42:42">
       <c r="AP234" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="235" spans="42:42">
       <c r="AP235" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="236" spans="42:42">
       <c r="AP236" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="237" spans="42:42">
       <c r="AP237" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="238" spans="42:42">
       <c r="AP238" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="239" spans="42:42">
       <c r="AP239" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="240" spans="42:42">
       <c r="AP240" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="241" spans="42:42">
       <c r="AP241" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="242" spans="42:42">
       <c r="AP242" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="243" spans="42:42">
       <c r="AP243" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="244" spans="42:42">
       <c r="AP244" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="245" spans="42:42">
       <c r="AP245" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="246" spans="42:42">
       <c r="AP246" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="247" spans="42:42">
       <c r="AP247" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="248" spans="42:42">
       <c r="AP248" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="249" spans="42:42">
       <c r="AP249" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="250" spans="42:42">
       <c r="AP250" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="251" spans="42:42">
       <c r="AP251" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="252" spans="42:42">
       <c r="AP252" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="42:42">
       <c r="AP253" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="254" spans="42:42">
       <c r="AP254" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="255" spans="42:42">
       <c r="AP255" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="256" spans="42:42">
       <c r="AP256" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="257" spans="42:42">
       <c r="AP257" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="258" spans="42:42">
       <c r="AP258" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="259" spans="42:42">
       <c r="AP259" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="260" spans="42:42">
       <c r="AP260" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="261" spans="42:42">
       <c r="AP261" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="262" spans="42:42">
       <c r="AP262" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="263" spans="42:42">
       <c r="AP263" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="264" spans="42:42">
       <c r="AP264" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="265" spans="42:42">
       <c r="AP265" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="266" spans="42:42">
       <c r="AP266" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="267" spans="42:42">
       <c r="AP267" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="268" spans="42:42">
       <c r="AP268" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="269" spans="42:42">
       <c r="AP269" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="270" spans="42:42">
       <c r="AP270" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="271" spans="42:42">
       <c r="AP271" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="272" spans="42:42">
       <c r="AP272" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="273" spans="42:42">
       <c r="AP273" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="274" spans="42:42">
       <c r="AP274" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="275" spans="42:42">
       <c r="AP275" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="276" spans="42:42">
       <c r="AP276" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="277" spans="42:42">
       <c r="AP277" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="278" spans="42:42">
       <c r="AP278" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="279" spans="42:42">
       <c r="AP279" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="280" spans="42:42">
       <c r="AP280" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="281" spans="42:42">
       <c r="AP281" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="282" spans="42:42">
       <c r="AP282" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="283" spans="42:42">
       <c r="AP283" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="284" spans="42:42">
       <c r="AP284" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="285" spans="42:42">
       <c r="AP285" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="286" spans="42:42">
       <c r="AP286" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="287" spans="42:42">
       <c r="AP287" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="288" spans="42:42">
       <c r="AP288" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="investigationtype">'cv_sample'!$AB$1:$AB$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="694">
   <si>
     <t>alias</t>
   </si>
@@ -869,55 +869,55 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>metagenomic source</t>
+    <t>metagenomic_source</t>
   </si>
   <si>
     <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
   </si>
   <si>
-    <t>sample derived from</t>
+    <t>sample_derived_from</t>
   </si>
   <si>
     <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>number of standard tRNAs extracted</t>
+    <t>number_of_standard_trnas_extracted</t>
   </si>
   <si>
     <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
@@ -929,43 +929,43 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>16s recovered</t>
+    <t>_16s_recovered</t>
   </si>
   <si>
     <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
   </si>
   <si>
-    <t>16S recovery software</t>
+    <t>_16s_recovery_software</t>
   </si>
   <si>
     <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>tRNA extraction software</t>
+    <t>trna_extraction_software</t>
   </si>
   <si>
     <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>completeness score</t>
+    <t>completeness_score</t>
   </si>
   <si>
     <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
-    <t>completeness software</t>
+    <t>completeness_software</t>
   </si>
   <si>
     <t>(Recommended) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
   </si>
   <si>
-    <t>completeness approach</t>
+    <t>completeness_approach</t>
   </si>
   <si>
     <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
   </si>
   <si>
-    <t>contamination score</t>
+    <t>contamination_score</t>
   </si>
   <si>
     <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
@@ -977,37 +977,37 @@
     <t>reads</t>
   </si>
   <si>
-    <t>contamination screening input</t>
+    <t>contamination_screening_input</t>
   </si>
   <si>
     <t>(Optional) The type of sequence data used as input</t>
   </si>
   <si>
-    <t>contamination screening parameters</t>
+    <t>contamination_screening_parameters</t>
   </si>
   <si>
     <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
   </si>
   <si>
-    <t>decontamination software</t>
+    <t>decontamination_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used in contamination screening</t>
   </si>
   <si>
-    <t>binning software</t>
+    <t>binning_software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
   </si>
   <si>
-    <t>reassembly post binning</t>
+    <t>reassembly_post_binning</t>
   </si>
   <si>
     <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
   </si>
   <si>
-    <t>MAG coverage software</t>
+    <t>mag_coverage_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
@@ -1022,7 +1022,7 @@
     <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
   </si>
   <si>
-    <t>assembly quality</t>
+    <t>assembly_quality</t>
   </si>
   <si>
     <t>(Recommended) The assembly quality category is based on sets of criteria outlined for each assembly quality category. for misag/mimag; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities with a consensus error rate equivalent to q50 or better. high quality draft:multiple fragments where gaps span repetitive regions. presence of the 23s, 16s and 5s rrna genes and at least 18 trnas. medium quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. low quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. for miuvig; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units. high-quality draft genome: one or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete. genome fragment(s): one or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated.</t>
@@ -1064,19 +1064,19 @@
     <t>virus</t>
   </si>
   <si>
-    <t>investigation type</t>
+    <t>investigation_type</t>
   </si>
   <si>
     <t>(Optional) Nucleic acid sequence report is the root element of all mixs compliant reports as standardised by genomic standards consortium</t>
   </si>
   <si>
-    <t>binning parameters</t>
+    <t>binning_parameters</t>
   </si>
   <si>
     <t>(Mandatory) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
   </si>
   <si>
-    <t>taxonomic identity marker</t>
+    <t>taxonomic_identity_marker</t>
   </si>
   <si>
     <t>(Recommended) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
@@ -1088,7 +1088,7 @@
     <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1100,31 +1100,31 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1136,13 +1136,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>size_fraction_selected</t>
   </si>
   <si>
     <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
@@ -1361,9 +1361,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1382,6 +1379,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1583,6 +1583,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1592,9 +1595,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1634,7 +1634,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1703,6 +1703,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1778,6 +1781,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1799,6 +1805,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1844,6 +1853,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1856,6 +1868,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1865,9 +1880,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1892,6 +1904,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1952,12 +1967,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2015,79 +2030,79 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>nucleic acid extraction</t>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>assembly software</t>
+    <t>assembly_software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
@@ -2102,7 +2117,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3770,49 +3785,49 @@
         <v>368</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="150" customHeight="1">
@@ -3940,49 +3955,49 @@
         <v>369</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -4015,7 +4030,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AP289"/>
+  <dimension ref="E1:AP294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5550,6 +5565,31 @@
         <v>658</v>
       </c>
     </row>
+    <row r="290" spans="42:42">
+      <c r="AP290" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="291" spans="42:42">
+      <c r="AP291" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="292" spans="42:42">
+      <c r="AP292" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="293" spans="42:42">
+      <c r="AP293" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="294" spans="42:42">
+      <c r="AP294" t="s">
+        <v>663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="investigationtype">'cv_sample'!$AB$1:$AB$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="689">
   <si>
     <t>alias</t>
   </si>
@@ -869,55 +869,55 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>metagenomic_source</t>
+    <t>metagenomic source</t>
   </si>
   <si>
     <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
   </si>
   <si>
-    <t>sample_derived_from</t>
+    <t>sample derived from</t>
   </si>
   <si>
     <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>number_of_standard_trnas_extracted</t>
+    <t>number of standard tRNAs extracted</t>
   </si>
   <si>
     <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
@@ -929,43 +929,43 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>_16s_recovered</t>
+    <t>16s recovered</t>
   </si>
   <si>
     <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
   </si>
   <si>
-    <t>_16s_recovery_software</t>
+    <t>16S recovery software</t>
   </si>
   <si>
     <t>(Optional) Tools used for 16s rrna gene extraction. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>trna_extraction_software</t>
+    <t>tRNA extraction software</t>
   </si>
   <si>
     <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>completeness_score</t>
+    <t>completeness score</t>
   </si>
   <si>
     <t>(Recommended) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
-    <t>completeness_software</t>
+    <t>completeness software</t>
   </si>
   <si>
     <t>(Recommended) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
   </si>
   <si>
-    <t>completeness_approach</t>
+    <t>completeness approach</t>
   </si>
   <si>
     <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
   </si>
   <si>
-    <t>contamination_score</t>
+    <t>contamination score</t>
   </si>
   <si>
     <t>(Recommended) The contamination score is based on the fraction of single-copy genes that are observed more than once in a query genome. contamination score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. if contamination ≥ 10% then please submit as a binned assembly. in sags, contamination score is mandatory for prokaryotes and optional for eukaryotes. (Units: %)</t>
@@ -977,37 +977,37 @@
     <t>reads</t>
   </si>
   <si>
-    <t>contamination_screening_input</t>
+    <t>contamination screening input</t>
   </si>
   <si>
     <t>(Optional) The type of sequence data used as input</t>
   </si>
   <si>
-    <t>contamination_screening_parameters</t>
+    <t>contamination screening parameters</t>
   </si>
   <si>
     <t>(Optional) Specific parameters used in the decontamination sofware, such as reference database, coverage, and kmers. combinations of these parameters may also be used, i.e. kmer and coverage, or reference database and kmer</t>
   </si>
   <si>
-    <t>decontamination_software</t>
+    <t>decontamination software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used in contamination screening</t>
   </si>
   <si>
-    <t>binning_software</t>
+    <t>binning software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
   </si>
   <si>
-    <t>reassembly_post_binning</t>
+    <t>reassembly post binning</t>
   </si>
   <si>
     <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
   </si>
   <si>
-    <t>mag_coverage_software</t>
+    <t>MAG coverage software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
@@ -1022,7 +1022,7 @@
     <t>Single contiguous sequence without gaps or ambiguities with a consensus error rate equivalent to Q50 or better</t>
   </si>
   <si>
-    <t>assembly_quality</t>
+    <t>assembly quality</t>
   </si>
   <si>
     <t>(Recommended) The assembly quality category is based on sets of criteria outlined for each assembly quality category. for misag/mimag; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities with a consensus error rate equivalent to q50 or better. high quality draft:multiple fragments where gaps span repetitive regions. presence of the 23s, 16s and 5s rrna genes and at least 18 trnas. medium quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. low quality draft:many fragments with little to no review of assembly other than reporting of standard assembly statistics. assembly statistics include, but are not limited to total assembly size, number of contigs, contig n50/l50, and maximum contig length. for miuvig; finished: single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units. high-quality draft genome: one or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete. genome fragment(s): one or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated.</t>
@@ -1064,19 +1064,19 @@
     <t>virus</t>
   </si>
   <si>
-    <t>investigation_type</t>
+    <t>investigation type</t>
   </si>
   <si>
     <t>(Optional) Nucleic acid sequence report is the root element of all mixs compliant reports as standardised by genomic standards consortium</t>
   </si>
   <si>
-    <t>binning_parameters</t>
+    <t>binning parameters</t>
   </si>
   <si>
     <t>(Mandatory) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
   </si>
   <si>
-    <t>taxonomic_identity_marker</t>
+    <t>taxonomic identity marker</t>
   </si>
   <si>
     <t>(Recommended) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
@@ -1088,7 +1088,7 @@
     <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1100,31 +1100,31 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1136,13 +1136,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>size_fraction_selected</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
   </si>
   <si>
     <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
@@ -1361,6 +1361,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1379,9 +1382,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1583,9 +1583,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1595,6 +1592,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1634,7 +1634,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1703,9 +1703,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1781,9 +1778,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1805,9 +1799,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1853,9 +1844,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1868,9 +1856,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1880,6 +1865,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1904,9 +1892,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1967,12 +1952,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2030,79 +2015,79 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>nucleic_acid_extraction</t>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>assembly_software</t>
+    <t>assembly software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
@@ -2117,7 +2102,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3785,49 +3770,49 @@
         <v>368</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="150" customHeight="1">
@@ -3955,49 +3940,49 @@
         <v>369</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -4030,7 +4015,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AP294"/>
+  <dimension ref="E1:AP289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5565,31 +5550,6 @@
         <v>658</v>
       </c>
     </row>
-    <row r="290" spans="42:42">
-      <c r="AP290" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="291" spans="42:42">
-      <c r="AP291" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="292" spans="42:42">
-      <c r="AP292" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="293" spans="42:42">
-      <c r="AP293" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="294" spans="42:42">
-      <c r="AP294" t="s">
-        <v>663</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -17,18 +17,18 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="assemblyquality">'cv_sample'!$AA$1:$AA$3</definedName>
-    <definedName name="contaminationscreeninginput">'cv_sample'!$U$1:$U$2</definedName>
+    <definedName name="assemblyquality">'cv_sample'!$AC$1:$AC$3</definedName>
+    <definedName name="contaminationscreeninginput">'cv_sample'!$W$1:$W$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
-    <definedName name="investigationtype">'cv_sample'!$AB$1:$AB$12</definedName>
+    <definedName name="investigationtype">'cv_sample'!$AD$1:$AD$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="reassemblypostbinning">'cv_sample'!$Y$1:$Y$2</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$E$1:$E$7</definedName>
+    <definedName name="reassemblypostbinning">'cv_sample'!$AA$1:$AA$2</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$G$1:$G$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="693">
   <si>
     <t>alias</t>
   </si>
@@ -840,6 +840,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3636,7 +3648,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BF2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3645,7 +3657,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:58">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3659,10 +3671,10 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>281</v>
@@ -3686,10 +3698,10 @@
         <v>293</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>301</v>
@@ -3707,10 +3719,10 @@
         <v>309</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>317</v>
@@ -3725,13 +3737,13 @@
         <v>323</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>346</v>
@@ -3770,10 +3782,10 @@
         <v>368</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>659</v>
+        <v>370</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>661</v>
+        <v>372</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>663</v>
@@ -3814,8 +3826,14 @@
       <c r="BD1" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="2" spans="1:56" ht="150" customHeight="1">
+      <c r="BE1" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3829,10 +3847,10 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>282</v>
@@ -3856,10 +3874,10 @@
         <v>294</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>302</v>
@@ -3877,10 +3895,10 @@
         <v>310</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>318</v>
@@ -3895,13 +3913,13 @@
         <v>324</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>347</v>
@@ -3940,10 +3958,10 @@
         <v>369</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>660</v>
+        <v>371</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>662</v>
+        <v>373</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>664</v>
@@ -3984,28 +4002,34 @@
       <c r="BD2" s="2" t="s">
         <v>688</v>
       </c>
+      <c r="BE2" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>692</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
       <formula1>16srecovered</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
       <formula1>contaminationscreeninginput</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
       <formula1>reassemblypostbinning</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>assemblyquality</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
       <formula1>investigationtype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -4015,1539 +4039,1539 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AP289"/>
+  <dimension ref="G1:AR289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:42">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>295</v>
+    <row r="1" spans="7:44">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" t="s">
+        <v>299</v>
+      </c>
+      <c r="W1" t="s">
+        <v>315</v>
       </c>
       <c r="AA1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="7:44">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P2" t="s">
+        <v>300</v>
+      </c>
+      <c r="W2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC2" t="s">
         <v>330</v>
       </c>
-      <c r="AP1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="5:42">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="N2" t="s">
-        <v>296</v>
-      </c>
-      <c r="U2" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="7:44">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC3" t="s">
         <v>331</v>
       </c>
-      <c r="AP2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="5:42">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="5:42">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>333</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="5:42">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="5:42">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>335</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="5:42">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AD3" t="s">
         <v>336</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AR3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="5:42">
-      <c r="AB8" t="s">
+    <row r="4" spans="7:44">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD4" t="s">
         <v>337</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AR4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="5:42">
-      <c r="AB9" t="s">
+    <row r="5" spans="7:44">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD5" t="s">
         <v>338</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AR5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="5:42">
-      <c r="AB10" t="s">
+    <row r="6" spans="7:44">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD6" t="s">
         <v>339</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AR6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="5:42">
-      <c r="AB11" t="s">
+    <row r="7" spans="7:44">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD7" t="s">
         <v>340</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AR7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="5:42">
-      <c r="AB12" t="s">
+    <row r="8" spans="7:44">
+      <c r="AD8" t="s">
         <v>341</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AR8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="5:42">
-      <c r="AP13" t="s">
+    <row r="9" spans="7:44">
+      <c r="AD9" t="s">
+        <v>342</v>
+      </c>
+      <c r="AR9" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="5:42">
-      <c r="AP14" t="s">
+    <row r="10" spans="7:44">
+      <c r="AD10" t="s">
+        <v>343</v>
+      </c>
+      <c r="AR10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="5:42">
-      <c r="AP15" t="s">
+    <row r="11" spans="7:44">
+      <c r="AD11" t="s">
+        <v>344</v>
+      </c>
+      <c r="AR11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="5:42">
-      <c r="AP16" t="s">
+    <row r="12" spans="7:44">
+      <c r="AD12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AR12" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="42:42">
-      <c r="AP17" t="s">
+    <row r="13" spans="7:44">
+      <c r="AR13" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="18" spans="42:42">
-      <c r="AP18" t="s">
+    <row r="14" spans="7:44">
+      <c r="AR14" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="42:42">
-      <c r="AP19" t="s">
+    <row r="15" spans="7:44">
+      <c r="AR15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="42:42">
-      <c r="AP20" t="s">
+    <row r="16" spans="7:44">
+      <c r="AR16" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="42:42">
-      <c r="AP21" t="s">
+    <row r="17" spans="44:44">
+      <c r="AR17" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="42:42">
-      <c r="AP22" t="s">
+    <row r="18" spans="44:44">
+      <c r="AR18" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="42:42">
-      <c r="AP23" t="s">
+    <row r="19" spans="44:44">
+      <c r="AR19" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="24" spans="42:42">
-      <c r="AP24" t="s">
+    <row r="20" spans="44:44">
+      <c r="AR20" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="42:42">
-      <c r="AP25" t="s">
+    <row r="21" spans="44:44">
+      <c r="AR21" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="26" spans="42:42">
-      <c r="AP26" t="s">
+    <row r="22" spans="44:44">
+      <c r="AR22" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="42:42">
-      <c r="AP27" t="s">
+    <row r="23" spans="44:44">
+      <c r="AR23" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="42:42">
-      <c r="AP28" t="s">
+    <row r="24" spans="44:44">
+      <c r="AR24" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="29" spans="42:42">
-      <c r="AP29" t="s">
+    <row r="25" spans="44:44">
+      <c r="AR25" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="42:42">
-      <c r="AP30" t="s">
+    <row r="26" spans="44:44">
+      <c r="AR26" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="31" spans="42:42">
-      <c r="AP31" t="s">
+    <row r="27" spans="44:44">
+      <c r="AR27" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="42:42">
-      <c r="AP32" t="s">
+    <row r="28" spans="44:44">
+      <c r="AR28" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="42:42">
-      <c r="AP33" t="s">
+    <row r="29" spans="44:44">
+      <c r="AR29" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="34" spans="42:42">
-      <c r="AP34" t="s">
+    <row r="30" spans="44:44">
+      <c r="AR30" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="35" spans="42:42">
-      <c r="AP35" t="s">
+    <row r="31" spans="44:44">
+      <c r="AR31" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="36" spans="42:42">
-      <c r="AP36" t="s">
+    <row r="32" spans="44:44">
+      <c r="AR32" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="42:42">
-      <c r="AP37" t="s">
+    <row r="33" spans="44:44">
+      <c r="AR33" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="42:42">
-      <c r="AP38" t="s">
+    <row r="34" spans="44:44">
+      <c r="AR34" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="42:42">
-      <c r="AP39" t="s">
+    <row r="35" spans="44:44">
+      <c r="AR35" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="42:42">
-      <c r="AP40" t="s">
+    <row r="36" spans="44:44">
+      <c r="AR36" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="41" spans="42:42">
-      <c r="AP41" t="s">
+    <row r="37" spans="44:44">
+      <c r="AR37" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="42:42">
-      <c r="AP42" t="s">
+    <row r="38" spans="44:44">
+      <c r="AR38" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="42:42">
-      <c r="AP43" t="s">
+    <row r="39" spans="44:44">
+      <c r="AR39" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="42:42">
-      <c r="AP44" t="s">
+    <row r="40" spans="44:44">
+      <c r="AR40" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="42:42">
-      <c r="AP45" t="s">
+    <row r="41" spans="44:44">
+      <c r="AR41" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="42:42">
-      <c r="AP46" t="s">
+    <row r="42" spans="44:44">
+      <c r="AR42" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="47" spans="42:42">
-      <c r="AP47" t="s">
+    <row r="43" spans="44:44">
+      <c r="AR43" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="42:42">
-      <c r="AP48" t="s">
+    <row r="44" spans="44:44">
+      <c r="AR44" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="42:42">
-      <c r="AP49" t="s">
+    <row r="45" spans="44:44">
+      <c r="AR45" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="42:42">
-      <c r="AP50" t="s">
+    <row r="46" spans="44:44">
+      <c r="AR46" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="42:42">
-      <c r="AP51" t="s">
+    <row r="47" spans="44:44">
+      <c r="AR47" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="42:42">
-      <c r="AP52" t="s">
+    <row r="48" spans="44:44">
+      <c r="AR48" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="42:42">
-      <c r="AP53" t="s">
+    <row r="49" spans="44:44">
+      <c r="AR49" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="42:42">
-      <c r="AP54" t="s">
+    <row r="50" spans="44:44">
+      <c r="AR50" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="42:42">
-      <c r="AP55" t="s">
+    <row r="51" spans="44:44">
+      <c r="AR51" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="56" spans="42:42">
-      <c r="AP56" t="s">
+    <row r="52" spans="44:44">
+      <c r="AR52" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="57" spans="42:42">
-      <c r="AP57" t="s">
+    <row r="53" spans="44:44">
+      <c r="AR53" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="58" spans="42:42">
-      <c r="AP58" t="s">
+    <row r="54" spans="44:44">
+      <c r="AR54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="42:42">
-      <c r="AP59" t="s">
+    <row r="55" spans="44:44">
+      <c r="AR55" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="42:42">
-      <c r="AP60" t="s">
+    <row r="56" spans="44:44">
+      <c r="AR56" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="61" spans="42:42">
-      <c r="AP61" t="s">
+    <row r="57" spans="44:44">
+      <c r="AR57" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="42:42">
-      <c r="AP62" t="s">
+    <row r="58" spans="44:44">
+      <c r="AR58" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="63" spans="42:42">
-      <c r="AP63" t="s">
+    <row r="59" spans="44:44">
+      <c r="AR59" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="42:42">
-      <c r="AP64" t="s">
+    <row r="60" spans="44:44">
+      <c r="AR60" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="42:42">
-      <c r="AP65" t="s">
+    <row r="61" spans="44:44">
+      <c r="AR61" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="42:42">
-      <c r="AP66" t="s">
+    <row r="62" spans="44:44">
+      <c r="AR62" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="42:42">
-      <c r="AP67" t="s">
+    <row r="63" spans="44:44">
+      <c r="AR63" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="68" spans="42:42">
-      <c r="AP68" t="s">
+    <row r="64" spans="44:44">
+      <c r="AR64" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="42:42">
-      <c r="AP69" t="s">
+    <row r="65" spans="44:44">
+      <c r="AR65" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="70" spans="42:42">
-      <c r="AP70" t="s">
+    <row r="66" spans="44:44">
+      <c r="AR66" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="71" spans="42:42">
-      <c r="AP71" t="s">
+    <row r="67" spans="44:44">
+      <c r="AR67" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="72" spans="42:42">
-      <c r="AP72" t="s">
+    <row r="68" spans="44:44">
+      <c r="AR68" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="73" spans="42:42">
-      <c r="AP73" t="s">
+    <row r="69" spans="44:44">
+      <c r="AR69" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="74" spans="42:42">
-      <c r="AP74" t="s">
+    <row r="70" spans="44:44">
+      <c r="AR70" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="75" spans="42:42">
-      <c r="AP75" t="s">
+    <row r="71" spans="44:44">
+      <c r="AR71" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="42:42">
-      <c r="AP76" t="s">
+    <row r="72" spans="44:44">
+      <c r="AR72" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="42:42">
-      <c r="AP77" t="s">
+    <row r="73" spans="44:44">
+      <c r="AR73" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="42:42">
-      <c r="AP78" t="s">
+    <row r="74" spans="44:44">
+      <c r="AR74" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="79" spans="42:42">
-      <c r="AP79" t="s">
+    <row r="75" spans="44:44">
+      <c r="AR75" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="80" spans="42:42">
-      <c r="AP80" t="s">
+    <row r="76" spans="44:44">
+      <c r="AR76" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="42:42">
-      <c r="AP81" t="s">
+    <row r="77" spans="44:44">
+      <c r="AR77" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="42:42">
-      <c r="AP82" t="s">
+    <row r="78" spans="44:44">
+      <c r="AR78" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="83" spans="42:42">
-      <c r="AP83" t="s">
+    <row r="79" spans="44:44">
+      <c r="AR79" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="84" spans="42:42">
-      <c r="AP84" t="s">
+    <row r="80" spans="44:44">
+      <c r="AR80" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="85" spans="42:42">
-      <c r="AP85" t="s">
+    <row r="81" spans="44:44">
+      <c r="AR81" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="86" spans="42:42">
-      <c r="AP86" t="s">
+    <row r="82" spans="44:44">
+      <c r="AR82" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="87" spans="42:42">
-      <c r="AP87" t="s">
+    <row r="83" spans="44:44">
+      <c r="AR83" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="88" spans="42:42">
-      <c r="AP88" t="s">
+    <row r="84" spans="44:44">
+      <c r="AR84" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="89" spans="42:42">
-      <c r="AP89" t="s">
+    <row r="85" spans="44:44">
+      <c r="AR85" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="90" spans="42:42">
-      <c r="AP90" t="s">
+    <row r="86" spans="44:44">
+      <c r="AR86" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="42:42">
-      <c r="AP91" t="s">
+    <row r="87" spans="44:44">
+      <c r="AR87" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="42:42">
-      <c r="AP92" t="s">
+    <row r="88" spans="44:44">
+      <c r="AR88" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="93" spans="42:42">
-      <c r="AP93" t="s">
+    <row r="89" spans="44:44">
+      <c r="AR89" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="94" spans="42:42">
-      <c r="AP94" t="s">
+    <row r="90" spans="44:44">
+      <c r="AR90" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="95" spans="42:42">
-      <c r="AP95" t="s">
+    <row r="91" spans="44:44">
+      <c r="AR91" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="96" spans="42:42">
-      <c r="AP96" t="s">
+    <row r="92" spans="44:44">
+      <c r="AR92" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="97" spans="42:42">
-      <c r="AP97" t="s">
+    <row r="93" spans="44:44">
+      <c r="AR93" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="98" spans="42:42">
-      <c r="AP98" t="s">
+    <row r="94" spans="44:44">
+      <c r="AR94" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="99" spans="42:42">
-      <c r="AP99" t="s">
+    <row r="95" spans="44:44">
+      <c r="AR95" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="100" spans="42:42">
-      <c r="AP100" t="s">
+    <row r="96" spans="44:44">
+      <c r="AR96" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="101" spans="42:42">
-      <c r="AP101" t="s">
+    <row r="97" spans="44:44">
+      <c r="AR97" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="42:42">
-      <c r="AP102" t="s">
+    <row r="98" spans="44:44">
+      <c r="AR98" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="103" spans="42:42">
-      <c r="AP103" t="s">
+    <row r="99" spans="44:44">
+      <c r="AR99" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="104" spans="42:42">
-      <c r="AP104" t="s">
+    <row r="100" spans="44:44">
+      <c r="AR100" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="105" spans="42:42">
-      <c r="AP105" t="s">
+    <row r="101" spans="44:44">
+      <c r="AR101" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="106" spans="42:42">
-      <c r="AP106" t="s">
+    <row r="102" spans="44:44">
+      <c r="AR102" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="107" spans="42:42">
-      <c r="AP107" t="s">
+    <row r="103" spans="44:44">
+      <c r="AR103" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="42:42">
-      <c r="AP108" t="s">
+    <row r="104" spans="44:44">
+      <c r="AR104" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="109" spans="42:42">
-      <c r="AP109" t="s">
+    <row r="105" spans="44:44">
+      <c r="AR105" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="110" spans="42:42">
-      <c r="AP110" t="s">
+    <row r="106" spans="44:44">
+      <c r="AR106" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="111" spans="42:42">
-      <c r="AP111" t="s">
+    <row r="107" spans="44:44">
+      <c r="AR107" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="112" spans="42:42">
-      <c r="AP112" t="s">
+    <row r="108" spans="44:44">
+      <c r="AR108" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="113" spans="42:42">
-      <c r="AP113" t="s">
+    <row r="109" spans="44:44">
+      <c r="AR109" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="114" spans="42:42">
-      <c r="AP114" t="s">
+    <row r="110" spans="44:44">
+      <c r="AR110" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="42:42">
-      <c r="AP115" t="s">
+    <row r="111" spans="44:44">
+      <c r="AR111" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="116" spans="42:42">
-      <c r="AP116" t="s">
+    <row r="112" spans="44:44">
+      <c r="AR112" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="117" spans="42:42">
-      <c r="AP117" t="s">
+    <row r="113" spans="44:44">
+      <c r="AR113" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="118" spans="42:42">
-      <c r="AP118" t="s">
+    <row r="114" spans="44:44">
+      <c r="AR114" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="119" spans="42:42">
-      <c r="AP119" t="s">
+    <row r="115" spans="44:44">
+      <c r="AR115" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="120" spans="42:42">
-      <c r="AP120" t="s">
+    <row r="116" spans="44:44">
+      <c r="AR116" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="121" spans="42:42">
-      <c r="AP121" t="s">
+    <row r="117" spans="44:44">
+      <c r="AR117" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="122" spans="42:42">
-      <c r="AP122" t="s">
+    <row r="118" spans="44:44">
+      <c r="AR118" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="123" spans="42:42">
-      <c r="AP123" t="s">
+    <row r="119" spans="44:44">
+      <c r="AR119" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="124" spans="42:42">
-      <c r="AP124" t="s">
+    <row r="120" spans="44:44">
+      <c r="AR120" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="125" spans="42:42">
-      <c r="AP125" t="s">
+    <row r="121" spans="44:44">
+      <c r="AR121" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="126" spans="42:42">
-      <c r="AP126" t="s">
+    <row r="122" spans="44:44">
+      <c r="AR122" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="127" spans="42:42">
-      <c r="AP127" t="s">
+    <row r="123" spans="44:44">
+      <c r="AR123" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="128" spans="42:42">
-      <c r="AP128" t="s">
+    <row r="124" spans="44:44">
+      <c r="AR124" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="129" spans="42:42">
-      <c r="AP129" t="s">
+    <row r="125" spans="44:44">
+      <c r="AR125" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="130" spans="42:42">
-      <c r="AP130" t="s">
+    <row r="126" spans="44:44">
+      <c r="AR126" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="131" spans="42:42">
-      <c r="AP131" t="s">
+    <row r="127" spans="44:44">
+      <c r="AR127" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="42:42">
-      <c r="AP132" t="s">
+    <row r="128" spans="44:44">
+      <c r="AR128" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="133" spans="42:42">
-      <c r="AP133" t="s">
+    <row r="129" spans="44:44">
+      <c r="AR129" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="134" spans="42:42">
-      <c r="AP134" t="s">
+    <row r="130" spans="44:44">
+      <c r="AR130" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="135" spans="42:42">
-      <c r="AP135" t="s">
+    <row r="131" spans="44:44">
+      <c r="AR131" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="42:42">
-      <c r="AP136" t="s">
+    <row r="132" spans="44:44">
+      <c r="AR132" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="137" spans="42:42">
-      <c r="AP137" t="s">
+    <row r="133" spans="44:44">
+      <c r="AR133" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="138" spans="42:42">
-      <c r="AP138" t="s">
+    <row r="134" spans="44:44">
+      <c r="AR134" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="139" spans="42:42">
-      <c r="AP139" t="s">
+    <row r="135" spans="44:44">
+      <c r="AR135" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="42:42">
-      <c r="AP140" t="s">
+    <row r="136" spans="44:44">
+      <c r="AR136" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="141" spans="42:42">
-      <c r="AP141" t="s">
+    <row r="137" spans="44:44">
+      <c r="AR137" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="142" spans="42:42">
-      <c r="AP142" t="s">
+    <row r="138" spans="44:44">
+      <c r="AR138" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="143" spans="42:42">
-      <c r="AP143" t="s">
+    <row r="139" spans="44:44">
+      <c r="AR139" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="144" spans="42:42">
-      <c r="AP144" t="s">
+    <row r="140" spans="44:44">
+      <c r="AR140" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="145" spans="42:42">
-      <c r="AP145" t="s">
+    <row r="141" spans="44:44">
+      <c r="AR141" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="146" spans="42:42">
-      <c r="AP146" t="s">
+    <row r="142" spans="44:44">
+      <c r="AR142" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="147" spans="42:42">
-      <c r="AP147" t="s">
+    <row r="143" spans="44:44">
+      <c r="AR143" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="148" spans="42:42">
-      <c r="AP148" t="s">
+    <row r="144" spans="44:44">
+      <c r="AR144" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="42:42">
-      <c r="AP149" t="s">
+    <row r="145" spans="44:44">
+      <c r="AR145" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="150" spans="42:42">
-      <c r="AP150" t="s">
+    <row r="146" spans="44:44">
+      <c r="AR146" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="151" spans="42:42">
-      <c r="AP151" t="s">
+    <row r="147" spans="44:44">
+      <c r="AR147" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="152" spans="42:42">
-      <c r="AP152" t="s">
+    <row r="148" spans="44:44">
+      <c r="AR148" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="153" spans="42:42">
-      <c r="AP153" t="s">
+    <row r="149" spans="44:44">
+      <c r="AR149" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="154" spans="42:42">
-      <c r="AP154" t="s">
+    <row r="150" spans="44:44">
+      <c r="AR150" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="155" spans="42:42">
-      <c r="AP155" t="s">
+    <row r="151" spans="44:44">
+      <c r="AR151" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="156" spans="42:42">
-      <c r="AP156" t="s">
+    <row r="152" spans="44:44">
+      <c r="AR152" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="157" spans="42:42">
-      <c r="AP157" t="s">
+    <row r="153" spans="44:44">
+      <c r="AR153" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="158" spans="42:42">
-      <c r="AP158" t="s">
+    <row r="154" spans="44:44">
+      <c r="AR154" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="159" spans="42:42">
-      <c r="AP159" t="s">
+    <row r="155" spans="44:44">
+      <c r="AR155" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="160" spans="42:42">
-      <c r="AP160" t="s">
+    <row r="156" spans="44:44">
+      <c r="AR156" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="161" spans="42:42">
-      <c r="AP161" t="s">
+    <row r="157" spans="44:44">
+      <c r="AR157" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="162" spans="42:42">
-      <c r="AP162" t="s">
+    <row r="158" spans="44:44">
+      <c r="AR158" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="163" spans="42:42">
-      <c r="AP163" t="s">
+    <row r="159" spans="44:44">
+      <c r="AR159" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="42:42">
-      <c r="AP164" t="s">
+    <row r="160" spans="44:44">
+      <c r="AR160" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="165" spans="42:42">
-      <c r="AP165" t="s">
+    <row r="161" spans="44:44">
+      <c r="AR161" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="166" spans="42:42">
-      <c r="AP166" t="s">
+    <row r="162" spans="44:44">
+      <c r="AR162" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="167" spans="42:42">
-      <c r="AP167" t="s">
+    <row r="163" spans="44:44">
+      <c r="AR163" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="168" spans="42:42">
-      <c r="AP168" t="s">
+    <row r="164" spans="44:44">
+      <c r="AR164" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="169" spans="42:42">
-      <c r="AP169" t="s">
+    <row r="165" spans="44:44">
+      <c r="AR165" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="170" spans="42:42">
-      <c r="AP170" t="s">
+    <row r="166" spans="44:44">
+      <c r="AR166" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="171" spans="42:42">
-      <c r="AP171" t="s">
+    <row r="167" spans="44:44">
+      <c r="AR167" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="172" spans="42:42">
-      <c r="AP172" t="s">
+    <row r="168" spans="44:44">
+      <c r="AR168" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="173" spans="42:42">
-      <c r="AP173" t="s">
+    <row r="169" spans="44:44">
+      <c r="AR169" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="174" spans="42:42">
-      <c r="AP174" t="s">
+    <row r="170" spans="44:44">
+      <c r="AR170" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="175" spans="42:42">
-      <c r="AP175" t="s">
+    <row r="171" spans="44:44">
+      <c r="AR171" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="176" spans="42:42">
-      <c r="AP176" t="s">
+    <row r="172" spans="44:44">
+      <c r="AR172" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="177" spans="42:42">
-      <c r="AP177" t="s">
+    <row r="173" spans="44:44">
+      <c r="AR173" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="178" spans="42:42">
-      <c r="AP178" t="s">
+    <row r="174" spans="44:44">
+      <c r="AR174" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="179" spans="42:42">
-      <c r="AP179" t="s">
+    <row r="175" spans="44:44">
+      <c r="AR175" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="180" spans="42:42">
-      <c r="AP180" t="s">
+    <row r="176" spans="44:44">
+      <c r="AR176" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="181" spans="42:42">
-      <c r="AP181" t="s">
+    <row r="177" spans="44:44">
+      <c r="AR177" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="182" spans="42:42">
-      <c r="AP182" t="s">
+    <row r="178" spans="44:44">
+      <c r="AR178" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="183" spans="42:42">
-      <c r="AP183" t="s">
+    <row r="179" spans="44:44">
+      <c r="AR179" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="184" spans="42:42">
-      <c r="AP184" t="s">
+    <row r="180" spans="44:44">
+      <c r="AR180" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="185" spans="42:42">
-      <c r="AP185" t="s">
+    <row r="181" spans="44:44">
+      <c r="AR181" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="186" spans="42:42">
-      <c r="AP186" t="s">
+    <row r="182" spans="44:44">
+      <c r="AR182" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="187" spans="42:42">
-      <c r="AP187" t="s">
+    <row r="183" spans="44:44">
+      <c r="AR183" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="188" spans="42:42">
-      <c r="AP188" t="s">
+    <row r="184" spans="44:44">
+      <c r="AR184" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="189" spans="42:42">
-      <c r="AP189" t="s">
+    <row r="185" spans="44:44">
+      <c r="AR185" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="190" spans="42:42">
-      <c r="AP190" t="s">
+    <row r="186" spans="44:44">
+      <c r="AR186" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="191" spans="42:42">
-      <c r="AP191" t="s">
+    <row r="187" spans="44:44">
+      <c r="AR187" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="192" spans="42:42">
-      <c r="AP192" t="s">
+    <row r="188" spans="44:44">
+      <c r="AR188" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="193" spans="42:42">
-      <c r="AP193" t="s">
+    <row r="189" spans="44:44">
+      <c r="AR189" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="194" spans="42:42">
-      <c r="AP194" t="s">
+    <row r="190" spans="44:44">
+      <c r="AR190" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="195" spans="42:42">
-      <c r="AP195" t="s">
+    <row r="191" spans="44:44">
+      <c r="AR191" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="196" spans="42:42">
-      <c r="AP196" t="s">
+    <row r="192" spans="44:44">
+      <c r="AR192" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="197" spans="42:42">
-      <c r="AP197" t="s">
+    <row r="193" spans="44:44">
+      <c r="AR193" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="198" spans="42:42">
-      <c r="AP198" t="s">
+    <row r="194" spans="44:44">
+      <c r="AR194" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="199" spans="42:42">
-      <c r="AP199" t="s">
+    <row r="195" spans="44:44">
+      <c r="AR195" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="200" spans="42:42">
-      <c r="AP200" t="s">
+    <row r="196" spans="44:44">
+      <c r="AR196" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="201" spans="42:42">
-      <c r="AP201" t="s">
+    <row r="197" spans="44:44">
+      <c r="AR197" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="202" spans="42:42">
-      <c r="AP202" t="s">
+    <row r="198" spans="44:44">
+      <c r="AR198" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="203" spans="42:42">
-      <c r="AP203" t="s">
+    <row r="199" spans="44:44">
+      <c r="AR199" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="204" spans="42:42">
-      <c r="AP204" t="s">
+    <row r="200" spans="44:44">
+      <c r="AR200" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="205" spans="42:42">
-      <c r="AP205" t="s">
+    <row r="201" spans="44:44">
+      <c r="AR201" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="206" spans="42:42">
-      <c r="AP206" t="s">
+    <row r="202" spans="44:44">
+      <c r="AR202" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="207" spans="42:42">
-      <c r="AP207" t="s">
+    <row r="203" spans="44:44">
+      <c r="AR203" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="208" spans="42:42">
-      <c r="AP208" t="s">
+    <row r="204" spans="44:44">
+      <c r="AR204" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="209" spans="42:42">
-      <c r="AP209" t="s">
+    <row r="205" spans="44:44">
+      <c r="AR205" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="210" spans="42:42">
-      <c r="AP210" t="s">
+    <row r="206" spans="44:44">
+      <c r="AR206" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="211" spans="42:42">
-      <c r="AP211" t="s">
+    <row r="207" spans="44:44">
+      <c r="AR207" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="212" spans="42:42">
-      <c r="AP212" t="s">
+    <row r="208" spans="44:44">
+      <c r="AR208" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="213" spans="42:42">
-      <c r="AP213" t="s">
+    <row r="209" spans="44:44">
+      <c r="AR209" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="214" spans="42:42">
-      <c r="AP214" t="s">
+    <row r="210" spans="44:44">
+      <c r="AR210" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="215" spans="42:42">
-      <c r="AP215" t="s">
+    <row r="211" spans="44:44">
+      <c r="AR211" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="216" spans="42:42">
-      <c r="AP216" t="s">
+    <row r="212" spans="44:44">
+      <c r="AR212" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="217" spans="42:42">
-      <c r="AP217" t="s">
+    <row r="213" spans="44:44">
+      <c r="AR213" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="218" spans="42:42">
-      <c r="AP218" t="s">
+    <row r="214" spans="44:44">
+      <c r="AR214" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="219" spans="42:42">
-      <c r="AP219" t="s">
+    <row r="215" spans="44:44">
+      <c r="AR215" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="220" spans="42:42">
-      <c r="AP220" t="s">
+    <row r="216" spans="44:44">
+      <c r="AR216" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="221" spans="42:42">
-      <c r="AP221" t="s">
+    <row r="217" spans="44:44">
+      <c r="AR217" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="222" spans="42:42">
-      <c r="AP222" t="s">
+    <row r="218" spans="44:44">
+      <c r="AR218" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="223" spans="42:42">
-      <c r="AP223" t="s">
+    <row r="219" spans="44:44">
+      <c r="AR219" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="224" spans="42:42">
-      <c r="AP224" t="s">
+    <row r="220" spans="44:44">
+      <c r="AR220" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="225" spans="42:42">
-      <c r="AP225" t="s">
+    <row r="221" spans="44:44">
+      <c r="AR221" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="226" spans="42:42">
-      <c r="AP226" t="s">
+    <row r="222" spans="44:44">
+      <c r="AR222" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="227" spans="42:42">
-      <c r="AP227" t="s">
+    <row r="223" spans="44:44">
+      <c r="AR223" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="228" spans="42:42">
-      <c r="AP228" t="s">
+    <row r="224" spans="44:44">
+      <c r="AR224" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="229" spans="42:42">
-      <c r="AP229" t="s">
+    <row r="225" spans="44:44">
+      <c r="AR225" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="230" spans="42:42">
-      <c r="AP230" t="s">
+    <row r="226" spans="44:44">
+      <c r="AR226" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="231" spans="42:42">
-      <c r="AP231" t="s">
+    <row r="227" spans="44:44">
+      <c r="AR227" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="232" spans="42:42">
-      <c r="AP232" t="s">
+    <row r="228" spans="44:44">
+      <c r="AR228" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="233" spans="42:42">
-      <c r="AP233" t="s">
+    <row r="229" spans="44:44">
+      <c r="AR229" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="234" spans="42:42">
-      <c r="AP234" t="s">
+    <row r="230" spans="44:44">
+      <c r="AR230" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="235" spans="42:42">
-      <c r="AP235" t="s">
+    <row r="231" spans="44:44">
+      <c r="AR231" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="236" spans="42:42">
-      <c r="AP236" t="s">
+    <row r="232" spans="44:44">
+      <c r="AR232" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="42:42">
-      <c r="AP237" t="s">
+    <row r="233" spans="44:44">
+      <c r="AR233" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="238" spans="42:42">
-      <c r="AP238" t="s">
+    <row r="234" spans="44:44">
+      <c r="AR234" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="239" spans="42:42">
-      <c r="AP239" t="s">
+    <row r="235" spans="44:44">
+      <c r="AR235" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="240" spans="42:42">
-      <c r="AP240" t="s">
+    <row r="236" spans="44:44">
+      <c r="AR236" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="241" spans="42:42">
-      <c r="AP241" t="s">
+    <row r="237" spans="44:44">
+      <c r="AR237" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="42:42">
-      <c r="AP242" t="s">
+    <row r="238" spans="44:44">
+      <c r="AR238" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="243" spans="42:42">
-      <c r="AP243" t="s">
+    <row r="239" spans="44:44">
+      <c r="AR239" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="244" spans="42:42">
-      <c r="AP244" t="s">
+    <row r="240" spans="44:44">
+      <c r="AR240" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="245" spans="42:42">
-      <c r="AP245" t="s">
+    <row r="241" spans="44:44">
+      <c r="AR241" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="246" spans="42:42">
-      <c r="AP246" t="s">
+    <row r="242" spans="44:44">
+      <c r="AR242" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="247" spans="42:42">
-      <c r="AP247" t="s">
+    <row r="243" spans="44:44">
+      <c r="AR243" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="248" spans="42:42">
-      <c r="AP248" t="s">
+    <row r="244" spans="44:44">
+      <c r="AR244" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="249" spans="42:42">
-      <c r="AP249" t="s">
+    <row r="245" spans="44:44">
+      <c r="AR245" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="250" spans="42:42">
-      <c r="AP250" t="s">
+    <row r="246" spans="44:44">
+      <c r="AR246" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="251" spans="42:42">
-      <c r="AP251" t="s">
+    <row r="247" spans="44:44">
+      <c r="AR247" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="252" spans="42:42">
-      <c r="AP252" t="s">
+    <row r="248" spans="44:44">
+      <c r="AR248" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="253" spans="42:42">
-      <c r="AP253" t="s">
+    <row r="249" spans="44:44">
+      <c r="AR249" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="254" spans="42:42">
-      <c r="AP254" t="s">
+    <row r="250" spans="44:44">
+      <c r="AR250" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="255" spans="42:42">
-      <c r="AP255" t="s">
+    <row r="251" spans="44:44">
+      <c r="AR251" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="256" spans="42:42">
-      <c r="AP256" t="s">
+    <row r="252" spans="44:44">
+      <c r="AR252" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="257" spans="42:42">
-      <c r="AP257" t="s">
+    <row r="253" spans="44:44">
+      <c r="AR253" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="258" spans="42:42">
-      <c r="AP258" t="s">
+    <row r="254" spans="44:44">
+      <c r="AR254" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="259" spans="42:42">
-      <c r="AP259" t="s">
+    <row r="255" spans="44:44">
+      <c r="AR255" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="260" spans="42:42">
-      <c r="AP260" t="s">
+    <row r="256" spans="44:44">
+      <c r="AR256" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="261" spans="42:42">
-      <c r="AP261" t="s">
+    <row r="257" spans="44:44">
+      <c r="AR257" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="42:42">
-      <c r="AP262" t="s">
+    <row r="258" spans="44:44">
+      <c r="AR258" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="263" spans="42:42">
-      <c r="AP263" t="s">
+    <row r="259" spans="44:44">
+      <c r="AR259" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="264" spans="42:42">
-      <c r="AP264" t="s">
+    <row r="260" spans="44:44">
+      <c r="AR260" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="265" spans="42:42">
-      <c r="AP265" t="s">
+    <row r="261" spans="44:44">
+      <c r="AR261" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="266" spans="42:42">
-      <c r="AP266" t="s">
+    <row r="262" spans="44:44">
+      <c r="AR262" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="267" spans="42:42">
-      <c r="AP267" t="s">
+    <row r="263" spans="44:44">
+      <c r="AR263" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="268" spans="42:42">
-      <c r="AP268" t="s">
+    <row r="264" spans="44:44">
+      <c r="AR264" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="269" spans="42:42">
-      <c r="AP269" t="s">
+    <row r="265" spans="44:44">
+      <c r="AR265" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="270" spans="42:42">
-      <c r="AP270" t="s">
+    <row r="266" spans="44:44">
+      <c r="AR266" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="271" spans="42:42">
-      <c r="AP271" t="s">
+    <row r="267" spans="44:44">
+      <c r="AR267" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="272" spans="42:42">
-      <c r="AP272" t="s">
+    <row r="268" spans="44:44">
+      <c r="AR268" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="273" spans="42:42">
-      <c r="AP273" t="s">
+    <row r="269" spans="44:44">
+      <c r="AR269" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="274" spans="42:42">
-      <c r="AP274" t="s">
+    <row r="270" spans="44:44">
+      <c r="AR270" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="275" spans="42:42">
-      <c r="AP275" t="s">
+    <row r="271" spans="44:44">
+      <c r="AR271" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="276" spans="42:42">
-      <c r="AP276" t="s">
+    <row r="272" spans="44:44">
+      <c r="AR272" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="277" spans="42:42">
-      <c r="AP277" t="s">
+    <row r="273" spans="44:44">
+      <c r="AR273" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="278" spans="42:42">
-      <c r="AP278" t="s">
+    <row r="274" spans="44:44">
+      <c r="AR274" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="279" spans="42:42">
-      <c r="AP279" t="s">
+    <row r="275" spans="44:44">
+      <c r="AR275" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="280" spans="42:42">
-      <c r="AP280" t="s">
+    <row r="276" spans="44:44">
+      <c r="AR276" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="281" spans="42:42">
-      <c r="AP281" t="s">
+    <row r="277" spans="44:44">
+      <c r="AR277" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="282" spans="42:42">
-      <c r="AP282" t="s">
+    <row r="278" spans="44:44">
+      <c r="AR278" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="283" spans="42:42">
-      <c r="AP283" t="s">
+    <row r="279" spans="44:44">
+      <c r="AR279" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="284" spans="42:42">
-      <c r="AP284" t="s">
+    <row r="280" spans="44:44">
+      <c r="AR280" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="285" spans="42:42">
-      <c r="AP285" t="s">
+    <row r="281" spans="44:44">
+      <c r="AR281" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="286" spans="42:42">
-      <c r="AP286" t="s">
+    <row r="282" spans="44:44">
+      <c r="AR282" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="287" spans="42:42">
-      <c r="AP287" t="s">
+    <row r="283" spans="44:44">
+      <c r="AR283" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="288" spans="42:42">
-      <c r="AP288" t="s">
+    <row r="284" spans="44:44">
+      <c r="AR284" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="289" spans="42:42">
-      <c r="AP289" t="s">
+    <row r="285" spans="44:44">
+      <c r="AR285" t="s">
         <v>658</v>
+      </c>
+    </row>
+    <row r="286" spans="44:44">
+      <c r="AR286" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="287" spans="44:44">
+      <c r="AR287" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="288" spans="44:44">
+      <c r="AR288" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="289" spans="44:44">
+      <c r="AR289" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AC$1:$AC$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$W$1:$W$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="investigationtype">'cv_sample'!$AD$1:$AD$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="698">
   <si>
     <t>alias</t>
   </si>
@@ -1016,7 +1016,7 @@
     <t>reassembly post binning</t>
   </si>
   <si>
-    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
+    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: No, Yes)</t>
   </si>
   <si>
     <t>MAG coverage software</t>
@@ -1151,7 +1151,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>size fraction selected</t>
@@ -1373,9 +1373,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1394,6 +1391,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1595,6 +1595,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1604,9 +1607,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1646,7 +1646,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1715,6 +1715,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1790,6 +1793,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1811,6 +1817,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1856,6 +1865,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1868,6 +1880,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1877,9 +1892,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1904,6 +1916,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1964,12 +1979,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2114,7 +2129,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -3788,49 +3803,49 @@
         <v>372</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="150" customHeight="1">
@@ -3964,49 +3979,49 @@
         <v>373</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -4039,7 +4054,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AR289"/>
+  <dimension ref="G1:AR294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5574,6 +5589,31 @@
         <v>662</v>
       </c>
     </row>
+    <row r="290" spans="44:44">
+      <c r="AR290" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="291" spans="44:44">
+      <c r="AR291" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="292" spans="44:44">
+      <c r="AR292" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="293" spans="44:44">
+      <c r="AR293" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="294" spans="44:44">
+      <c r="AR294" t="s">
+        <v>667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000050/metadata_template_ERC000050.xlsx
+++ b/templates/ERC000050/metadata_template_ERC000050.xlsx
@@ -20,7 +20,7 @@
     <definedName name="assemblyquality">'cv_sample'!$AC$1:$AC$3</definedName>
     <definedName name="contaminationscreeninginput">'cv_sample'!$W$1:$W$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="investigationtype">'cv_sample'!$AD$1:$AD$12</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="698">
   <si>
     <t>alias</t>
   </si>
@@ -1151,7 +1151,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>size fraction selected</t>
@@ -1373,9 +1373,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1394,6 +1391,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1595,6 +1595,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1604,9 +1607,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1646,7 +1646,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1715,6 +1715,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1790,6 +1793,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1811,6 +1817,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1856,6 +1865,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1868,6 +1880,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1877,9 +1892,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1904,6 +1916,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1964,12 +1979,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2114,7 +2129,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3788,49 +3803,49 @@
         <v>372</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="150" customHeight="1">
@@ -3964,49 +3979,49 @@
         <v>373</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -4039,7 +4054,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AR289"/>
+  <dimension ref="G1:AR294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5574,6 +5589,31 @@
         <v>662</v>
       </c>
     </row>
+    <row r="290" spans="44:44">
+      <c r="AR290" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="291" spans="44:44">
+      <c r="AR291" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="292" spans="44:44">
+      <c r="AR292" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="293" spans="44:44">
+      <c r="AR293" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="294" spans="44:44">
+      <c r="AR294" t="s">
+        <v>667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
